--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1207"/>
+  <dimension ref="A1:H1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36477,10 +36477,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1128">
@@ -36511,10 +36509,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1129">
@@ -36549,10 +36545,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1129" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1130">
@@ -36587,10 +36581,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H1130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1131">
@@ -36621,10 +36613,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1132">
@@ -36655,10 +36645,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1133">
@@ -36689,10 +36677,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1133" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1134">
@@ -36719,10 +36705,8 @@
       </c>
       <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr"/>
-      <c r="H1134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1134" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1135">
@@ -36749,10 +36733,8 @@
       </c>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr"/>
-      <c r="H1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1136">
@@ -36779,10 +36761,8 @@
       </c>
       <c r="F1136" t="inlineStr"/>
       <c r="G1136" t="inlineStr"/>
-      <c r="H1136" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1136" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1137">
@@ -36809,10 +36789,8 @@
       </c>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
-      <c r="H1137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1137" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1138">
@@ -36839,10 +36817,8 @@
       </c>
       <c r="F1138" t="inlineStr"/>
       <c r="G1138" t="inlineStr"/>
-      <c r="H1138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1138" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1139">
@@ -36865,10 +36841,8 @@
       </c>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1140">
@@ -36913,10 +36887,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1141" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1142">
@@ -36947,10 +36919,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1142" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1142" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1143">
@@ -36977,10 +36947,8 @@
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1143" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1144">
@@ -37007,10 +36975,8 @@
       </c>
       <c r="F1144" t="inlineStr"/>
       <c r="G1144" t="inlineStr"/>
-      <c r="H1144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1144" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1145">
@@ -37037,10 +37003,8 @@
       </c>
       <c r="F1145" t="inlineStr"/>
       <c r="G1145" t="inlineStr"/>
-      <c r="H1145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1146">
@@ -37075,10 +37039,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1146" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1147">
@@ -37109,10 +37071,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1148">
@@ -37139,10 +37099,8 @@
       </c>
       <c r="F1148" t="inlineStr"/>
       <c r="G1148" t="inlineStr"/>
-      <c r="H1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1148" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1149">
@@ -37161,88 +37119,86 @@
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr">
+      <c r="H1149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr"/>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1150" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr"/>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr"/>
-      <c r="H1150" t="inlineStr"/>
-    </row>
     <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1151" t="inlineStr"/>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1152" t="inlineStr"/>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
           <t>3</t>
@@ -37252,59 +37208,35 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1153" t="inlineStr"/>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
@@ -37316,17 +37248,17 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
@@ -37342,139 +37274,159 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr"/>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
       <c r="G1158" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr"/>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr"/>
+      <c r="G1160" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1160" t="inlineStr">
         <is>
           <t>3</t>
@@ -37484,23 +37436,31 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
           <t>3</t>
@@ -37510,57 +37470,61 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
+      <c r="E1162" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr"/>
+      <c r="G1162" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
         <is>
           <t>3</t>
@@ -37570,31 +37534,27 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
         <is>
           <t>3</t>
@@ -37604,31 +37564,27 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1165" t="inlineStr"/>
       <c r="H1165" t="inlineStr">
         <is>
           <t>3</t>
@@ -37638,87 +37594,83 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr"/>
+      <c r="E1166" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1166" t="inlineStr"/>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1167" t="inlineStr"/>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
@@ -37730,23 +37682,23 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr"/>
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
       <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
@@ -37756,21 +37708,25 @@
       </c>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr"/>
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
@@ -37782,25 +37738,29 @@
       </c>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr"/>
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -37808,121 +37768,169 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr"/>
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1174">
-      <c r="A1174" t="inlineStr"/>
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr"/>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr"/>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr"/>
+      <c r="G1176" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1176" t="inlineStr">
         <is>
           <t>3</t>
@@ -37932,23 +37940,27 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
       <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr"/>
+      <c r="G1177" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -37958,257 +37970,209 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1179" t="inlineStr"/>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1180" t="inlineStr"/>
       <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1181" t="inlineStr"/>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
       <c r="G1182" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1183" t="inlineStr"/>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr"/>
+      <c r="C1184" t="inlineStr"/>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1184" t="inlineStr"/>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1184" t="inlineStr"/>
+      <c r="H1184" t="inlineStr"/>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38218,7 +38182,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
@@ -38228,27 +38192,31 @@
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
@@ -38258,606 +38226,90 @@
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
+      <c r="G1188" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
+      <c r="G1189" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1189" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1190" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr"/>
-      <c r="H1190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1191" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1191" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
-      <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
-      <c r="H1191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1192" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1192" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1192" t="inlineStr"/>
-      <c r="E1192" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr"/>
-      <c r="H1192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1193" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr"/>
-      <c r="H1193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1194" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1194" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1195" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1195" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1195" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1196" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1196" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1197" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1198" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H1198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1199" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1199" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
-      <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1200" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1201" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
-      <c r="H1201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1202" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
-      <c r="H1202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1203" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
-      <c r="H1203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1204" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H1204" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1205" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr"/>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr"/>
-      <c r="H1205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr"/>
-      <c r="C1206" t="inlineStr"/>
-      <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr"/>
-      <c r="H1206" t="inlineStr"/>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1207" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
-      <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H1207" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1236"/>
+  <dimension ref="A1:H1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28699,10 +28699,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -28733,10 +28731,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -28771,10 +28767,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H879" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -28809,10 +28803,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H880" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -28847,10 +28839,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H881" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="882">
@@ -28873,10 +28863,8 @@
       <c r="E882" t="inlineStr"/>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr"/>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -28925,10 +28913,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28959,10 +28945,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -28993,10 +28977,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29023,10 +29005,8 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29053,10 +29033,8 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29083,10 +29061,8 @@
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29121,10 +29097,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H890" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="891">
@@ -29155,10 +29129,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29189,10 +29161,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29223,10 +29193,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29253,10 +29221,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29283,10 +29249,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29313,10 +29277,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29347,10 +29309,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -29377,10 +29337,8 @@
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -29407,10 +29365,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -29445,10 +29401,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -29475,10 +29429,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H901" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="902">
@@ -29505,10 +29457,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H902" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -29543,10 +29493,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H903" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="904">
@@ -29581,10 +29529,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29615,10 +29561,8 @@
         </is>
       </c>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29649,10 +29593,8 @@
         </is>
       </c>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29679,10 +29621,8 @@
       </c>
       <c r="F907" t="inlineStr"/>
       <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29705,10 +29645,8 @@
       </c>
       <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr"/>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29735,10 +29673,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29765,10 +29701,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29795,10 +29729,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29829,10 +29761,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29859,10 +29789,8 @@
         </is>
       </c>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29893,10 +29821,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29927,10 +29853,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -29953,10 +29877,8 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -29975,10 +29897,8 @@
       <c r="E917" t="inlineStr"/>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30027,10 +29947,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30061,10 +29979,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30091,10 +30007,8 @@
       </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30121,10 +30035,8 @@
       </c>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30155,10 +30067,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30189,10 +30099,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30227,10 +30135,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30261,10 +30167,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30287,10 +30191,8 @@
       <c r="E927" t="inlineStr"/>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30321,10 +30223,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30347,10 +30247,8 @@
       <c r="E929" t="inlineStr"/>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30385,10 +30283,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H930" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="931">
@@ -30419,10 +30315,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30449,10 +30343,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30479,10 +30371,8 @@
       </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30509,10 +30399,8 @@
       </c>
       <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr"/>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30539,10 +30427,8 @@
       </c>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30565,10 +30451,8 @@
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="937">
@@ -30603,10 +30487,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="938">
@@ -30637,10 +30519,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30675,10 +30555,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H939" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="940">
@@ -30713,10 +30591,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H940" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="941">
@@ -30751,10 +30627,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30785,10 +30659,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30819,10 +30691,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30853,10 +30723,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="945">
@@ -30891,10 +30759,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30921,10 +30787,8 @@
       </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -30947,10 +30811,8 @@
       <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H947" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="948">
@@ -30985,10 +30847,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31015,10 +30875,8 @@
       </c>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="950">
@@ -31049,10 +30907,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31083,10 +30939,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31109,10 +30963,8 @@
       <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -31143,10 +30995,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31177,10 +31027,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31207,10 +31055,8 @@
       </c>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr"/>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H955" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -31241,10 +31087,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31267,10 +31111,8 @@
       <c r="E957" t="inlineStr"/>
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31305,10 +31147,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H958" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="959">
@@ -31339,10 +31179,8 @@
         </is>
       </c>
       <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31373,10 +31211,8 @@
         </is>
       </c>
       <c r="G960" t="inlineStr"/>
-      <c r="H960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H960" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="961">
@@ -31399,10 +31235,8 @@
       </c>
       <c r="F961" t="inlineStr"/>
       <c r="G961" t="inlineStr"/>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -31425,10 +31259,8 @@
       </c>
       <c r="F962" t="inlineStr"/>
       <c r="G962" t="inlineStr"/>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H962" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="963">
@@ -31477,10 +31309,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="965">
@@ -31515,10 +31345,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -31549,10 +31377,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H966" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -31587,10 +31413,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H967" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="968">
@@ -31625,10 +31449,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H968" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="969">
@@ -31659,10 +31481,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H969" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="970">
@@ -31693,10 +31513,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31727,10 +31545,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31761,10 +31577,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31799,10 +31613,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31833,10 +31645,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31871,10 +31681,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -31905,10 +31713,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -31939,10 +31745,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="978">
@@ -31977,10 +31781,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -32011,10 +31813,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="980">
@@ -32045,10 +31845,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -32079,10 +31877,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="982">
@@ -32113,10 +31909,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32151,10 +31945,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H983" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="984">
@@ -32189,10 +31981,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H984" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="985">
@@ -32227,10 +32017,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32265,10 +32053,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32291,10 +32077,8 @@
       <c r="E987" t="inlineStr"/>
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr"/>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32329,10 +32113,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -32367,10 +32149,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -32405,10 +32185,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -32443,10 +32221,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -32481,10 +32257,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -32507,10 +32281,8 @@
       <c r="E993" t="inlineStr"/>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H993" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="994">
@@ -32545,10 +32317,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H994" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="995">
@@ -32583,10 +32353,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="996">
@@ -32621,10 +32389,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -32651,10 +32417,8 @@
       </c>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32681,10 +32445,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -32715,10 +32477,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32749,10 +32509,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32779,10 +32537,8 @@
       </c>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1002">
@@ -32809,10 +32565,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32839,10 +32593,8 @@
       </c>
       <c r="F1003" t="inlineStr"/>
       <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32869,10 +32621,8 @@
       </c>
       <c r="F1004" t="inlineStr"/>
       <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -32899,10 +32649,8 @@
       </c>
       <c r="F1005" t="inlineStr"/>
       <c r="G1005" t="inlineStr"/>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -32937,10 +32685,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1007">
@@ -32967,10 +32713,8 @@
       </c>
       <c r="F1007" t="inlineStr"/>
       <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1008">
@@ -33005,10 +32749,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1009">
@@ -33043,10 +32785,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -33081,10 +32821,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1011">
@@ -33119,10 +32857,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1012">
@@ -33157,10 +32893,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1013">
@@ -33191,10 +32925,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33225,10 +32957,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33263,10 +32993,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -33289,10 +33017,8 @@
       <c r="E1016" t="inlineStr"/>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -33315,10 +33041,8 @@
       <c r="E1017" t="inlineStr"/>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1018">
@@ -33345,10 +33069,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -33375,10 +33097,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1020">
@@ -33405,10 +33125,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33435,10 +33153,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33465,10 +33181,8 @@
       </c>
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -33495,10 +33209,8 @@
       </c>
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -33525,10 +33237,8 @@
       </c>
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1025">
@@ -33555,10 +33265,8 @@
       </c>
       <c r="F1025" t="inlineStr"/>
       <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
@@ -33585,10 +33293,8 @@
       </c>
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1027">
@@ -33623,10 +33329,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1028">
@@ -33661,10 +33365,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33687,10 +33389,8 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1030">
@@ -33717,10 +33417,8 @@
       </c>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -33751,10 +33449,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1032">
@@ -33781,10 +33477,8 @@
       </c>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33807,10 +33501,8 @@
       <c r="E1033" t="inlineStr"/>
       <c r="F1033" t="inlineStr"/>
       <c r="G1033" t="inlineStr"/>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -33833,10 +33525,8 @@
       <c r="E1034" t="inlineStr"/>
       <c r="F1034" t="inlineStr"/>
       <c r="G1034" t="inlineStr"/>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -33859,10 +33549,8 @@
       <c r="E1035" t="inlineStr"/>
       <c r="F1035" t="inlineStr"/>
       <c r="G1035" t="inlineStr"/>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -33893,10 +33581,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -33927,10 +33613,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1038">
@@ -33965,10 +33649,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -34003,10 +33685,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -34041,10 +33721,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1041">
@@ -34079,10 +33757,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1042">
@@ -34109,10 +33785,8 @@
       </c>
       <c r="F1042" t="inlineStr"/>
       <c r="G1042" t="inlineStr"/>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34139,10 +33813,8 @@
       </c>
       <c r="F1043" t="inlineStr"/>
       <c r="G1043" t="inlineStr"/>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34177,10 +33849,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34215,10 +33885,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1046">
@@ -34245,10 +33913,8 @@
       </c>
       <c r="F1046" t="inlineStr"/>
       <c r="G1046" t="inlineStr"/>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34275,10 +33941,8 @@
       </c>
       <c r="F1047" t="inlineStr"/>
       <c r="G1047" t="inlineStr"/>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34305,10 +33969,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34335,10 +33997,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34365,10 +34025,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34391,10 +34049,8 @@
       </c>
       <c r="F1051" t="inlineStr"/>
       <c r="G1051" t="inlineStr"/>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34413,10 +34069,8 @@
       <c r="E1052" t="inlineStr"/>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34443,10 +34097,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1053" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1054">
@@ -34473,10 +34125,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34503,10 +34153,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -34547,10 +34195,8 @@
       </c>
       <c r="F1057" t="inlineStr"/>
       <c r="G1057" t="inlineStr"/>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -34585,10 +34231,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1059">
@@ -34623,10 +34267,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -34661,10 +34303,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -34699,10 +34339,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1062">
@@ -34737,10 +34375,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -34771,10 +34407,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1064">
@@ -34809,10 +34443,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -34847,10 +34479,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -34881,10 +34511,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1067">
@@ -34919,10 +34547,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -34957,10 +34583,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -34991,10 +34615,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35025,10 +34647,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1071">
@@ -35063,10 +34683,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -35101,10 +34719,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -35139,10 +34755,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1074">
@@ -35177,10 +34791,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1075">
@@ -35215,10 +34827,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1076">
@@ -35253,10 +34863,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35291,10 +34899,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35317,10 +34923,8 @@
       <c r="E1078" t="inlineStr"/>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35347,10 +34951,8 @@
       </c>
       <c r="F1079" t="inlineStr"/>
       <c r="G1079" t="inlineStr"/>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -35373,10 +34975,8 @@
       <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1081">
@@ -35403,10 +35003,8 @@
       </c>
       <c r="F1081" t="inlineStr"/>
       <c r="G1081" t="inlineStr"/>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35441,10 +35039,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35471,10 +35067,8 @@
       </c>
       <c r="F1083" t="inlineStr"/>
       <c r="G1083" t="inlineStr"/>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -35505,10 +35099,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -35531,10 +35123,8 @@
       <c r="E1085" t="inlineStr"/>
       <c r="F1085" t="inlineStr"/>
       <c r="G1085" t="inlineStr"/>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -35565,10 +35155,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1087">
@@ -35603,10 +35191,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35641,10 +35227,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -35675,10 +35259,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -35713,10 +35295,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -35751,10 +35331,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1092">
@@ -35789,10 +35367,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1093">
@@ -35827,10 +35403,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1094">
@@ -35861,10 +35435,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35895,10 +35467,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -35929,10 +35499,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -35963,10 +35531,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -35993,10 +35559,8 @@
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36023,10 +35587,8 @@
       </c>
       <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr"/>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36053,10 +35615,8 @@
       </c>
       <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr"/>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
@@ -36083,10 +35643,8 @@
       </c>
       <c r="F1101" t="inlineStr"/>
       <c r="G1101" t="inlineStr"/>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -36113,10 +35671,8 @@
       </c>
       <c r="F1102" t="inlineStr"/>
       <c r="G1102" t="inlineStr"/>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1103">
@@ -36147,10 +35703,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1104">
@@ -36181,10 +35735,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36219,10 +35771,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1106">
@@ -36257,10 +35807,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1107">
@@ -36295,10 +35843,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36325,10 +35871,8 @@
       </c>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -36355,10 +35899,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36385,10 +35927,8 @@
       </c>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -36415,10 +35955,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36445,10 +35983,8 @@
       </c>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36471,10 +36007,8 @@
       <c r="E1113" t="inlineStr"/>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1114">
@@ -36501,10 +36035,8 @@
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36531,10 +36063,8 @@
       </c>
       <c r="F1115" t="inlineStr"/>
       <c r="G1115" t="inlineStr"/>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36561,10 +36091,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36595,10 +36123,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1118">
@@ -36633,10 +36159,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -36663,10 +36187,8 @@
       </c>
       <c r="F1119" t="inlineStr"/>
       <c r="G1119" t="inlineStr"/>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1120">
@@ -36697,10 +36219,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -36731,10 +36251,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1122">
@@ -36769,10 +36287,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1123">
@@ -36807,10 +36323,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1124">
@@ -36845,10 +36359,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -36883,10 +36395,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1126">
@@ -36921,10 +36431,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1127">
@@ -36955,10 +36463,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1128">
@@ -36993,10 +36499,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1129">
@@ -37023,94 +36527,108 @@
       </c>
       <c r="F1129" t="inlineStr"/>
       <c r="G1129" t="inlineStr"/>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1130" t="inlineStr"/>
-      <c r="C1130" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1130" t="inlineStr"/>
-      <c r="E1130" t="inlineStr"/>
+      <c r="E1130" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1130" t="inlineStr"/>
-      <c r="G1130" t="inlineStr"/>
-      <c r="H1130" t="inlineStr"/>
+      <c r="G1130" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1131" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
@@ -37122,29 +36640,33 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G1133" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1133" t="inlineStr">
@@ -37156,29 +36678,29 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1134" t="inlineStr">
@@ -37190,29 +36712,29 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1135" t="inlineStr">
@@ -37224,31 +36746,31 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1136" t="inlineStr">
         <is>
           <t>3</t>
@@ -37258,145 +36780,117 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1139" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1140" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr"/>
       <c r="H1140" t="inlineStr">
         <is>
           <t>3</t>
@@ -37406,35 +36900,27 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1141" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr"/>
       <c r="H1141" t="inlineStr">
         <is>
           <t>3</t>
@@ -37442,23 +36928,23 @@
       </c>
     </row>
     <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1142" t="inlineStr"/>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
-      <c r="E1142" t="inlineStr"/>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1142" t="inlineStr"/>
       <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
@@ -37470,173 +36956,165 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr"/>
+      <c r="C1143" t="inlineStr"/>
       <c r="D1143" t="inlineStr"/>
-      <c r="E1143" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1143" t="inlineStr"/>
       <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1143" t="inlineStr"/>
+      <c r="H1143" t="inlineStr"/>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
-      <c r="E1144" t="inlineStr"/>
+      <c r="E1144" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr"/>
+      <c r="G1144" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr"/>
+      <c r="G1145" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1146" t="inlineStr"/>
       <c r="G1146" t="inlineStr"/>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr"/>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1148" t="inlineStr"/>
@@ -37650,27 +37128,35 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1149" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1149" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1149" t="inlineStr">
         <is>
           <t>3</t>
@@ -37680,177 +37166,129 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="inlineStr"/>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1152" t="inlineStr"/>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1153" t="inlineStr"/>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H1153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1154" t="inlineStr">
@@ -37862,33 +37300,29 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1155" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1155" t="inlineStr">
@@ -37900,29 +37334,29 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1156" t="inlineStr">
@@ -37934,17 +37368,17 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
@@ -37954,11 +37388,7 @@
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1157" t="inlineStr"/>
       <c r="H1157" t="inlineStr">
         <is>
           <t>3</t>
@@ -37968,31 +37398,23 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
-      <c r="E1158" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1158" t="inlineStr"/>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1158" t="inlineStr"/>
       <c r="H1158" t="inlineStr">
         <is>
           <t>3</t>
@@ -38002,25 +37424,21 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38032,23 +37450,23 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1160" t="inlineStr"/>
@@ -38062,55 +37480,55 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr"/>
       <c r="H1162" t="inlineStr">
@@ -38122,25 +37540,21 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
-      <c r="E1163" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1163" t="inlineStr"/>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
@@ -38150,23 +37564,23 @@
       </c>
     </row>
     <row r="1164">
-      <c r="A1164" t="inlineStr"/>
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
-      <c r="E1164" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1164" t="inlineStr"/>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
@@ -38178,169 +37592,189 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
-      <c r="C1165" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr"/>
       <c r="F1165" t="inlineStr"/>
       <c r="G1165" t="inlineStr"/>
-      <c r="H1165" t="inlineStr"/>
+      <c r="H1165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
       <c r="G1166" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
       <c r="G1167" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr"/>
+      <c r="G1169" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1170" t="inlineStr">
         <is>
           <t>3</t>
@@ -38350,7 +37784,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
@@ -38360,25 +37794,17 @@
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1171" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -38386,33 +37812,25 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1172" t="inlineStr"/>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1172" t="inlineStr"/>
       <c r="H1172" t="inlineStr">
         <is>
           <t>3</t>
@@ -38420,25 +37838,21 @@
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
@@ -38453,18 +37867,22 @@
       <c r="A1174" t="inlineStr"/>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
       <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38472,81 +37890,81 @@
       </c>
     </row>
     <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
+      <c r="A1175" t="inlineStr"/>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1176" t="inlineStr"/>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
       <c r="E1176" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1176" t="inlineStr"/>
       <c r="G1176" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1177" t="inlineStr"/>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -38556,59 +37974,35 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr"/>
+      <c r="C1178" t="inlineStr"/>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1178" t="inlineStr"/>
+      <c r="H1178" t="inlineStr"/>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr"/>
       <c r="H1179" t="inlineStr">
@@ -38620,17 +38014,17 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
@@ -38646,139 +38040,159 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1183" t="inlineStr"/>
       <c r="G1183" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1184" t="inlineStr"/>
       <c r="G1184" t="inlineStr"/>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38788,23 +38202,31 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38814,57 +38236,61 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
           <t>3</t>
@@ -38874,31 +38300,27 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
           <t>3</t>
@@ -38908,31 +38330,27 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
         <is>
           <t>3</t>
@@ -38942,87 +38360,83 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1192" t="inlineStr"/>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
@@ -39034,23 +38448,23 @@
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr"/>
       <c r="H1194" t="inlineStr">
@@ -39060,21 +38474,25 @@
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
@@ -39086,25 +38504,29 @@
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr"/>
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1196" t="inlineStr"/>
       <c r="H1196" t="inlineStr">
         <is>
           <t>3</t>
@@ -39112,121 +38534,169 @@
       </c>
     </row>
     <row r="1197">
-      <c r="A1197" t="inlineStr"/>
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1197" t="inlineStr"/>
       <c r="G1197" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1198">
-      <c r="A1198" t="inlineStr"/>
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1198" t="inlineStr"/>
       <c r="G1198" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1199">
-      <c r="A1199" t="inlineStr"/>
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr"/>
-      <c r="C1200" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
+      <c r="E1200" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr"/>
+      <c r="G1200" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1200" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1201" t="inlineStr">
         <is>
           <t>3</t>
@@ -39236,23 +38706,27 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
       <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
+      <c r="G1202" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1202" t="inlineStr">
         <is>
           <t>3</t>
@@ -39262,257 +38736,209 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr"/>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1204" t="inlineStr"/>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
       <c r="G1206" t="inlineStr"/>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
       <c r="G1207" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1208" t="inlineStr"/>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1208" t="inlineStr"/>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr"/>
+      <c r="C1209" t="inlineStr"/>
       <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1209" t="inlineStr"/>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1209" t="inlineStr"/>
+      <c r="H1209" t="inlineStr"/>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
+      <c r="G1210" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1210" t="inlineStr">
         <is>
           <t>3</t>
@@ -39522,7 +38948,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
@@ -39532,27 +38958,31 @@
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
@@ -39562,742 +38992,90 @@
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
       <c r="E1212" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
+      <c r="G1212" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
       <c r="E1213" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
+      <c r="G1213" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
+      <c r="G1214" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1214" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1215" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
-      <c r="H1215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1216" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
-      <c r="H1216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1217" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr"/>
-      <c r="H1217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1218" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr"/>
-      <c r="H1218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1219" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1219" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1220" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1221" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1222" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1223" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H1223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1224" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1225" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
-      <c r="H1225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1226" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
-      <c r="H1226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1227" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
-      <c r="H1227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1228" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr"/>
-      <c r="H1228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1229" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1229" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
-      <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H1229" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1230" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1230" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr"/>
-      <c r="H1230" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr"/>
-      <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr"/>
-      <c r="H1231" t="inlineStr"/>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1232" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1232" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
-      <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
-      <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H1232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1233" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1234" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1234" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1235" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H1235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1236" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1236" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1236"/>
+  <dimension ref="A1:H1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28895,10 +28895,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -28925,10 +28923,8 @@
       </c>
       <c r="F884" t="inlineStr"/>
       <c r="G884" t="inlineStr"/>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28955,10 +28951,8 @@
       </c>
       <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr"/>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -28985,10 +28979,8 @@
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr"/>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29023,10 +29015,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H887" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="888">
@@ -29057,10 +29047,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29091,10 +29079,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29125,10 +29111,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -29155,10 +29139,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29185,10 +29167,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29215,10 +29195,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29249,10 +29227,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29279,10 +29255,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29309,10 +29283,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29347,10 +29319,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -29377,10 +29347,8 @@
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H898" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="899">
@@ -29407,10 +29375,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H899" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -29445,10 +29411,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -29483,10 +29447,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -29517,10 +29479,8 @@
         </is>
       </c>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -29551,10 +29511,8 @@
         </is>
       </c>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -29581,10 +29539,8 @@
       </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29607,10 +29563,8 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29637,10 +29591,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29667,10 +29619,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29697,10 +29647,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29731,10 +29679,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29761,10 +29707,8 @@
         </is>
       </c>
       <c r="G910" t="inlineStr"/>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29795,10 +29739,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29829,10 +29771,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29855,10 +29795,8 @@
       </c>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29877,10 +29815,8 @@
       <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29929,10 +29865,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -29963,10 +29897,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -29993,10 +29925,8 @@
       </c>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30023,10 +29953,8 @@
       </c>
       <c r="F919" t="inlineStr"/>
       <c r="G919" t="inlineStr"/>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30057,10 +29985,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30091,10 +30017,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30129,10 +30053,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30163,10 +30085,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30189,10 +30109,8 @@
       <c r="E924" t="inlineStr"/>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30223,10 +30141,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30249,10 +30165,8 @@
       <c r="E926" t="inlineStr"/>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr"/>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30287,10 +30201,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H927" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="928">
@@ -30321,10 +30233,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30351,10 +30261,8 @@
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30381,10 +30289,8 @@
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30411,10 +30317,8 @@
       </c>
       <c r="F931" t="inlineStr"/>
       <c r="G931" t="inlineStr"/>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30441,10 +30345,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30467,10 +30369,8 @@
       <c r="E933" t="inlineStr"/>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30505,10 +30405,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30539,10 +30437,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30577,10 +30473,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H936" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="937">
@@ -30615,10 +30509,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="938">
@@ -30653,10 +30545,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30687,10 +30577,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -30721,10 +30609,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="941">
@@ -30755,10 +30641,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30793,10 +30677,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30823,10 +30705,8 @@
       </c>
       <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr"/>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30849,10 +30729,8 @@
       <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr"/>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H944" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="945">
@@ -30887,10 +30765,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30917,10 +30793,8 @@
       </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -30951,10 +30825,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="948">
@@ -30985,10 +30857,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31011,10 +30881,8 @@
       <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H949" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="950">
@@ -31045,10 +30913,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31079,10 +30945,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31109,10 +30973,8 @@
       </c>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -31143,10 +31005,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31169,10 +31029,8 @@
       <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31207,10 +31065,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H955" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -31241,10 +31097,8 @@
         </is>
       </c>
       <c r="G956" t="inlineStr"/>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31275,10 +31129,8 @@
         </is>
       </c>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31301,10 +31153,8 @@
       </c>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr"/>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H958" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="959">
@@ -31327,10 +31177,8 @@
       </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31379,10 +31227,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -31417,10 +31263,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H962" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="963">
@@ -31451,10 +31295,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H963" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -31489,10 +31331,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H964" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -31527,10 +31367,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -31561,10 +31399,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H966" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -31595,10 +31431,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="968">
@@ -31629,10 +31463,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="969">
@@ -31663,10 +31495,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="970">
@@ -31701,10 +31531,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31735,10 +31563,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31773,10 +31599,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31807,10 +31631,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31841,10 +31663,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31879,10 +31699,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -31913,10 +31731,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -31947,10 +31763,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H977" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="978">
@@ -31981,10 +31795,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -32015,10 +31827,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="980">
@@ -32053,10 +31863,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -32091,10 +31899,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H981" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="982">
@@ -32129,10 +31935,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32167,10 +31971,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="984">
@@ -32193,10 +31995,8 @@
       <c r="E984" t="inlineStr"/>
       <c r="F984" t="inlineStr"/>
       <c r="G984" t="inlineStr"/>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="985">
@@ -32231,10 +32031,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32269,10 +32067,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32307,10 +32103,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32345,10 +32139,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -32383,10 +32175,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -32409,10 +32199,8 @@
       <c r="E990" t="inlineStr"/>
       <c r="F990" t="inlineStr"/>
       <c r="G990" t="inlineStr"/>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H990" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="991">
@@ -32447,10 +32235,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H991" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="992">
@@ -32485,10 +32271,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="993">
@@ -32523,10 +32307,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="994">
@@ -32553,10 +32335,8 @@
       </c>
       <c r="F994" t="inlineStr"/>
       <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="995">
@@ -32583,10 +32363,8 @@
       </c>
       <c r="F995" t="inlineStr"/>
       <c r="G995" t="inlineStr"/>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="996">
@@ -32617,10 +32395,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -32651,10 +32427,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32681,10 +32455,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H998" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="999">
@@ -32711,10 +32483,8 @@
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr"/>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32741,10 +32511,8 @@
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32771,10 +32539,8 @@
       </c>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -32801,10 +32567,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32839,10 +32603,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32869,10 +32631,8 @@
       </c>
       <c r="F1004" t="inlineStr"/>
       <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -32907,10 +32667,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -32945,10 +32703,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1007">
@@ -32983,10 +32739,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -33021,10 +32775,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1009">
@@ -33059,10 +32811,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -33093,10 +32843,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -33127,10 +32875,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1012">
@@ -33165,10 +32911,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -33191,10 +32935,8 @@
       <c r="E1013" t="inlineStr"/>
       <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr"/>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33217,10 +32959,8 @@
       <c r="E1014" t="inlineStr"/>
       <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33247,10 +32987,8 @@
       </c>
       <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -33277,10 +33015,8 @@
       </c>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -33307,10 +33043,8 @@
       </c>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1018">
@@ -33337,10 +33071,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1019">
@@ -33367,10 +33099,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1020">
@@ -33397,10 +33127,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33427,10 +33155,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33457,10 +33183,8 @@
       </c>
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -33487,10 +33211,8 @@
       </c>
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -33525,10 +33247,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -33563,10 +33283,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1026">
@@ -33589,10 +33307,8 @@
       <c r="E1026" t="inlineStr"/>
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -33619,10 +33335,8 @@
       </c>
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -33653,10 +33367,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33683,10 +33395,8 @@
       </c>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1030">
@@ -33709,10 +33419,8 @@
       <c r="E1030" t="inlineStr"/>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1031">
@@ -33735,10 +33443,8 @@
       <c r="E1031" t="inlineStr"/>
       <c r="F1031" t="inlineStr"/>
       <c r="G1031" t="inlineStr"/>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1032">
@@ -33761,10 +33467,8 @@
       <c r="E1032" t="inlineStr"/>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33795,10 +33499,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -33829,10 +33531,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -33867,10 +33567,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -33905,10 +33603,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -33943,10 +33639,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1038">
@@ -33981,10 +33675,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1039">
@@ -34011,10 +33703,8 @@
       </c>
       <c r="F1039" t="inlineStr"/>
       <c r="G1039" t="inlineStr"/>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -34041,10 +33731,8 @@
       </c>
       <c r="F1040" t="inlineStr"/>
       <c r="G1040" t="inlineStr"/>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1041">
@@ -34079,10 +33767,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
@@ -34117,10 +33803,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34147,10 +33831,8 @@
       </c>
       <c r="F1043" t="inlineStr"/>
       <c r="G1043" t="inlineStr"/>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34177,10 +33859,8 @@
       </c>
       <c r="F1044" t="inlineStr"/>
       <c r="G1044" t="inlineStr"/>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34207,10 +33887,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -34237,10 +33915,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34267,10 +33943,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34293,10 +33967,8 @@
       </c>
       <c r="F1048" t="inlineStr"/>
       <c r="G1048" t="inlineStr"/>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34315,10 +33987,8 @@
       <c r="E1049" t="inlineStr"/>
       <c r="F1049" t="inlineStr"/>
       <c r="G1049" t="inlineStr"/>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34345,10 +34015,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34375,10 +34043,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34405,10 +34071,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34449,10 +34113,8 @@
       </c>
       <c r="F1054" t="inlineStr"/>
       <c r="G1054" t="inlineStr"/>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34487,10 +34149,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -34525,10 +34185,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1057">
@@ -34563,10 +34221,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -34601,10 +34257,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -34639,10 +34293,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -34673,10 +34325,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1061">
@@ -34711,10 +34361,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1062">
@@ -34749,10 +34397,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1063">
@@ -34783,10 +34429,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1064">
@@ -34821,10 +34465,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -34859,10 +34501,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -34893,10 +34533,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -34927,10 +34565,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -34965,10 +34601,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1069">
@@ -35003,10 +34637,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35041,10 +34673,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1071">
@@ -35079,10 +34709,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1072">
@@ -35117,10 +34745,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1073">
@@ -35155,10 +34781,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -35193,10 +34817,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -35219,10 +34841,8 @@
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -35249,10 +34869,8 @@
       </c>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35275,10 +34893,8 @@
       <c r="E1077" t="inlineStr"/>
       <c r="F1077" t="inlineStr"/>
       <c r="G1077" t="inlineStr"/>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35305,10 +34921,8 @@
       </c>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35343,10 +34957,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1080">
@@ -35373,10 +34985,8 @@
       </c>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1081">
@@ -35407,10 +35017,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35433,10 +35041,8 @@
       <c r="E1082" t="inlineStr"/>
       <c r="F1082" t="inlineStr"/>
       <c r="G1082" t="inlineStr"/>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35467,10 +35073,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -35505,10 +35109,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1085">
@@ -35543,10 +35145,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1086">
@@ -35577,10 +35177,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -35615,10 +35213,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35653,10 +35249,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -35691,10 +35285,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -35729,10 +35321,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -35763,10 +35353,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -35797,10 +35385,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -35831,10 +35417,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -35865,10 +35449,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35895,10 +35477,8 @@
       </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -35925,10 +35505,8 @@
       </c>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -35955,10 +35533,8 @@
       </c>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr"/>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -35985,10 +35561,8 @@
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36015,10 +35589,8 @@
       </c>
       <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr"/>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36049,10 +35621,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
@@ -36083,10 +35653,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -36121,10 +35689,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1103">
@@ -36159,10 +35725,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1104">
@@ -36197,10 +35761,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36227,10 +35789,8 @@
       </c>
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1106">
@@ -36257,10 +35817,8 @@
       </c>
       <c r="F1106" t="inlineStr"/>
       <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1107">
@@ -36287,10 +35845,8 @@
       </c>
       <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36317,10 +35873,8 @@
       </c>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -36347,10 +35901,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36373,10 +35925,8 @@
       <c r="E1110" t="inlineStr"/>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1111">
@@ -36403,10 +35953,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36433,10 +35981,8 @@
       </c>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36463,10 +36009,8 @@
       </c>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -36497,10 +36041,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36535,10 +36077,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36565,10 +36105,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36599,10 +36137,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1118">
@@ -36633,10 +36169,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -36671,10 +36205,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -36709,10 +36241,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1121">
@@ -36747,10 +36277,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1122">
@@ -36785,10 +36313,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1123">
@@ -36823,10 +36349,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1124">
@@ -36857,10 +36381,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1125">
@@ -36895,10 +36417,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -36925,94 +36445,108 @@
       </c>
       <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr"/>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr"/>
-      <c r="C1127" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
-      <c r="H1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1128" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1128" t="inlineStr"/>
       <c r="G1128" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -37024,29 +36558,33 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1130" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1130" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1130" t="inlineStr">
@@ -37058,29 +36596,29 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
@@ -37092,29 +36630,29 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
@@ -37126,31 +36664,31 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1133" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1133" t="inlineStr">
         <is>
           <t>3</t>
@@ -37160,145 +36698,117 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G1134" t="inlineStr"/>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1135" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr"/>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1137" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
           <t>3</t>
@@ -37308,35 +36818,27 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
           <t>3</t>
@@ -37344,23 +36846,23 @@
       </c>
     </row>
     <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1139" t="inlineStr"/>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
-      <c r="E1139" t="inlineStr"/>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
@@ -37372,173 +36874,165 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1140" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr"/>
+      <c r="C1140" t="inlineStr"/>
       <c r="D1140" t="inlineStr"/>
-      <c r="E1140" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1140" t="inlineStr"/>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1140" t="inlineStr"/>
+      <c r="H1140" t="inlineStr"/>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
-      <c r="E1141" t="inlineStr"/>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr"/>
+      <c r="G1142" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
       <c r="G1144" t="inlineStr"/>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
@@ -37552,27 +37046,35 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1146" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1146" t="inlineStr">
         <is>
           <t>3</t>
@@ -37582,177 +37084,129 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1147" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1148" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr"/>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1149" t="inlineStr"/>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
-      <c r="E1149" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1149" t="inlineStr"/>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr"/>
+      <c r="C1150" t="inlineStr"/>
       <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1150" t="inlineStr"/>
       <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H1150" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1150" t="inlineStr"/>
+      <c r="H1150" t="inlineStr"/>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
@@ -37764,33 +37218,29 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1152" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
@@ -37802,29 +37252,29 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1153" t="inlineStr"/>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1153" t="inlineStr">
@@ -37836,17 +37286,17 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
@@ -37856,11 +37306,7 @@
         </is>
       </c>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -37870,31 +37316,23 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1155" t="inlineStr"/>
       <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
         <is>
           <t>3</t>
@@ -37904,25 +37342,21 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1156" t="inlineStr"/>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
@@ -37934,23 +37368,23 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
@@ -37964,55 +37398,55 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr"/>
+      <c r="G1158" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38024,25 +37458,21 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1160" t="inlineStr"/>
       <c r="F1160" t="inlineStr"/>
       <c r="G1160" t="inlineStr"/>
       <c r="H1160" t="inlineStr">
@@ -38052,23 +37482,23 @@
       </c>
     </row>
     <row r="1161">
-      <c r="A1161" t="inlineStr"/>
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1161" t="inlineStr"/>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr"/>
       <c r="H1161" t="inlineStr">
@@ -38080,169 +37510,189 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr"/>
-      <c r="C1162" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr"/>
-      <c r="H1162" t="inlineStr"/>
+      <c r="H1162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1166" t="inlineStr"/>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1167" t="inlineStr">
         <is>
           <t>3</t>
@@ -38252,7 +37702,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
@@ -38262,25 +37712,17 @@
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr">
         <is>
           <t>3</t>
@@ -38288,33 +37730,25 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1169" t="inlineStr"/>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
         <is>
           <t>3</t>
@@ -38322,25 +37756,21 @@
       </c>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
@@ -38355,18 +37785,22 @@
       <c r="A1171" t="inlineStr"/>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr"/>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -38374,81 +37808,81 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr"/>
-      <c r="C1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr"/>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
+      <c r="E1172" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr"/>
-      <c r="H1172" t="inlineStr"/>
+      <c r="G1172" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1174" t="inlineStr"/>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1174" t="inlineStr"/>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38458,59 +37892,35 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr"/>
+      <c r="C1175" t="inlineStr"/>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1175" t="inlineStr"/>
+      <c r="H1175" t="inlineStr"/>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1176" t="inlineStr"/>
       <c r="F1176" t="inlineStr"/>
       <c r="G1176" t="inlineStr"/>
       <c r="H1176" t="inlineStr">
@@ -38522,17 +37932,17 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
@@ -38548,139 +37958,159 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr"/>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr"/>
+      <c r="G1179" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
           <t>3</t>
@@ -38690,23 +38120,31 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1183" t="inlineStr">
         <is>
           <t>3</t>
@@ -38716,57 +38154,61 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
+      <c r="G1184" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38776,31 +38218,27 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1186" t="inlineStr"/>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38810,31 +38248,27 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
         <is>
           <t>3</t>
@@ -38844,87 +38278,83 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
@@ -38936,23 +38366,23 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" t="inlineStr"/>
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1191" t="inlineStr"/>
       <c r="F1191" t="inlineStr"/>
       <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
@@ -38962,21 +38392,25 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr"/>
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
@@ -38988,25 +38422,29 @@
       </c>
     </row>
     <row r="1193">
-      <c r="A1193" t="inlineStr"/>
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr"/>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1193" t="inlineStr"/>
       <c r="H1193" t="inlineStr">
         <is>
           <t>3</t>
@@ -39014,121 +38452,169 @@
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
       <c r="G1195" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr"/>
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr"/>
-      <c r="C1197" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
-      <c r="H1197" t="inlineStr"/>
+      <c r="G1197" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1197" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -39138,23 +38624,27 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
       <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1199" t="inlineStr">
         <is>
           <t>3</t>
@@ -39164,257 +38654,209 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1200" t="inlineStr"/>
       <c r="F1200" t="inlineStr"/>
       <c r="G1200" t="inlineStr"/>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1201" t="inlineStr"/>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1201" t="inlineStr"/>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr"/>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1204" t="inlineStr"/>
       <c r="G1204" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1206" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr"/>
+      <c r="C1206" t="inlineStr"/>
       <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1206" t="inlineStr"/>
+      <c r="H1206" t="inlineStr"/>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
+      <c r="G1207" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1207" t="inlineStr">
         <is>
           <t>3</t>
@@ -39424,7 +38866,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
@@ -39434,27 +38876,31 @@
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
+      <c r="G1208" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
@@ -39464,87 +38910,99 @@
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
+      <c r="G1209" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
+      <c r="G1210" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
@@ -39554,15 +39012,11 @@
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1212" t="inlineStr"/>
       <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr"/>
       <c r="H1212" t="inlineStr">
@@ -39574,23 +39028,31 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr"/>
+      <c r="E1213" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
+      <c r="G1213" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1213" t="inlineStr">
         <is>
           <t>3</t>
@@ -39600,23 +39062,23 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1214" t="inlineStr"/>
@@ -39630,25 +39092,21 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1215" t="inlineStr"/>
       <c r="F1215" t="inlineStr"/>
       <c r="G1215" t="inlineStr"/>
       <c r="H1215" t="inlineStr">
@@ -39660,99 +39118,79 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E1216" t="inlineStr"/>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1216" t="inlineStr"/>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1217" t="inlineStr"/>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
         <is>
           <t>2</t>
@@ -39762,31 +39200,23 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1219" t="inlineStr"/>
       <c r="H1219" t="inlineStr">
         <is>
           <t>3</t>
@@ -39796,31 +39226,23 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1220" t="inlineStr"/>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
         <is>
           <t>3</t>
@@ -39830,27 +39252,23 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
       <c r="E1221" t="inlineStr"/>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1221" t="inlineStr"/>
       <c r="H1221" t="inlineStr">
         <is>
           <t>3</t>
@@ -39860,7 +39278,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
@@ -39870,7 +39288,7 @@
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
@@ -39883,418 +39301,6 @@
         </is>
       </c>
     </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1223" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
-      <c r="H1223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1224" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr"/>
-      <c r="H1224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1225" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
-      <c r="H1225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1226" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H1226" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1227" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
-      <c r="H1227" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr"/>
-      <c r="C1228" t="inlineStr"/>
-      <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr"/>
-      <c r="H1228" t="inlineStr"/>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1229" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1229" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
-      <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
-      <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H1229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1230" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1230" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1230" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1231" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1231" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1232" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1232" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H1232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1233" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1234" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1234" t="inlineStr">
-        <is>
-          <t>15-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr"/>
-      <c r="H1234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1235" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H1235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1236" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
-      <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr"/>
-      <c r="H1236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1222"/>
+  <dimension ref="A1:H1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36477,10 +36477,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1128">
@@ -36511,10 +36509,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1129">
@@ -36549,10 +36545,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1129" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1130">
@@ -36587,10 +36581,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H1130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1131">
@@ -36621,10 +36613,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1132">
@@ -36655,10 +36645,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1133">
@@ -36689,10 +36677,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1133" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1134">
@@ -36719,10 +36705,8 @@
       </c>
       <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr"/>
-      <c r="H1134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1134" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1135">
@@ -36749,10 +36733,8 @@
       </c>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr"/>
-      <c r="H1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1136">
@@ -36779,10 +36761,8 @@
       </c>
       <c r="F1136" t="inlineStr"/>
       <c r="G1136" t="inlineStr"/>
-      <c r="H1136" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1136" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1137">
@@ -36809,10 +36789,8 @@
       </c>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
-      <c r="H1137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1137" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1138">
@@ -36839,10 +36817,8 @@
       </c>
       <c r="F1138" t="inlineStr"/>
       <c r="G1138" t="inlineStr"/>
-      <c r="H1138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1138" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1139">
@@ -36865,10 +36841,8 @@
       </c>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1140">
@@ -36913,10 +36887,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1141" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1142">
@@ -36947,10 +36919,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1142" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1142" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1143">
@@ -36977,10 +36947,8 @@
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1143" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1144">
@@ -37007,10 +36975,8 @@
       </c>
       <c r="F1144" t="inlineStr"/>
       <c r="G1144" t="inlineStr"/>
-      <c r="H1144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1144" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1145">
@@ -37037,10 +37003,8 @@
       </c>
       <c r="F1145" t="inlineStr"/>
       <c r="G1145" t="inlineStr"/>
-      <c r="H1145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1146">
@@ -37075,10 +37039,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1146" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1147">
@@ -37109,10 +37071,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1148">
@@ -37139,10 +37099,8 @@
       </c>
       <c r="F1148" t="inlineStr"/>
       <c r="G1148" t="inlineStr"/>
-      <c r="H1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1148" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1149">
@@ -37161,88 +37119,86 @@
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr">
+      <c r="H1149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr"/>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1150" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr"/>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr"/>
-      <c r="H1150" t="inlineStr"/>
-    </row>
     <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1151" t="inlineStr"/>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1152" t="inlineStr"/>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
           <t>3</t>
@@ -37252,59 +37208,35 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1153" t="inlineStr"/>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
@@ -37316,17 +37248,17 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
@@ -37342,139 +37274,159 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr"/>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
       <c r="G1158" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr"/>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr"/>
+      <c r="G1160" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1160" t="inlineStr">
         <is>
           <t>3</t>
@@ -37484,23 +37436,31 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
           <t>3</t>
@@ -37510,57 +37470,61 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
+      <c r="E1162" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr"/>
+      <c r="G1162" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
         <is>
           <t>3</t>
@@ -37570,31 +37534,27 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
         <is>
           <t>3</t>
@@ -37604,31 +37564,27 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1165" t="inlineStr"/>
       <c r="H1165" t="inlineStr">
         <is>
           <t>3</t>
@@ -37638,87 +37594,83 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr"/>
+      <c r="E1166" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1166" t="inlineStr"/>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1167" t="inlineStr"/>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
@@ -37730,23 +37682,23 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr"/>
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
       <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
@@ -37756,21 +37708,25 @@
       </c>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr"/>
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
@@ -37782,25 +37738,29 @@
       </c>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr"/>
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -37808,121 +37768,169 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr"/>
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1174">
-      <c r="A1174" t="inlineStr"/>
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr"/>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr"/>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr"/>
+      <c r="G1176" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1176" t="inlineStr">
         <is>
           <t>3</t>
@@ -37932,23 +37940,27 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
       <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr"/>
+      <c r="G1177" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -37958,257 +37970,209 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1179" t="inlineStr"/>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1180" t="inlineStr"/>
       <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1181" t="inlineStr"/>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
       <c r="G1182" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1183" t="inlineStr"/>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr"/>
+      <c r="C1184" t="inlineStr"/>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1184" t="inlineStr"/>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1184" t="inlineStr"/>
+      <c r="H1184" t="inlineStr"/>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38218,7 +38182,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
@@ -38228,27 +38192,31 @@
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
@@ -38258,87 +38226,99 @@
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
+      <c r="G1188" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
+      <c r="G1189" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
@@ -38348,15 +38328,11 @@
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1190" t="inlineStr"/>
       <c r="F1190" t="inlineStr"/>
       <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
@@ -38368,23 +38344,31 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
+      <c r="G1191" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1191" t="inlineStr">
         <is>
           <t>3</t>
@@ -38394,23 +38378,23 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
@@ -38424,25 +38408,21 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1193" t="inlineStr"/>
       <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="inlineStr"/>
       <c r="H1193" t="inlineStr">
@@ -38454,99 +38434,79 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1194" t="inlineStr"/>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1195" t="inlineStr"/>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1196" t="inlineStr"/>
       <c r="H1196" t="inlineStr">
         <is>
           <t>2</t>
@@ -38556,31 +38516,23 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1197" t="inlineStr"/>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1197" t="inlineStr"/>
       <c r="H1197" t="inlineStr">
         <is>
           <t>3</t>
@@ -38590,31 +38542,23 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1198" t="inlineStr"/>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1198" t="inlineStr"/>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -38624,27 +38568,23 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
       <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1199" t="inlineStr"/>
       <c r="H1199" t="inlineStr">
         <is>
           <t>3</t>
@@ -38654,7 +38594,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
@@ -38664,7 +38604,7 @@
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
@@ -38677,630 +38617,6 @@
         </is>
       </c>
     </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1201" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
-      <c r="H1201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1202" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
-      <c r="H1202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1203" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
-      <c r="H1203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1204" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H1204" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1205" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr"/>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr"/>
-      <c r="H1205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr"/>
-      <c r="C1206" t="inlineStr"/>
-      <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr"/>
-      <c r="H1206" t="inlineStr"/>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1207" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
-      <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H1207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1208" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1210" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H1210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1211" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1212" t="inlineStr">
-        <is>
-          <t>15-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
-      <c r="H1212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1213" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H1213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1214" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
-      <c r="H1214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>06:10 AM</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1215" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
-      <c r="H1215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>06:10 AM</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1216" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
-      <c r="H1216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1217" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYJAN/10</t>
-        </is>
-      </c>
-      <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr">
-        <is>
-          <t>9.3%</t>
-        </is>
-      </c>
-      <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr"/>
-      <c r="H1217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1218" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
-        </is>
-      </c>
-      <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr"/>
-      <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr"/>
-      <c r="H1218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1219" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
-      <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr"/>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr"/>
-      <c r="H1219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1220" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr"/>
-      <c r="H1220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1221" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
-      <c r="H1221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1222" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
-      <c r="H1222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1250"/>
+  <dimension ref="A1:H1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28699,10 +28699,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -28733,10 +28731,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -28771,10 +28767,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H879" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -28809,10 +28803,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H880" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -28847,10 +28839,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H881" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="882">
@@ -28873,10 +28863,8 @@
       <c r="E882" t="inlineStr"/>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr"/>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -28925,10 +28913,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28959,10 +28945,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -28993,10 +28977,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29023,10 +29005,8 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29053,10 +29033,8 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29083,10 +29061,8 @@
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29121,10 +29097,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H890" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="891">
@@ -29155,10 +29129,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29189,10 +29161,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29223,10 +29193,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29253,10 +29221,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29283,10 +29249,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29313,10 +29277,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29347,10 +29309,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -29377,10 +29337,8 @@
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -29407,10 +29365,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -29445,10 +29401,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -29475,10 +29429,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H901" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="902">
@@ -29505,10 +29457,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H902" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -29543,10 +29493,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H903" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="904">
@@ -29581,10 +29529,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29615,10 +29561,8 @@
         </is>
       </c>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29649,10 +29593,8 @@
         </is>
       </c>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29679,10 +29621,8 @@
       </c>
       <c r="F907" t="inlineStr"/>
       <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29705,10 +29645,8 @@
       </c>
       <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr"/>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29735,10 +29673,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29765,10 +29701,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29795,10 +29729,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29829,10 +29761,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29859,10 +29789,8 @@
         </is>
       </c>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29893,10 +29821,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29927,10 +29853,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -29953,10 +29877,8 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -29975,10 +29897,8 @@
       <c r="E917" t="inlineStr"/>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30027,10 +29947,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30061,10 +29979,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30091,10 +30007,8 @@
       </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30121,10 +30035,8 @@
       </c>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30155,10 +30067,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30189,10 +30099,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30227,10 +30135,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30261,10 +30167,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30287,10 +30191,8 @@
       <c r="E927" t="inlineStr"/>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30321,10 +30223,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30347,10 +30247,8 @@
       <c r="E929" t="inlineStr"/>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30385,10 +30283,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H930" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="931">
@@ -30419,10 +30315,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30449,10 +30343,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30479,10 +30371,8 @@
       </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30509,10 +30399,8 @@
       </c>
       <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr"/>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30539,10 +30427,8 @@
       </c>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30565,10 +30451,8 @@
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="937">
@@ -30603,10 +30487,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="938">
@@ -30637,10 +30519,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30675,10 +30555,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H939" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="940">
@@ -30713,10 +30591,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H940" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="941">
@@ -30751,10 +30627,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30785,10 +30659,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30819,10 +30691,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30853,10 +30723,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="945">
@@ -30891,10 +30759,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30921,10 +30787,8 @@
       </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -30947,10 +30811,8 @@
       <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H947" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="948">
@@ -30985,10 +30847,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31015,10 +30875,8 @@
       </c>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="950">
@@ -31049,10 +30907,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31083,10 +30939,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31109,10 +30963,8 @@
       <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -31143,10 +30995,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31177,10 +31027,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31207,10 +31055,8 @@
       </c>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr"/>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H955" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -31241,10 +31087,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31267,10 +31111,8 @@
       <c r="E957" t="inlineStr"/>
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31305,10 +31147,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H958" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="959">
@@ -31339,10 +31179,8 @@
         </is>
       </c>
       <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31373,10 +31211,8 @@
         </is>
       </c>
       <c r="G960" t="inlineStr"/>
-      <c r="H960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H960" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="961">
@@ -31399,10 +31235,8 @@
       </c>
       <c r="F961" t="inlineStr"/>
       <c r="G961" t="inlineStr"/>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -31425,10 +31259,8 @@
       </c>
       <c r="F962" t="inlineStr"/>
       <c r="G962" t="inlineStr"/>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H962" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="963">
@@ -31477,10 +31309,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="965">
@@ -31515,10 +31345,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -31549,10 +31377,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H966" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -31587,10 +31413,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H967" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="968">
@@ -31625,10 +31449,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H968" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="969">
@@ -31659,10 +31481,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H969" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="970">
@@ -31693,10 +31513,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31727,10 +31545,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31761,10 +31577,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31799,10 +31613,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31833,10 +31645,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31871,10 +31681,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -31905,10 +31713,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -31939,10 +31745,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="978">
@@ -31977,10 +31781,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -32011,10 +31813,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="980">
@@ -32045,10 +31845,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -32079,10 +31877,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="982">
@@ -32113,10 +31909,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32151,10 +31945,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H983" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="984">
@@ -32189,10 +31981,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H984" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="985">
@@ -32227,10 +32017,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32265,10 +32053,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32291,10 +32077,8 @@
       <c r="E987" t="inlineStr"/>
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr"/>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32329,10 +32113,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -32367,10 +32149,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -32405,10 +32185,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -32443,10 +32221,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -32481,10 +32257,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -32507,10 +32281,8 @@
       <c r="E993" t="inlineStr"/>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H993" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="994">
@@ -32545,10 +32317,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H994" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="995">
@@ -32583,10 +32353,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="996">
@@ -32621,10 +32389,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -32651,10 +32417,8 @@
       </c>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32681,10 +32445,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -32715,10 +32477,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32749,10 +32509,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32779,10 +32537,8 @@
       </c>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1002">
@@ -32809,10 +32565,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32839,10 +32593,8 @@
       </c>
       <c r="F1003" t="inlineStr"/>
       <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32869,10 +32621,8 @@
       </c>
       <c r="F1004" t="inlineStr"/>
       <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -32899,10 +32649,8 @@
       </c>
       <c r="F1005" t="inlineStr"/>
       <c r="G1005" t="inlineStr"/>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -32937,10 +32685,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1007">
@@ -32967,10 +32713,8 @@
       </c>
       <c r="F1007" t="inlineStr"/>
       <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1008">
@@ -33005,10 +32749,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1009">
@@ -33043,10 +32785,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -33081,10 +32821,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1011">
@@ -33119,10 +32857,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1012">
@@ -33157,10 +32893,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1013">
@@ -33191,10 +32925,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33225,10 +32957,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33263,10 +32993,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -33289,10 +33017,8 @@
       <c r="E1016" t="inlineStr"/>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -33315,10 +33041,8 @@
       <c r="E1017" t="inlineStr"/>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1018">
@@ -33345,10 +33069,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -33375,10 +33097,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1020">
@@ -33405,10 +33125,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33435,10 +33153,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33465,10 +33181,8 @@
       </c>
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -33495,10 +33209,8 @@
       </c>
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -33525,10 +33237,8 @@
       </c>
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1025">
@@ -33555,10 +33265,8 @@
       </c>
       <c r="F1025" t="inlineStr"/>
       <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
@@ -33585,10 +33293,8 @@
       </c>
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1027">
@@ -33623,10 +33329,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1028">
@@ -33661,10 +33365,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33687,10 +33389,8 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1030">
@@ -33717,10 +33417,8 @@
       </c>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -33751,10 +33449,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1032">
@@ -33781,10 +33477,8 @@
       </c>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33807,10 +33501,8 @@
       <c r="E1033" t="inlineStr"/>
       <c r="F1033" t="inlineStr"/>
       <c r="G1033" t="inlineStr"/>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -33833,10 +33525,8 @@
       <c r="E1034" t="inlineStr"/>
       <c r="F1034" t="inlineStr"/>
       <c r="G1034" t="inlineStr"/>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -33859,10 +33549,8 @@
       <c r="E1035" t="inlineStr"/>
       <c r="F1035" t="inlineStr"/>
       <c r="G1035" t="inlineStr"/>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -33893,10 +33581,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -33927,10 +33613,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1038">
@@ -33965,10 +33649,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -34003,10 +33685,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -34041,10 +33721,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1041">
@@ -34079,10 +33757,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1042">
@@ -34109,10 +33785,8 @@
       </c>
       <c r="F1042" t="inlineStr"/>
       <c r="G1042" t="inlineStr"/>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34139,10 +33813,8 @@
       </c>
       <c r="F1043" t="inlineStr"/>
       <c r="G1043" t="inlineStr"/>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34177,10 +33849,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34215,10 +33885,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1046">
@@ -34245,10 +33913,8 @@
       </c>
       <c r="F1046" t="inlineStr"/>
       <c r="G1046" t="inlineStr"/>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34275,10 +33941,8 @@
       </c>
       <c r="F1047" t="inlineStr"/>
       <c r="G1047" t="inlineStr"/>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34305,10 +33969,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34335,10 +33997,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34365,10 +34025,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34391,10 +34049,8 @@
       </c>
       <c r="F1051" t="inlineStr"/>
       <c r="G1051" t="inlineStr"/>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34413,10 +34069,8 @@
       <c r="E1052" t="inlineStr"/>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34443,10 +34097,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1053" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1054">
@@ -34473,10 +34125,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34503,10 +34153,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -34547,10 +34195,8 @@
       </c>
       <c r="F1057" t="inlineStr"/>
       <c r="G1057" t="inlineStr"/>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -34585,10 +34231,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1059">
@@ -34623,10 +34267,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -34661,10 +34303,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -34699,10 +34339,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1062">
@@ -34737,10 +34375,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -34771,10 +34407,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1064">
@@ -34809,10 +34443,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -34847,10 +34479,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -34881,10 +34511,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1067">
@@ -34919,10 +34547,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -34957,10 +34583,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -34991,10 +34615,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35025,10 +34647,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1071">
@@ -35063,10 +34683,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -35101,10 +34719,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -35139,10 +34755,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1074">
@@ -35177,10 +34791,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1075">
@@ -35215,10 +34827,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1076">
@@ -35253,10 +34863,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35291,10 +34899,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35317,10 +34923,8 @@
       <c r="E1078" t="inlineStr"/>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35347,10 +34951,8 @@
       </c>
       <c r="F1079" t="inlineStr"/>
       <c r="G1079" t="inlineStr"/>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -35373,10 +34975,8 @@
       <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1081">
@@ -35403,10 +35003,8 @@
       </c>
       <c r="F1081" t="inlineStr"/>
       <c r="G1081" t="inlineStr"/>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35441,10 +35039,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35471,10 +35067,8 @@
       </c>
       <c r="F1083" t="inlineStr"/>
       <c r="G1083" t="inlineStr"/>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -35505,10 +35099,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -35531,10 +35123,8 @@
       <c r="E1085" t="inlineStr"/>
       <c r="F1085" t="inlineStr"/>
       <c r="G1085" t="inlineStr"/>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -35565,10 +35155,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1087">
@@ -35603,10 +35191,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35641,10 +35227,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -35675,10 +35259,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -35713,10 +35295,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -35751,10 +35331,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1092">
@@ -35789,10 +35367,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1093">
@@ -35827,10 +35403,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1094">
@@ -35861,10 +35435,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35895,10 +35467,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -35929,10 +35499,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -35963,10 +35531,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -35993,10 +35559,8 @@
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36023,10 +35587,8 @@
       </c>
       <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr"/>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36053,10 +35615,8 @@
       </c>
       <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr"/>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
@@ -36083,10 +35643,8 @@
       </c>
       <c r="F1101" t="inlineStr"/>
       <c r="G1101" t="inlineStr"/>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -36113,10 +35671,8 @@
       </c>
       <c r="F1102" t="inlineStr"/>
       <c r="G1102" t="inlineStr"/>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1103">
@@ -36147,10 +35703,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1104">
@@ -36181,10 +35735,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36219,10 +35771,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1106">
@@ -36257,10 +35807,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1107">
@@ -36295,10 +35843,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36325,10 +35871,8 @@
       </c>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -36355,10 +35899,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36385,10 +35927,8 @@
       </c>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -36415,10 +35955,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36445,10 +35983,8 @@
       </c>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36471,10 +36007,8 @@
       <c r="E1113" t="inlineStr"/>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1114">
@@ -36501,10 +36035,8 @@
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36531,10 +36063,8 @@
       </c>
       <c r="F1115" t="inlineStr"/>
       <c r="G1115" t="inlineStr"/>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36561,10 +36091,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36595,10 +36123,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1118">
@@ -36633,10 +36159,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -36663,10 +36187,8 @@
       </c>
       <c r="F1119" t="inlineStr"/>
       <c r="G1119" t="inlineStr"/>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1120">
@@ -36697,10 +36219,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -36731,10 +36251,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1122">
@@ -36769,10 +36287,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1123">
@@ -36807,10 +36323,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1124">
@@ -36845,10 +36359,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -36883,10 +36395,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1126">
@@ -36921,10 +36431,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1127">
@@ -36955,10 +36463,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1128">
@@ -36993,10 +36499,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1129">
@@ -37023,94 +36527,108 @@
       </c>
       <c r="F1129" t="inlineStr"/>
       <c r="G1129" t="inlineStr"/>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1130" t="inlineStr"/>
-      <c r="C1130" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1130" t="inlineStr"/>
-      <c r="E1130" t="inlineStr"/>
+      <c r="E1130" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1130" t="inlineStr"/>
-      <c r="G1130" t="inlineStr"/>
-      <c r="H1130" t="inlineStr"/>
+      <c r="G1130" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1131" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
@@ -37122,29 +36640,33 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G1133" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1133" t="inlineStr">
@@ -37156,29 +36678,29 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1134" t="inlineStr">
@@ -37190,29 +36712,29 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1135" t="inlineStr">
@@ -37224,31 +36746,31 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1136" t="inlineStr">
         <is>
           <t>3</t>
@@ -37258,145 +36780,117 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1139" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1140" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr"/>
       <c r="H1140" t="inlineStr">
         <is>
           <t>3</t>
@@ -37406,35 +36900,27 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1141" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr"/>
       <c r="H1141" t="inlineStr">
         <is>
           <t>3</t>
@@ -37442,23 +36928,23 @@
       </c>
     </row>
     <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1142" t="inlineStr"/>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
-      <c r="E1142" t="inlineStr"/>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1142" t="inlineStr"/>
       <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
@@ -37470,173 +36956,165 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr"/>
+      <c r="C1143" t="inlineStr"/>
       <c r="D1143" t="inlineStr"/>
-      <c r="E1143" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1143" t="inlineStr"/>
       <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1143" t="inlineStr"/>
+      <c r="H1143" t="inlineStr"/>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
-      <c r="E1144" t="inlineStr"/>
+      <c r="E1144" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr"/>
+      <c r="G1144" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr"/>
+      <c r="G1145" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1146" t="inlineStr"/>
       <c r="G1146" t="inlineStr"/>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr"/>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1148" t="inlineStr"/>
@@ -37650,27 +37128,35 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1149" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1149" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1149" t="inlineStr">
         <is>
           <t>3</t>
@@ -37680,177 +37166,129 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="inlineStr"/>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1152" t="inlineStr"/>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1153" t="inlineStr"/>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H1153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1154" t="inlineStr">
@@ -37862,33 +37300,29 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1155" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1155" t="inlineStr">
@@ -37900,29 +37334,29 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1156" t="inlineStr">
@@ -37934,17 +37368,17 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
@@ -37954,11 +37388,7 @@
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1157" t="inlineStr"/>
       <c r="H1157" t="inlineStr">
         <is>
           <t>3</t>
@@ -37968,31 +37398,23 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
-      <c r="E1158" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1158" t="inlineStr"/>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1158" t="inlineStr"/>
       <c r="H1158" t="inlineStr">
         <is>
           <t>3</t>
@@ -38002,25 +37424,21 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38032,23 +37450,23 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1160" t="inlineStr"/>
@@ -38062,55 +37480,55 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr"/>
       <c r="H1162" t="inlineStr">
@@ -38122,25 +37540,21 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
-      <c r="E1163" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1163" t="inlineStr"/>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
@@ -38150,23 +37564,23 @@
       </c>
     </row>
     <row r="1164">
-      <c r="A1164" t="inlineStr"/>
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
-      <c r="E1164" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1164" t="inlineStr"/>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
@@ -38178,169 +37592,189 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
-      <c r="C1165" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr"/>
       <c r="F1165" t="inlineStr"/>
       <c r="G1165" t="inlineStr"/>
-      <c r="H1165" t="inlineStr"/>
+      <c r="H1165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
       <c r="G1166" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
       <c r="G1167" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr"/>
+      <c r="G1169" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1170" t="inlineStr">
         <is>
           <t>3</t>
@@ -38350,7 +37784,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
@@ -38360,25 +37794,17 @@
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1171" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -38386,33 +37812,25 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1172" t="inlineStr"/>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1172" t="inlineStr"/>
       <c r="H1172" t="inlineStr">
         <is>
           <t>3</t>
@@ -38420,25 +37838,21 @@
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
@@ -38453,18 +37867,22 @@
       <c r="A1174" t="inlineStr"/>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
       <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38472,81 +37890,81 @@
       </c>
     </row>
     <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
+      <c r="A1175" t="inlineStr"/>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1176" t="inlineStr"/>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
       <c r="E1176" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1176" t="inlineStr"/>
       <c r="G1176" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1177" t="inlineStr"/>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -38556,59 +37974,35 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr"/>
+      <c r="C1178" t="inlineStr"/>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1178" t="inlineStr"/>
+      <c r="H1178" t="inlineStr"/>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr"/>
       <c r="H1179" t="inlineStr">
@@ -38620,17 +38014,17 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
@@ -38646,139 +38040,159 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1183" t="inlineStr"/>
       <c r="G1183" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1184" t="inlineStr"/>
       <c r="G1184" t="inlineStr"/>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38788,23 +38202,31 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38814,57 +38236,61 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
           <t>3</t>
@@ -38874,31 +38300,27 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
           <t>3</t>
@@ -38908,31 +38330,27 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
         <is>
           <t>3</t>
@@ -38942,87 +38360,83 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1192" t="inlineStr"/>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
@@ -39034,23 +38448,23 @@
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr"/>
       <c r="H1194" t="inlineStr">
@@ -39060,21 +38474,25 @@
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
@@ -39086,25 +38504,29 @@
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr"/>
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1196" t="inlineStr"/>
       <c r="H1196" t="inlineStr">
         <is>
           <t>3</t>
@@ -39112,121 +38534,169 @@
       </c>
     </row>
     <row r="1197">
-      <c r="A1197" t="inlineStr"/>
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1197" t="inlineStr"/>
       <c r="G1197" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1198">
-      <c r="A1198" t="inlineStr"/>
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1198" t="inlineStr"/>
       <c r="G1198" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1199">
-      <c r="A1199" t="inlineStr"/>
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr"/>
-      <c r="C1200" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
+      <c r="E1200" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr"/>
+      <c r="G1200" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1200" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1201" t="inlineStr">
         <is>
           <t>3</t>
@@ -39236,23 +38706,27 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
       <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
+      <c r="G1202" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1202" t="inlineStr">
         <is>
           <t>3</t>
@@ -39262,257 +38736,209 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr"/>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1204" t="inlineStr"/>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
       <c r="G1206" t="inlineStr"/>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
       <c r="G1207" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1208" t="inlineStr"/>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1208" t="inlineStr"/>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr"/>
+      <c r="C1209" t="inlineStr"/>
       <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1209" t="inlineStr"/>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1209" t="inlineStr"/>
+      <c r="H1209" t="inlineStr"/>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
+      <c r="G1210" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1210" t="inlineStr">
         <is>
           <t>3</t>
@@ -39522,7 +38948,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
@@ -39532,27 +38958,31 @@
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
@@ -39562,87 +38992,99 @@
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
       <c r="E1212" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
+      <c r="G1212" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
       <c r="E1213" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
+      <c r="G1213" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
+      <c r="G1214" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1214" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
@@ -39652,15 +39094,11 @@
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1215" t="inlineStr"/>
       <c r="F1215" t="inlineStr"/>
       <c r="G1215" t="inlineStr"/>
       <c r="H1215" t="inlineStr">
@@ -39672,23 +39110,31 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
+      <c r="E1216" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
+      <c r="G1216" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1216" t="inlineStr">
         <is>
           <t>3</t>
@@ -39698,23 +39144,23 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1217" t="inlineStr"/>
@@ -39728,25 +39174,21 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
       <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
@@ -39758,99 +39200,79 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1219" t="inlineStr"/>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
       <c r="E1220" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1221" t="inlineStr"/>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1221" t="inlineStr"/>
       <c r="H1221" t="inlineStr">
         <is>
           <t>2</t>
@@ -39860,31 +39282,23 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1222" t="inlineStr"/>
       <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1222" t="inlineStr"/>
       <c r="H1222" t="inlineStr">
         <is>
           <t>3</t>
@@ -39894,31 +39308,23 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1223" t="inlineStr"/>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1223" t="inlineStr"/>
       <c r="H1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -39928,27 +39334,23 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
       <c r="E1224" t="inlineStr"/>
       <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1224" t="inlineStr"/>
       <c r="H1224" t="inlineStr">
         <is>
           <t>3</t>
@@ -39958,7 +39360,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
@@ -39968,7 +39370,7 @@
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
@@ -39984,23 +39386,31 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr"/>
+      <c r="E1226" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
+      <c r="G1226" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1226" t="inlineStr">
         <is>
           <t>3</t>
@@ -40010,23 +39420,31 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
+      <c r="E1227" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
+      <c r="G1227" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1227" t="inlineStr">
         <is>
           <t>3</t>
@@ -40036,23 +39454,31 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
+      <c r="E1228" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr"/>
+      <c r="G1228" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1228" t="inlineStr">
         <is>
           <t>3</t>
@@ -40062,646 +39488,28 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1229" t="inlineStr"/>
       <c r="H1229" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1230" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1230" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr"/>
-      <c r="H1230" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr"/>
-      <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr"/>
-      <c r="H1231" t="inlineStr"/>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1232" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1232" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
-      <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
-      <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H1232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1233" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1234" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1234" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1235" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H1235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1236" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1237" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1237" t="inlineStr">
-        <is>
-          <t>15-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
-      <c r="H1237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1238" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1238" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H1238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1239" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1239" t="inlineStr"/>
-      <c r="E1239" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
-      <c r="F1239" t="inlineStr"/>
-      <c r="G1239" t="inlineStr"/>
-      <c r="H1239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="inlineStr">
-        <is>
-          <t>06:10 AM</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1240" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1240" t="inlineStr"/>
-      <c r="E1240" t="inlineStr"/>
-      <c r="F1240" t="inlineStr"/>
-      <c r="G1240" t="inlineStr"/>
-      <c r="H1240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>06:10 AM</t>
-        </is>
-      </c>
-      <c r="B1241" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1241" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
-      <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr"/>
-      <c r="H1241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1242" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYJAN/10</t>
-        </is>
-      </c>
-      <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr">
-        <is>
-          <t>9.3%</t>
-        </is>
-      </c>
-      <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
-      <c r="H1242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1243" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1243" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
-        </is>
-      </c>
-      <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr"/>
-      <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr"/>
-      <c r="H1243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1244" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
-      <c r="D1244" t="inlineStr"/>
-      <c r="E1244" t="inlineStr"/>
-      <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr"/>
-      <c r="H1244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1245" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1245" t="inlineStr"/>
-      <c r="E1245" t="inlineStr"/>
-      <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr"/>
-      <c r="H1245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1246" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1246" t="inlineStr"/>
-      <c r="E1246" t="inlineStr"/>
-      <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr"/>
-      <c r="H1246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1247" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr"/>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr"/>
-      <c r="H1247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1248" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1249" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1249" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H1249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1250" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1250" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H1250" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1248"/>
+  <dimension ref="A1:H1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28895,10 +28895,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -28925,10 +28923,8 @@
       </c>
       <c r="F884" t="inlineStr"/>
       <c r="G884" t="inlineStr"/>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28955,10 +28951,8 @@
       </c>
       <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr"/>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -28985,10 +28979,8 @@
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr"/>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29023,10 +29015,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H887" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="888">
@@ -29057,10 +29047,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29091,10 +29079,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29125,10 +29111,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -29155,10 +29139,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29185,10 +29167,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29215,10 +29195,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29249,10 +29227,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29279,10 +29255,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29309,10 +29283,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29347,10 +29319,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -29377,10 +29347,8 @@
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H898" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="899">
@@ -29407,10 +29375,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H899" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -29445,10 +29411,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -29483,10 +29447,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -29517,10 +29479,8 @@
         </is>
       </c>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -29551,10 +29511,8 @@
         </is>
       </c>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -29581,10 +29539,8 @@
       </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29607,10 +29563,8 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29637,10 +29591,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29667,10 +29619,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29697,10 +29647,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29731,10 +29679,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29761,10 +29707,8 @@
         </is>
       </c>
       <c r="G910" t="inlineStr"/>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29795,10 +29739,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29829,10 +29771,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29855,10 +29795,8 @@
       </c>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29877,10 +29815,8 @@
       <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29929,10 +29865,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -29963,10 +29897,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -29993,10 +29925,8 @@
       </c>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30023,10 +29953,8 @@
       </c>
       <c r="F919" t="inlineStr"/>
       <c r="G919" t="inlineStr"/>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30057,10 +29985,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30091,10 +30017,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30129,10 +30053,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30163,10 +30085,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30189,10 +30109,8 @@
       <c r="E924" t="inlineStr"/>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30223,10 +30141,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30249,10 +30165,8 @@
       <c r="E926" t="inlineStr"/>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr"/>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30287,10 +30201,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H927" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="928">
@@ -30321,10 +30233,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30351,10 +30261,8 @@
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30381,10 +30289,8 @@
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30411,10 +30317,8 @@
       </c>
       <c r="F931" t="inlineStr"/>
       <c r="G931" t="inlineStr"/>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30441,10 +30345,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30467,10 +30369,8 @@
       <c r="E933" t="inlineStr"/>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30505,10 +30405,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30539,10 +30437,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30577,10 +30473,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H936" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="937">
@@ -30615,10 +30509,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="938">
@@ -30653,10 +30545,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30687,10 +30577,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -30721,10 +30609,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="941">
@@ -30755,10 +30641,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30793,10 +30677,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30823,10 +30705,8 @@
       </c>
       <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr"/>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30849,10 +30729,8 @@
       <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr"/>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H944" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="945">
@@ -30887,10 +30765,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30917,10 +30793,8 @@
       </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -30951,10 +30825,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="948">
@@ -30985,10 +30857,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31011,10 +30881,8 @@
       <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H949" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="950">
@@ -31045,10 +30913,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31079,10 +30945,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31109,10 +30973,8 @@
       </c>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -31143,10 +31005,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31169,10 +31029,8 @@
       <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31207,10 +31065,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H955" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -31241,10 +31097,8 @@
         </is>
       </c>
       <c r="G956" t="inlineStr"/>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31275,10 +31129,8 @@
         </is>
       </c>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31301,10 +31153,8 @@
       </c>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr"/>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H958" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="959">
@@ -31327,10 +31177,8 @@
       </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31379,10 +31227,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -31417,10 +31263,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H962" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="963">
@@ -31451,10 +31295,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H963" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -31489,10 +31331,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H964" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -31527,10 +31367,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -31561,10 +31399,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H966" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -31595,10 +31431,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="968">
@@ -31629,10 +31463,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="969">
@@ -31663,10 +31495,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="970">
@@ -31701,10 +31531,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31735,10 +31563,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31773,10 +31599,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31807,10 +31631,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31841,10 +31663,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31879,10 +31699,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -31913,10 +31731,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -31947,10 +31763,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H977" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="978">
@@ -31981,10 +31795,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -32015,10 +31827,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="980">
@@ -32053,10 +31863,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -32091,10 +31899,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H981" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="982">
@@ -32129,10 +31935,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32167,10 +31971,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="984">
@@ -32193,10 +31995,8 @@
       <c r="E984" t="inlineStr"/>
       <c r="F984" t="inlineStr"/>
       <c r="G984" t="inlineStr"/>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="985">
@@ -32231,10 +32031,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32269,10 +32067,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32307,10 +32103,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32345,10 +32139,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -32383,10 +32175,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -32409,10 +32199,8 @@
       <c r="E990" t="inlineStr"/>
       <c r="F990" t="inlineStr"/>
       <c r="G990" t="inlineStr"/>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H990" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="991">
@@ -32447,10 +32235,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H991" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="992">
@@ -32485,10 +32271,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="993">
@@ -32523,10 +32307,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="994">
@@ -32553,10 +32335,8 @@
       </c>
       <c r="F994" t="inlineStr"/>
       <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="995">
@@ -32583,10 +32363,8 @@
       </c>
       <c r="F995" t="inlineStr"/>
       <c r="G995" t="inlineStr"/>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="996">
@@ -32617,10 +32395,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -32651,10 +32427,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32681,10 +32455,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H998" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="999">
@@ -32711,10 +32483,8 @@
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr"/>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32741,10 +32511,8 @@
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32771,10 +32539,8 @@
       </c>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -32801,10 +32567,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32839,10 +32603,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32869,10 +32631,8 @@
       </c>
       <c r="F1004" t="inlineStr"/>
       <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -32907,10 +32667,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -32945,10 +32703,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1007">
@@ -32983,10 +32739,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -33021,10 +32775,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1009">
@@ -33059,10 +32811,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -33093,10 +32843,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -33127,10 +32875,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1012">
@@ -33165,10 +32911,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -33191,10 +32935,8 @@
       <c r="E1013" t="inlineStr"/>
       <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr"/>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33217,10 +32959,8 @@
       <c r="E1014" t="inlineStr"/>
       <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33247,10 +32987,8 @@
       </c>
       <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -33277,10 +33015,8 @@
       </c>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -33307,10 +33043,8 @@
       </c>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1018">
@@ -33337,10 +33071,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1019">
@@ -33367,10 +33099,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1020">
@@ -33397,10 +33127,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33427,10 +33155,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33457,10 +33183,8 @@
       </c>
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -33487,10 +33211,8 @@
       </c>
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -33525,10 +33247,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -33563,10 +33283,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1026">
@@ -33589,10 +33307,8 @@
       <c r="E1026" t="inlineStr"/>
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -33619,10 +33335,8 @@
       </c>
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -33653,10 +33367,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33683,10 +33395,8 @@
       </c>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1030">
@@ -33709,10 +33419,8 @@
       <c r="E1030" t="inlineStr"/>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1031">
@@ -33735,10 +33443,8 @@
       <c r="E1031" t="inlineStr"/>
       <c r="F1031" t="inlineStr"/>
       <c r="G1031" t="inlineStr"/>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1032">
@@ -33761,10 +33467,8 @@
       <c r="E1032" t="inlineStr"/>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33795,10 +33499,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -33829,10 +33531,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -33867,10 +33567,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -33905,10 +33603,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -33943,10 +33639,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1038">
@@ -33981,10 +33675,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1039">
@@ -34011,10 +33703,8 @@
       </c>
       <c r="F1039" t="inlineStr"/>
       <c r="G1039" t="inlineStr"/>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -34041,10 +33731,8 @@
       </c>
       <c r="F1040" t="inlineStr"/>
       <c r="G1040" t="inlineStr"/>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1041">
@@ -34079,10 +33767,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
@@ -34117,10 +33803,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34147,10 +33831,8 @@
       </c>
       <c r="F1043" t="inlineStr"/>
       <c r="G1043" t="inlineStr"/>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34177,10 +33859,8 @@
       </c>
       <c r="F1044" t="inlineStr"/>
       <c r="G1044" t="inlineStr"/>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34207,10 +33887,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -34237,10 +33915,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34267,10 +33943,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34293,10 +33967,8 @@
       </c>
       <c r="F1048" t="inlineStr"/>
       <c r="G1048" t="inlineStr"/>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34315,10 +33987,8 @@
       <c r="E1049" t="inlineStr"/>
       <c r="F1049" t="inlineStr"/>
       <c r="G1049" t="inlineStr"/>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34345,10 +34015,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34375,10 +34043,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34405,10 +34071,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34449,10 +34113,8 @@
       </c>
       <c r="F1054" t="inlineStr"/>
       <c r="G1054" t="inlineStr"/>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34487,10 +34149,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -34525,10 +34185,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1057">
@@ -34563,10 +34221,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -34601,10 +34257,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -34639,10 +34293,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -34673,10 +34325,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1061">
@@ -34711,10 +34361,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1062">
@@ -34749,10 +34397,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1063">
@@ -34783,10 +34429,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1064">
@@ -34821,10 +34465,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -34859,10 +34501,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -34893,10 +34533,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -34927,10 +34565,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -34965,10 +34601,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1069">
@@ -35003,10 +34637,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35041,10 +34673,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1071">
@@ -35079,10 +34709,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1072">
@@ -35117,10 +34745,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1073">
@@ -35155,10 +34781,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -35193,10 +34817,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -35219,10 +34841,8 @@
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -35249,10 +34869,8 @@
       </c>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35275,10 +34893,8 @@
       <c r="E1077" t="inlineStr"/>
       <c r="F1077" t="inlineStr"/>
       <c r="G1077" t="inlineStr"/>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35305,10 +34921,8 @@
       </c>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35343,10 +34957,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1080">
@@ -35373,10 +34985,8 @@
       </c>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1081">
@@ -35407,10 +35017,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35433,10 +35041,8 @@
       <c r="E1082" t="inlineStr"/>
       <c r="F1082" t="inlineStr"/>
       <c r="G1082" t="inlineStr"/>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35467,10 +35073,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -35505,10 +35109,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1085">
@@ -35543,10 +35145,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1086">
@@ -35577,10 +35177,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -35615,10 +35213,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35653,10 +35249,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -35691,10 +35285,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -35729,10 +35321,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -35763,10 +35353,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -35797,10 +35385,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -35831,10 +35417,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -35865,10 +35449,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35895,10 +35477,8 @@
       </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -35925,10 +35505,8 @@
       </c>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -35955,10 +35533,8 @@
       </c>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr"/>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -35985,10 +35561,8 @@
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36015,10 +35589,8 @@
       </c>
       <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr"/>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36049,10 +35621,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
@@ -36083,10 +35653,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -36121,10 +35689,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1103">
@@ -36159,10 +35725,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1104">
@@ -36197,10 +35761,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36227,10 +35789,8 @@
       </c>
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1106">
@@ -36257,10 +35817,8 @@
       </c>
       <c r="F1106" t="inlineStr"/>
       <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1107">
@@ -36287,10 +35845,8 @@
       </c>
       <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36317,10 +35873,8 @@
       </c>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -36347,10 +35901,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36373,10 +35925,8 @@
       <c r="E1110" t="inlineStr"/>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1111">
@@ -36403,10 +35953,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36433,10 +35981,8 @@
       </c>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36463,10 +36009,8 @@
       </c>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -36497,10 +36041,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36535,10 +36077,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36565,10 +36105,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36599,10 +36137,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1118">
@@ -36633,10 +36169,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -36671,10 +36205,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -36709,10 +36241,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1121">
@@ -36747,10 +36277,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1122">
@@ -36785,10 +36313,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1123">
@@ -36823,10 +36349,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1124">
@@ -36857,10 +36381,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1125">
@@ -36895,10 +36417,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -36925,94 +36445,108 @@
       </c>
       <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr"/>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr"/>
-      <c r="C1127" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
-      <c r="H1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1128" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1128" t="inlineStr"/>
       <c r="G1128" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -37024,29 +36558,33 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1130" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1130" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1130" t="inlineStr">
@@ -37058,29 +36596,29 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
@@ -37092,29 +36630,29 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
@@ -37126,31 +36664,31 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1133" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1133" t="inlineStr">
         <is>
           <t>3</t>
@@ -37160,145 +36698,117 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G1134" t="inlineStr"/>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1135" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr"/>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1137" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
           <t>3</t>
@@ -37308,35 +36818,27 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
           <t>3</t>
@@ -37344,23 +36846,23 @@
       </c>
     </row>
     <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1139" t="inlineStr"/>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
-      <c r="E1139" t="inlineStr"/>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
@@ -37372,173 +36874,165 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1140" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr"/>
+      <c r="C1140" t="inlineStr"/>
       <c r="D1140" t="inlineStr"/>
-      <c r="E1140" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1140" t="inlineStr"/>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1140" t="inlineStr"/>
+      <c r="H1140" t="inlineStr"/>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
-      <c r="E1141" t="inlineStr"/>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr"/>
+      <c r="G1142" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
       <c r="G1144" t="inlineStr"/>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
@@ -37552,27 +37046,35 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1146" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1146" t="inlineStr">
         <is>
           <t>3</t>
@@ -37582,177 +37084,129 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1147" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1148" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr"/>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1149" t="inlineStr"/>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
-      <c r="E1149" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1149" t="inlineStr"/>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr"/>
+      <c r="C1150" t="inlineStr"/>
       <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1150" t="inlineStr"/>
       <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H1150" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1150" t="inlineStr"/>
+      <c r="H1150" t="inlineStr"/>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
@@ -37764,33 +37218,29 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1152" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
@@ -37802,29 +37252,29 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1153" t="inlineStr"/>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1153" t="inlineStr">
@@ -37836,17 +37286,17 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
@@ -37856,11 +37306,7 @@
         </is>
       </c>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -37870,31 +37316,23 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1155" t="inlineStr"/>
       <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
         <is>
           <t>3</t>
@@ -37904,25 +37342,21 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1156" t="inlineStr"/>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
@@ -37934,23 +37368,23 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
@@ -37964,55 +37398,55 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr"/>
+      <c r="G1158" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38024,25 +37458,21 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1160" t="inlineStr"/>
       <c r="F1160" t="inlineStr"/>
       <c r="G1160" t="inlineStr"/>
       <c r="H1160" t="inlineStr">
@@ -38052,23 +37482,23 @@
       </c>
     </row>
     <row r="1161">
-      <c r="A1161" t="inlineStr"/>
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1161" t="inlineStr"/>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr"/>
       <c r="H1161" t="inlineStr">
@@ -38080,169 +37510,189 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr"/>
-      <c r="C1162" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr"/>
-      <c r="H1162" t="inlineStr"/>
+      <c r="H1162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1166" t="inlineStr"/>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1167" t="inlineStr">
         <is>
           <t>3</t>
@@ -38252,7 +37702,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
@@ -38262,25 +37712,17 @@
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr">
         <is>
           <t>3</t>
@@ -38288,33 +37730,25 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1169" t="inlineStr"/>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
         <is>
           <t>3</t>
@@ -38322,25 +37756,21 @@
       </c>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
@@ -38355,18 +37785,22 @@
       <c r="A1171" t="inlineStr"/>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr"/>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -38374,81 +37808,81 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr"/>
-      <c r="C1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr"/>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
+      <c r="E1172" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr"/>
-      <c r="H1172" t="inlineStr"/>
+      <c r="G1172" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1174" t="inlineStr"/>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1174" t="inlineStr"/>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38458,59 +37892,35 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr"/>
+      <c r="C1175" t="inlineStr"/>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1175" t="inlineStr"/>
+      <c r="H1175" t="inlineStr"/>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1176" t="inlineStr"/>
       <c r="F1176" t="inlineStr"/>
       <c r="G1176" t="inlineStr"/>
       <c r="H1176" t="inlineStr">
@@ -38522,17 +37932,17 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
@@ -38548,139 +37958,159 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr"/>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr"/>
+      <c r="G1179" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
           <t>3</t>
@@ -38690,23 +38120,31 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1183" t="inlineStr">
         <is>
           <t>3</t>
@@ -38716,57 +38154,61 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
+      <c r="G1184" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38776,31 +38218,27 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1186" t="inlineStr"/>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38810,31 +38248,27 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
         <is>
           <t>3</t>
@@ -38844,87 +38278,83 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
@@ -38936,23 +38366,23 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" t="inlineStr"/>
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1191" t="inlineStr"/>
       <c r="F1191" t="inlineStr"/>
       <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
@@ -38962,21 +38392,25 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr"/>
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
@@ -38988,25 +38422,29 @@
       </c>
     </row>
     <row r="1193">
-      <c r="A1193" t="inlineStr"/>
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr"/>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1193" t="inlineStr"/>
       <c r="H1193" t="inlineStr">
         <is>
           <t>3</t>
@@ -39014,121 +38452,169 @@
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
       <c r="G1195" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr"/>
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr"/>
-      <c r="C1197" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
-      <c r="H1197" t="inlineStr"/>
+      <c r="G1197" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1197" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -39138,23 +38624,27 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
       <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1199" t="inlineStr">
         <is>
           <t>3</t>
@@ -39164,257 +38654,209 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1200" t="inlineStr"/>
       <c r="F1200" t="inlineStr"/>
       <c r="G1200" t="inlineStr"/>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1201" t="inlineStr"/>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1201" t="inlineStr"/>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr"/>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1204" t="inlineStr"/>
       <c r="G1204" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1206" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr"/>
+      <c r="C1206" t="inlineStr"/>
       <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1206" t="inlineStr"/>
+      <c r="H1206" t="inlineStr"/>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
+      <c r="G1207" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1207" t="inlineStr">
         <is>
           <t>3</t>
@@ -39424,7 +38866,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
@@ -39434,27 +38876,31 @@
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
+      <c r="G1208" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
@@ -39464,87 +38910,99 @@
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
+      <c r="G1209" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
+      <c r="G1210" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
@@ -39554,15 +39012,11 @@
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1212" t="inlineStr"/>
       <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr"/>
       <c r="H1212" t="inlineStr">
@@ -39574,23 +39028,31 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr"/>
+      <c r="E1213" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
+      <c r="G1213" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1213" t="inlineStr">
         <is>
           <t>3</t>
@@ -39600,23 +39062,23 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1214" t="inlineStr"/>
@@ -39630,25 +39092,21 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1215" t="inlineStr"/>
       <c r="F1215" t="inlineStr"/>
       <c r="G1215" t="inlineStr"/>
       <c r="H1215" t="inlineStr">
@@ -39660,99 +39118,79 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E1216" t="inlineStr"/>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1216" t="inlineStr"/>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1217" t="inlineStr"/>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
         <is>
           <t>2</t>
@@ -39762,31 +39200,23 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1219" t="inlineStr"/>
       <c r="H1219" t="inlineStr">
         <is>
           <t>3</t>
@@ -39796,31 +39226,23 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1220" t="inlineStr"/>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
         <is>
           <t>3</t>
@@ -39830,27 +39252,23 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
       <c r="E1221" t="inlineStr"/>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1221" t="inlineStr"/>
       <c r="H1221" t="inlineStr">
         <is>
           <t>3</t>
@@ -39860,7 +39278,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
@@ -39870,7 +39288,7 @@
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
@@ -39886,23 +39304,31 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
+      <c r="E1223" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
+      <c r="G1223" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -39912,23 +39338,31 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
+      <c r="E1224" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr"/>
+      <c r="G1224" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1224" t="inlineStr">
         <is>
           <t>3</t>
@@ -39938,23 +39372,31 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
+      <c r="E1225" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
+      <c r="G1225" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1225" t="inlineStr">
         <is>
           <t>3</t>
@@ -39964,41 +39406,37 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1226" t="inlineStr"/>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
@@ -40008,7 +39446,7 @@
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
@@ -40017,624 +39455,6 @@
       <c r="G1227" t="inlineStr"/>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr"/>
-      <c r="C1228" t="inlineStr"/>
-      <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr"/>
-      <c r="H1228" t="inlineStr"/>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1229" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1229" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
-      <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
-      <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H1229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1230" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1230" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1230" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1231" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1231" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1232" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1232" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H1232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1233" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1234" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1234" t="inlineStr">
-        <is>
-          <t>15-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr"/>
-      <c r="H1234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1235" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H1235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1236" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
-      <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr"/>
-      <c r="H1236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>06:10 AM</t>
-        </is>
-      </c>
-      <c r="B1237" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1237" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
-      <c r="H1237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>06:10 AM</t>
-        </is>
-      </c>
-      <c r="B1238" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1238" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr"/>
-      <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr"/>
-      <c r="H1238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1239" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYJAN/10</t>
-        </is>
-      </c>
-      <c r="D1239" t="inlineStr"/>
-      <c r="E1239" t="inlineStr">
-        <is>
-          <t>9.3%</t>
-        </is>
-      </c>
-      <c r="F1239" t="inlineStr"/>
-      <c r="G1239" t="inlineStr"/>
-      <c r="H1239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1240" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
-        </is>
-      </c>
-      <c r="D1240" t="inlineStr"/>
-      <c r="E1240" t="inlineStr"/>
-      <c r="F1240" t="inlineStr"/>
-      <c r="G1240" t="inlineStr"/>
-      <c r="H1240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1241" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1241" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
-      <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
-      <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr"/>
-      <c r="H1241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1242" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr"/>
-      <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
-      <c r="H1242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1243" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1243" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr"/>
-      <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr"/>
-      <c r="H1243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1244" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1244" t="inlineStr"/>
-      <c r="E1244" t="inlineStr"/>
-      <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr"/>
-      <c r="H1244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1245" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1245" t="inlineStr"/>
-      <c r="E1245" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1246" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1246" t="inlineStr"/>
-      <c r="E1246" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H1246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1247" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H1247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1248" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr"/>
-      <c r="H1248" t="inlineStr">
-        <is>
           <t>3</t>
         </is>
       </c>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1227"/>
+  <dimension ref="A1:H1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36477,10 +36477,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1128">
@@ -36511,10 +36509,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1129">
@@ -36549,10 +36545,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1129" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1130">
@@ -36587,10 +36581,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H1130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1131">
@@ -36621,10 +36613,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1132">
@@ -36655,10 +36645,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1133">
@@ -36689,10 +36677,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1133" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1134">
@@ -36719,10 +36705,8 @@
       </c>
       <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr"/>
-      <c r="H1134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1134" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1135">
@@ -36749,10 +36733,8 @@
       </c>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr"/>
-      <c r="H1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1136">
@@ -36779,10 +36761,8 @@
       </c>
       <c r="F1136" t="inlineStr"/>
       <c r="G1136" t="inlineStr"/>
-      <c r="H1136" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1136" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1137">
@@ -36809,10 +36789,8 @@
       </c>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
-      <c r="H1137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1137" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1138">
@@ -36839,10 +36817,8 @@
       </c>
       <c r="F1138" t="inlineStr"/>
       <c r="G1138" t="inlineStr"/>
-      <c r="H1138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1138" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1139">
@@ -36865,10 +36841,8 @@
       </c>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1140">
@@ -36913,10 +36887,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1141" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1142">
@@ -36947,10 +36919,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1142" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1142" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1143">
@@ -36977,10 +36947,8 @@
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1143" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1144">
@@ -37007,10 +36975,8 @@
       </c>
       <c r="F1144" t="inlineStr"/>
       <c r="G1144" t="inlineStr"/>
-      <c r="H1144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1144" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1145">
@@ -37037,10 +37003,8 @@
       </c>
       <c r="F1145" t="inlineStr"/>
       <c r="G1145" t="inlineStr"/>
-      <c r="H1145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1146">
@@ -37075,10 +37039,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1146" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1147">
@@ -37109,10 +37071,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1148">
@@ -37139,10 +37099,8 @@
       </c>
       <c r="F1148" t="inlineStr"/>
       <c r="G1148" t="inlineStr"/>
-      <c r="H1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1148" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1149">
@@ -37161,88 +37119,86 @@
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr">
+      <c r="H1149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr"/>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1150" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr"/>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr"/>
-      <c r="H1150" t="inlineStr"/>
-    </row>
     <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1151" t="inlineStr"/>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1152" t="inlineStr"/>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
           <t>3</t>
@@ -37252,59 +37208,35 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1153" t="inlineStr"/>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
@@ -37316,17 +37248,17 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
@@ -37342,139 +37274,159 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr"/>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
       <c r="G1158" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr"/>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr"/>
+      <c r="G1160" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1160" t="inlineStr">
         <is>
           <t>3</t>
@@ -37484,23 +37436,31 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
           <t>3</t>
@@ -37510,57 +37470,61 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
+      <c r="E1162" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr"/>
+      <c r="G1162" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
         <is>
           <t>3</t>
@@ -37570,31 +37534,27 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
         <is>
           <t>3</t>
@@ -37604,31 +37564,27 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1165" t="inlineStr"/>
       <c r="H1165" t="inlineStr">
         <is>
           <t>3</t>
@@ -37638,87 +37594,83 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr"/>
+      <c r="E1166" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1166" t="inlineStr"/>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1167" t="inlineStr"/>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
@@ -37730,23 +37682,23 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr"/>
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
       <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
@@ -37756,21 +37708,25 @@
       </c>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr"/>
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
@@ -37782,25 +37738,29 @@
       </c>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr"/>
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -37808,121 +37768,169 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr"/>
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1174">
-      <c r="A1174" t="inlineStr"/>
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr"/>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr"/>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr"/>
+      <c r="G1176" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1176" t="inlineStr">
         <is>
           <t>3</t>
@@ -37932,23 +37940,27 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
       <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr"/>
+      <c r="G1177" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -37958,257 +37970,209 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1179" t="inlineStr"/>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1180" t="inlineStr"/>
       <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1181" t="inlineStr"/>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
       <c r="G1182" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1183" t="inlineStr"/>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr"/>
+      <c r="C1184" t="inlineStr"/>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1184" t="inlineStr"/>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1184" t="inlineStr"/>
+      <c r="H1184" t="inlineStr"/>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38218,7 +38182,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
@@ -38228,27 +38192,31 @@
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
@@ -38258,87 +38226,99 @@
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
+      <c r="G1188" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
+      <c r="G1189" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
@@ -38348,15 +38328,11 @@
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1190" t="inlineStr"/>
       <c r="F1190" t="inlineStr"/>
       <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
@@ -38368,23 +38344,31 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
+      <c r="G1191" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1191" t="inlineStr">
         <is>
           <t>3</t>
@@ -38394,23 +38378,23 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
@@ -38424,25 +38408,21 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1193" t="inlineStr"/>
       <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="inlineStr"/>
       <c r="H1193" t="inlineStr">
@@ -38454,99 +38434,79 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1194" t="inlineStr"/>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1195" t="inlineStr"/>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1196" t="inlineStr"/>
       <c r="H1196" t="inlineStr">
         <is>
           <t>2</t>
@@ -38556,31 +38516,23 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1197" t="inlineStr"/>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1197" t="inlineStr"/>
       <c r="H1197" t="inlineStr">
         <is>
           <t>3</t>
@@ -38590,31 +38542,23 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1198" t="inlineStr"/>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1198" t="inlineStr"/>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -38624,27 +38568,23 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
       <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1199" t="inlineStr"/>
       <c r="H1199" t="inlineStr">
         <is>
           <t>3</t>
@@ -38654,7 +38594,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
@@ -38664,7 +38604,7 @@
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
@@ -38680,23 +38620,31 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1201" t="inlineStr">
         <is>
           <t>3</t>
@@ -38706,23 +38654,31 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
+      <c r="E1202" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
+      <c r="G1202" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1202" t="inlineStr">
         <is>
           <t>3</t>
@@ -38732,23 +38688,31 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
+      <c r="E1203" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
+      <c r="G1203" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1203" t="inlineStr">
         <is>
           <t>3</t>
@@ -38758,41 +38722,37 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1204" t="inlineStr"/>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
@@ -38802,7 +38762,7 @@
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
@@ -38811,649 +38771,31 @@
       <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr"/>
-      <c r="C1206" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1206" t="inlineStr"/>
       <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
       <c r="G1206" t="inlineStr"/>
-      <c r="H1206" t="inlineStr"/>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1207" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
-      <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H1207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1208" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1210" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H1210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1211" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1212" t="inlineStr">
-        <is>
-          <t>15-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
-      <c r="H1212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1213" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H1213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1214" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
-      <c r="H1214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>06:10 AM</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1215" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
-      <c r="H1215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>06:10 AM</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1216" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
-      <c r="H1216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1217" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYJAN/10</t>
-        </is>
-      </c>
-      <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr">
-        <is>
-          <t>9.3%</t>
-        </is>
-      </c>
-      <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr"/>
-      <c r="H1217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1218" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
-        </is>
-      </c>
-      <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr"/>
-      <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr"/>
-      <c r="H1218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1219" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
-      <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr"/>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr"/>
-      <c r="H1219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1220" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr"/>
-      <c r="H1220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1221" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
-      <c r="H1221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1222" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
-      <c r="H1222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1223" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1224" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H1224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1225" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H1225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1226" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
-      <c r="H1226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1227" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
-      <c r="H1227" t="inlineStr">
+      <c r="H1206" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1254"/>
+  <dimension ref="A1:H1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28699,10 +28699,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -28733,10 +28731,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -28771,10 +28767,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H879" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -28809,10 +28803,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H880" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -28847,10 +28839,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H881" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="882">
@@ -28873,10 +28863,8 @@
       <c r="E882" t="inlineStr"/>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr"/>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -28925,10 +28913,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28959,10 +28945,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -28993,10 +28977,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29023,10 +29005,8 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29053,10 +29033,8 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29083,10 +29061,8 @@
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29121,10 +29097,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H890" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="891">
@@ -29155,10 +29129,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29189,10 +29161,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29223,10 +29193,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29253,10 +29221,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29283,10 +29249,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29313,10 +29277,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29347,10 +29309,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -29377,10 +29337,8 @@
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -29407,10 +29365,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -29445,10 +29401,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -29475,10 +29429,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H901" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="902">
@@ -29505,10 +29457,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H902" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -29543,10 +29493,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H903" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="904">
@@ -29581,10 +29529,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29615,10 +29561,8 @@
         </is>
       </c>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29649,10 +29593,8 @@
         </is>
       </c>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29679,10 +29621,8 @@
       </c>
       <c r="F907" t="inlineStr"/>
       <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29705,10 +29645,8 @@
       </c>
       <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr"/>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29735,10 +29673,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29765,10 +29701,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29795,10 +29729,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29829,10 +29761,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29859,10 +29789,8 @@
         </is>
       </c>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29893,10 +29821,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29927,10 +29853,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -29953,10 +29877,8 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -29975,10 +29897,8 @@
       <c r="E917" t="inlineStr"/>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30027,10 +29947,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30061,10 +29979,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30091,10 +30007,8 @@
       </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30121,10 +30035,8 @@
       </c>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30155,10 +30067,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30189,10 +30099,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30227,10 +30135,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30261,10 +30167,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30287,10 +30191,8 @@
       <c r="E927" t="inlineStr"/>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30321,10 +30223,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30347,10 +30247,8 @@
       <c r="E929" t="inlineStr"/>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30385,10 +30283,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H930" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="931">
@@ -30419,10 +30315,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30449,10 +30343,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30479,10 +30371,8 @@
       </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30509,10 +30399,8 @@
       </c>
       <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr"/>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30539,10 +30427,8 @@
       </c>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30565,10 +30451,8 @@
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="937">
@@ -30603,10 +30487,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="938">
@@ -30637,10 +30519,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30675,10 +30555,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H939" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="940">
@@ -30713,10 +30591,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H940" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="941">
@@ -30751,10 +30627,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30785,10 +30659,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30819,10 +30691,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30853,10 +30723,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="945">
@@ -30891,10 +30759,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30921,10 +30787,8 @@
       </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -30947,10 +30811,8 @@
       <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H947" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="948">
@@ -30985,10 +30847,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31015,10 +30875,8 @@
       </c>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="950">
@@ -31049,10 +30907,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31083,10 +30939,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31109,10 +30963,8 @@
       <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -31143,10 +30995,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31177,10 +31027,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31207,10 +31055,8 @@
       </c>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr"/>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H955" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -31241,10 +31087,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31267,10 +31111,8 @@
       <c r="E957" t="inlineStr"/>
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31305,10 +31147,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H958" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="959">
@@ -31339,10 +31179,8 @@
         </is>
       </c>
       <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31373,10 +31211,8 @@
         </is>
       </c>
       <c r="G960" t="inlineStr"/>
-      <c r="H960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H960" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="961">
@@ -31399,10 +31235,8 @@
       </c>
       <c r="F961" t="inlineStr"/>
       <c r="G961" t="inlineStr"/>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -31425,10 +31259,8 @@
       </c>
       <c r="F962" t="inlineStr"/>
       <c r="G962" t="inlineStr"/>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H962" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="963">
@@ -31477,10 +31309,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="965">
@@ -31515,10 +31345,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -31549,10 +31377,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H966" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -31587,10 +31413,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H967" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="968">
@@ -31625,10 +31449,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H968" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="969">
@@ -31659,10 +31481,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H969" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="970">
@@ -31693,10 +31513,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31727,10 +31545,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31761,10 +31577,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31799,10 +31613,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31833,10 +31645,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31871,10 +31681,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -31905,10 +31713,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -31939,10 +31745,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="978">
@@ -31977,10 +31781,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -32011,10 +31813,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="980">
@@ -32045,10 +31845,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -32079,10 +31877,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="982">
@@ -32113,10 +31909,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32151,10 +31945,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H983" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="984">
@@ -32189,10 +31981,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H984" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="985">
@@ -32227,10 +32017,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32265,10 +32053,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32291,10 +32077,8 @@
       <c r="E987" t="inlineStr"/>
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr"/>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32329,10 +32113,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -32367,10 +32149,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -32405,10 +32185,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -32443,10 +32221,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -32481,10 +32257,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -32507,10 +32281,8 @@
       <c r="E993" t="inlineStr"/>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H993" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="994">
@@ -32545,10 +32317,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H994" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="995">
@@ -32583,10 +32353,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="996">
@@ -32621,10 +32389,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -32651,10 +32417,8 @@
       </c>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32681,10 +32445,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -32715,10 +32477,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32749,10 +32509,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32779,10 +32537,8 @@
       </c>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1002">
@@ -32809,10 +32565,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32839,10 +32593,8 @@
       </c>
       <c r="F1003" t="inlineStr"/>
       <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32869,10 +32621,8 @@
       </c>
       <c r="F1004" t="inlineStr"/>
       <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -32899,10 +32649,8 @@
       </c>
       <c r="F1005" t="inlineStr"/>
       <c r="G1005" t="inlineStr"/>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -32937,10 +32685,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1007">
@@ -32967,10 +32713,8 @@
       </c>
       <c r="F1007" t="inlineStr"/>
       <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1008">
@@ -33005,10 +32749,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1009">
@@ -33043,10 +32785,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -33081,10 +32821,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1011">
@@ -33119,10 +32857,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1012">
@@ -33157,10 +32893,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1013">
@@ -33191,10 +32925,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33225,10 +32957,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33263,10 +32993,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -33289,10 +33017,8 @@
       <c r="E1016" t="inlineStr"/>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -33315,10 +33041,8 @@
       <c r="E1017" t="inlineStr"/>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1018">
@@ -33345,10 +33069,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -33375,10 +33097,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1020">
@@ -33405,10 +33125,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33435,10 +33153,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33465,10 +33181,8 @@
       </c>
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -33495,10 +33209,8 @@
       </c>
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -33525,10 +33237,8 @@
       </c>
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1025">
@@ -33555,10 +33265,8 @@
       </c>
       <c r="F1025" t="inlineStr"/>
       <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
@@ -33585,10 +33293,8 @@
       </c>
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1027">
@@ -33623,10 +33329,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1028">
@@ -33661,10 +33365,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33687,10 +33389,8 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1030">
@@ -33717,10 +33417,8 @@
       </c>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -33751,10 +33449,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1032">
@@ -33781,10 +33477,8 @@
       </c>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33807,10 +33501,8 @@
       <c r="E1033" t="inlineStr"/>
       <c r="F1033" t="inlineStr"/>
       <c r="G1033" t="inlineStr"/>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -33833,10 +33525,8 @@
       <c r="E1034" t="inlineStr"/>
       <c r="F1034" t="inlineStr"/>
       <c r="G1034" t="inlineStr"/>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -33859,10 +33549,8 @@
       <c r="E1035" t="inlineStr"/>
       <c r="F1035" t="inlineStr"/>
       <c r="G1035" t="inlineStr"/>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -33893,10 +33581,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -33927,10 +33613,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1038">
@@ -33965,10 +33649,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -34003,10 +33685,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -34041,10 +33721,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1041">
@@ -34079,10 +33757,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1042">
@@ -34109,10 +33785,8 @@
       </c>
       <c r="F1042" t="inlineStr"/>
       <c r="G1042" t="inlineStr"/>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34139,10 +33813,8 @@
       </c>
       <c r="F1043" t="inlineStr"/>
       <c r="G1043" t="inlineStr"/>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34177,10 +33849,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34215,10 +33885,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1046">
@@ -34245,10 +33913,8 @@
       </c>
       <c r="F1046" t="inlineStr"/>
       <c r="G1046" t="inlineStr"/>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34275,10 +33941,8 @@
       </c>
       <c r="F1047" t="inlineStr"/>
       <c r="G1047" t="inlineStr"/>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34305,10 +33969,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34335,10 +33997,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34365,10 +34025,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34391,10 +34049,8 @@
       </c>
       <c r="F1051" t="inlineStr"/>
       <c r="G1051" t="inlineStr"/>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34413,10 +34069,8 @@
       <c r="E1052" t="inlineStr"/>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34443,10 +34097,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1053" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1054">
@@ -34473,10 +34125,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34503,10 +34153,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -34547,10 +34195,8 @@
       </c>
       <c r="F1057" t="inlineStr"/>
       <c r="G1057" t="inlineStr"/>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -34585,10 +34231,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1059">
@@ -34623,10 +34267,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -34661,10 +34303,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -34699,10 +34339,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1062">
@@ -34737,10 +34375,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -34771,10 +34407,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1064">
@@ -34809,10 +34443,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -34847,10 +34479,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -34881,10 +34511,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1067">
@@ -34919,10 +34547,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -34957,10 +34583,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -34991,10 +34615,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35025,10 +34647,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1071">
@@ -35063,10 +34683,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -35101,10 +34719,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -35139,10 +34755,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1074">
@@ -35177,10 +34791,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1075">
@@ -35215,10 +34827,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1076">
@@ -35253,10 +34863,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35291,10 +34899,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35317,10 +34923,8 @@
       <c r="E1078" t="inlineStr"/>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35347,10 +34951,8 @@
       </c>
       <c r="F1079" t="inlineStr"/>
       <c r="G1079" t="inlineStr"/>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -35373,10 +34975,8 @@
       <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1081">
@@ -35403,10 +35003,8 @@
       </c>
       <c r="F1081" t="inlineStr"/>
       <c r="G1081" t="inlineStr"/>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35441,10 +35039,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35471,10 +35067,8 @@
       </c>
       <c r="F1083" t="inlineStr"/>
       <c r="G1083" t="inlineStr"/>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -35505,10 +35099,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -35531,10 +35123,8 @@
       <c r="E1085" t="inlineStr"/>
       <c r="F1085" t="inlineStr"/>
       <c r="G1085" t="inlineStr"/>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -35565,10 +35155,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1087">
@@ -35603,10 +35191,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35641,10 +35227,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -35675,10 +35259,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -35713,10 +35295,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -35751,10 +35331,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1092">
@@ -35789,10 +35367,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1093">
@@ -35827,10 +35403,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1094">
@@ -35861,10 +35435,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35895,10 +35467,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -35929,10 +35499,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -35963,10 +35531,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -35993,10 +35559,8 @@
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36023,10 +35587,8 @@
       </c>
       <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr"/>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36053,10 +35615,8 @@
       </c>
       <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr"/>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
@@ -36083,10 +35643,8 @@
       </c>
       <c r="F1101" t="inlineStr"/>
       <c r="G1101" t="inlineStr"/>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -36113,10 +35671,8 @@
       </c>
       <c r="F1102" t="inlineStr"/>
       <c r="G1102" t="inlineStr"/>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1103">
@@ -36147,10 +35703,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1104">
@@ -36181,10 +35735,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36219,10 +35771,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1106">
@@ -36257,10 +35807,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1107">
@@ -36295,10 +35843,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36325,10 +35871,8 @@
       </c>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -36355,10 +35899,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36385,10 +35927,8 @@
       </c>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -36415,10 +35955,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36445,10 +35983,8 @@
       </c>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36471,10 +36007,8 @@
       <c r="E1113" t="inlineStr"/>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1114">
@@ -36501,10 +36035,8 @@
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36531,10 +36063,8 @@
       </c>
       <c r="F1115" t="inlineStr"/>
       <c r="G1115" t="inlineStr"/>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36561,10 +36091,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36595,10 +36123,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1118">
@@ -36633,10 +36159,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -36663,10 +36187,8 @@
       </c>
       <c r="F1119" t="inlineStr"/>
       <c r="G1119" t="inlineStr"/>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1120">
@@ -36697,10 +36219,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -36731,10 +36251,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1122">
@@ -36769,10 +36287,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1123">
@@ -36807,10 +36323,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1124">
@@ -36845,10 +36359,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -36883,10 +36395,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1126">
@@ -36921,10 +36431,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1127">
@@ -36955,10 +36463,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1128">
@@ -36993,10 +36499,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1129">
@@ -37023,94 +36527,108 @@
       </c>
       <c r="F1129" t="inlineStr"/>
       <c r="G1129" t="inlineStr"/>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1130" t="inlineStr"/>
-      <c r="C1130" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1130" t="inlineStr"/>
-      <c r="E1130" t="inlineStr"/>
+      <c r="E1130" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1130" t="inlineStr"/>
-      <c r="G1130" t="inlineStr"/>
-      <c r="H1130" t="inlineStr"/>
+      <c r="G1130" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1131" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
@@ -37122,29 +36640,33 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G1133" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1133" t="inlineStr">
@@ -37156,29 +36678,29 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1134" t="inlineStr">
@@ -37190,29 +36712,29 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1135" t="inlineStr">
@@ -37224,31 +36746,31 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1136" t="inlineStr">
         <is>
           <t>3</t>
@@ -37258,145 +36780,117 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1139" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1140" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr"/>
       <c r="H1140" t="inlineStr">
         <is>
           <t>3</t>
@@ -37406,35 +36900,27 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1141" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr"/>
       <c r="H1141" t="inlineStr">
         <is>
           <t>3</t>
@@ -37442,23 +36928,23 @@
       </c>
     </row>
     <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1142" t="inlineStr"/>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
-      <c r="E1142" t="inlineStr"/>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1142" t="inlineStr"/>
       <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
@@ -37470,173 +36956,165 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr"/>
+      <c r="C1143" t="inlineStr"/>
       <c r="D1143" t="inlineStr"/>
-      <c r="E1143" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1143" t="inlineStr"/>
       <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1143" t="inlineStr"/>
+      <c r="H1143" t="inlineStr"/>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
-      <c r="E1144" t="inlineStr"/>
+      <c r="E1144" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr"/>
+      <c r="G1144" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr"/>
+      <c r="G1145" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1146" t="inlineStr"/>
       <c r="G1146" t="inlineStr"/>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr"/>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1148" t="inlineStr"/>
@@ -37650,27 +37128,35 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1149" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1149" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1149" t="inlineStr">
         <is>
           <t>3</t>
@@ -37680,177 +37166,129 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="inlineStr"/>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1152" t="inlineStr"/>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1153" t="inlineStr"/>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H1153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1154" t="inlineStr">
@@ -37862,33 +37300,29 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1155" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1155" t="inlineStr">
@@ -37900,29 +37334,29 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1156" t="inlineStr">
@@ -37934,17 +37368,17 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
@@ -37954,11 +37388,7 @@
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1157" t="inlineStr"/>
       <c r="H1157" t="inlineStr">
         <is>
           <t>3</t>
@@ -37968,31 +37398,23 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
-      <c r="E1158" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1158" t="inlineStr"/>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1158" t="inlineStr"/>
       <c r="H1158" t="inlineStr">
         <is>
           <t>3</t>
@@ -38002,25 +37424,21 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38032,23 +37450,23 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1160" t="inlineStr"/>
@@ -38062,55 +37480,55 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr"/>
       <c r="H1162" t="inlineStr">
@@ -38122,25 +37540,21 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
-      <c r="E1163" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1163" t="inlineStr"/>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
@@ -38150,23 +37564,23 @@
       </c>
     </row>
     <row r="1164">
-      <c r="A1164" t="inlineStr"/>
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
-      <c r="E1164" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1164" t="inlineStr"/>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
@@ -38178,169 +37592,189 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
-      <c r="C1165" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr"/>
       <c r="F1165" t="inlineStr"/>
       <c r="G1165" t="inlineStr"/>
-      <c r="H1165" t="inlineStr"/>
+      <c r="H1165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
       <c r="G1166" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
       <c r="G1167" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr"/>
+      <c r="G1169" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1170" t="inlineStr">
         <is>
           <t>3</t>
@@ -38350,7 +37784,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
@@ -38360,25 +37794,17 @@
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1171" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -38386,33 +37812,25 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1172" t="inlineStr"/>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1172" t="inlineStr"/>
       <c r="H1172" t="inlineStr">
         <is>
           <t>3</t>
@@ -38420,25 +37838,21 @@
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
@@ -38453,18 +37867,22 @@
       <c r="A1174" t="inlineStr"/>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
       <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38472,81 +37890,81 @@
       </c>
     </row>
     <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
+      <c r="A1175" t="inlineStr"/>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1176" t="inlineStr"/>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
       <c r="E1176" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1176" t="inlineStr"/>
       <c r="G1176" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1177" t="inlineStr"/>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -38556,59 +37974,35 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr"/>
+      <c r="C1178" t="inlineStr"/>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1178" t="inlineStr"/>
+      <c r="H1178" t="inlineStr"/>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr"/>
       <c r="H1179" t="inlineStr">
@@ -38620,17 +38014,17 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
@@ -38646,139 +38040,159 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1183" t="inlineStr"/>
       <c r="G1183" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1184" t="inlineStr"/>
       <c r="G1184" t="inlineStr"/>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38788,23 +38202,31 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38814,57 +38236,61 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
           <t>3</t>
@@ -38874,31 +38300,27 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
           <t>3</t>
@@ -38908,31 +38330,27 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
         <is>
           <t>3</t>
@@ -38942,87 +38360,83 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1192" t="inlineStr"/>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
@@ -39034,23 +38448,23 @@
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr"/>
       <c r="H1194" t="inlineStr">
@@ -39060,21 +38474,25 @@
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
@@ -39086,25 +38504,29 @@
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr"/>
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1196" t="inlineStr"/>
       <c r="H1196" t="inlineStr">
         <is>
           <t>3</t>
@@ -39112,121 +38534,169 @@
       </c>
     </row>
     <row r="1197">
-      <c r="A1197" t="inlineStr"/>
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1197" t="inlineStr"/>
       <c r="G1197" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1198">
-      <c r="A1198" t="inlineStr"/>
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1198" t="inlineStr"/>
       <c r="G1198" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1199">
-      <c r="A1199" t="inlineStr"/>
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr"/>
-      <c r="C1200" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
+      <c r="E1200" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr"/>
+      <c r="G1200" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1200" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1201" t="inlineStr">
         <is>
           <t>3</t>
@@ -39236,23 +38706,27 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
       <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
+      <c r="G1202" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1202" t="inlineStr">
         <is>
           <t>3</t>
@@ -39262,257 +38736,209 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr"/>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1204" t="inlineStr"/>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
       <c r="G1206" t="inlineStr"/>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
       <c r="G1207" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1208" t="inlineStr"/>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1208" t="inlineStr"/>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr"/>
+      <c r="C1209" t="inlineStr"/>
       <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1209" t="inlineStr"/>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1209" t="inlineStr"/>
+      <c r="H1209" t="inlineStr"/>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
+      <c r="G1210" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1210" t="inlineStr">
         <is>
           <t>3</t>
@@ -39522,7 +38948,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
@@ -39532,27 +38958,31 @@
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
@@ -39562,87 +38992,99 @@
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
       <c r="E1212" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
+      <c r="G1212" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
       <c r="E1213" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
+      <c r="G1213" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
+      <c r="G1214" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1214" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
@@ -39652,15 +39094,11 @@
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1215" t="inlineStr"/>
       <c r="F1215" t="inlineStr"/>
       <c r="G1215" t="inlineStr"/>
       <c r="H1215" t="inlineStr">
@@ -39672,23 +39110,31 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
+      <c r="E1216" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
+      <c r="G1216" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1216" t="inlineStr">
         <is>
           <t>3</t>
@@ -39698,23 +39144,23 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1217" t="inlineStr"/>
@@ -39728,25 +39174,21 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
       <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
@@ -39758,99 +39200,79 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1219" t="inlineStr"/>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
       <c r="E1220" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1221" t="inlineStr"/>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1221" t="inlineStr"/>
       <c r="H1221" t="inlineStr">
         <is>
           <t>2</t>
@@ -39860,31 +39282,23 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1222" t="inlineStr"/>
       <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1222" t="inlineStr"/>
       <c r="H1222" t="inlineStr">
         <is>
           <t>3</t>
@@ -39894,31 +39308,23 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1223" t="inlineStr"/>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1223" t="inlineStr"/>
       <c r="H1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -39928,27 +39334,23 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
       <c r="E1224" t="inlineStr"/>
       <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1224" t="inlineStr"/>
       <c r="H1224" t="inlineStr">
         <is>
           <t>3</t>
@@ -39958,7 +39360,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
@@ -39968,7 +39370,7 @@
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
@@ -39984,23 +39386,31 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr"/>
+      <c r="E1226" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
+      <c r="G1226" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1226" t="inlineStr">
         <is>
           <t>3</t>
@@ -40010,23 +39420,31 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
+      <c r="E1227" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
+      <c r="G1227" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1227" t="inlineStr">
         <is>
           <t>3</t>
@@ -40036,23 +39454,31 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
+      <c r="E1228" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr"/>
+      <c r="G1228" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1228" t="inlineStr">
         <is>
           <t>3</t>
@@ -40062,41 +39488,37 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1229" t="inlineStr"/>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
@@ -40106,7 +39528,7 @@
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
@@ -40115,709 +39537,65 @@
       <c r="G1230" t="inlineStr"/>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr"/>
-      <c r="C1231" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1231" t="inlineStr"/>
       <c r="E1231" t="inlineStr"/>
       <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr"/>
-      <c r="H1231" t="inlineStr"/>
+      <c r="H1231" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
       <c r="E1232" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1232" t="inlineStr"/>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1233" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1234" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1234" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1235" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H1235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1236" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1237" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1237" t="inlineStr">
-        <is>
-          <t>15-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
-      <c r="H1237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1238" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1238" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H1238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1239" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1239" t="inlineStr"/>
-      <c r="E1239" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
-      <c r="F1239" t="inlineStr"/>
-      <c r="G1239" t="inlineStr"/>
-      <c r="H1239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="inlineStr">
-        <is>
-          <t>06:10 AM</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1240" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1240" t="inlineStr"/>
-      <c r="E1240" t="inlineStr"/>
-      <c r="F1240" t="inlineStr"/>
-      <c r="G1240" t="inlineStr"/>
-      <c r="H1240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>06:10 AM</t>
-        </is>
-      </c>
-      <c r="B1241" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1241" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
-      <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr"/>
-      <c r="H1241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1242" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYJAN/10</t>
-        </is>
-      </c>
-      <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr">
-        <is>
-          <t>9.3%</t>
-        </is>
-      </c>
-      <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
-      <c r="H1242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1243" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1243" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
-        </is>
-      </c>
-      <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr"/>
-      <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr"/>
-      <c r="H1243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1244" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
-      <c r="D1244" t="inlineStr"/>
-      <c r="E1244" t="inlineStr"/>
-      <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr"/>
-      <c r="H1244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1245" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1245" t="inlineStr"/>
-      <c r="E1245" t="inlineStr"/>
-      <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr"/>
-      <c r="H1245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1246" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1246" t="inlineStr"/>
-      <c r="E1246" t="inlineStr"/>
-      <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr"/>
-      <c r="H1246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1247" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr"/>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr"/>
-      <c r="H1247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1248" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1249" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1249" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H1249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1250" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1250" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H1250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1251" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1251" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1251" t="inlineStr"/>
-      <c r="E1251" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr"/>
-      <c r="H1251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1252" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1252" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr"/>
-      <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr"/>
-      <c r="H1252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1253" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1253" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D1253" t="inlineStr"/>
-      <c r="E1253" t="inlineStr"/>
-      <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr"/>
-      <c r="H1253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1254" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1254" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1254" t="inlineStr"/>
-      <c r="E1254" t="inlineStr">
-        <is>
-          <t>127.1%</t>
-        </is>
-      </c>
-      <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H1254" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1252"/>
+  <dimension ref="A1:H1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28895,10 +28895,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -28925,10 +28923,8 @@
       </c>
       <c r="F884" t="inlineStr"/>
       <c r="G884" t="inlineStr"/>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28955,10 +28951,8 @@
       </c>
       <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr"/>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -28985,10 +28979,8 @@
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr"/>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29023,10 +29015,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H887" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="888">
@@ -29057,10 +29047,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29091,10 +29079,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29125,10 +29111,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -29155,10 +29139,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29185,10 +29167,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29215,10 +29195,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29249,10 +29227,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29279,10 +29255,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29309,10 +29283,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29347,10 +29319,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -29377,10 +29347,8 @@
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H898" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="899">
@@ -29407,10 +29375,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H899" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -29445,10 +29411,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -29483,10 +29447,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -29517,10 +29479,8 @@
         </is>
       </c>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -29551,10 +29511,8 @@
         </is>
       </c>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -29581,10 +29539,8 @@
       </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29607,10 +29563,8 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29637,10 +29591,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29667,10 +29619,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29697,10 +29647,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29731,10 +29679,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29761,10 +29707,8 @@
         </is>
       </c>
       <c r="G910" t="inlineStr"/>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29795,10 +29739,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29829,10 +29771,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29855,10 +29795,8 @@
       </c>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29877,10 +29815,8 @@
       <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29929,10 +29865,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -29963,10 +29897,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -29993,10 +29925,8 @@
       </c>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30023,10 +29953,8 @@
       </c>
       <c r="F919" t="inlineStr"/>
       <c r="G919" t="inlineStr"/>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30057,10 +29985,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30091,10 +30017,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30129,10 +30053,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30163,10 +30085,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30189,10 +30109,8 @@
       <c r="E924" t="inlineStr"/>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30223,10 +30141,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30249,10 +30165,8 @@
       <c r="E926" t="inlineStr"/>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr"/>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30287,10 +30201,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H927" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="928">
@@ -30321,10 +30233,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30351,10 +30261,8 @@
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30381,10 +30289,8 @@
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30411,10 +30317,8 @@
       </c>
       <c r="F931" t="inlineStr"/>
       <c r="G931" t="inlineStr"/>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30441,10 +30345,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30467,10 +30369,8 @@
       <c r="E933" t="inlineStr"/>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30505,10 +30405,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30539,10 +30437,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30577,10 +30473,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H936" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="937">
@@ -30615,10 +30509,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="938">
@@ -30653,10 +30545,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30687,10 +30577,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -30721,10 +30609,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="941">
@@ -30755,10 +30641,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30793,10 +30677,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30823,10 +30705,8 @@
       </c>
       <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr"/>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30849,10 +30729,8 @@
       <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr"/>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H944" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="945">
@@ -30887,10 +30765,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30917,10 +30793,8 @@
       </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -30951,10 +30825,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="948">
@@ -30985,10 +30857,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31011,10 +30881,8 @@
       <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H949" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="950">
@@ -31045,10 +30913,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31079,10 +30945,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31109,10 +30973,8 @@
       </c>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -31143,10 +31005,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31169,10 +31029,8 @@
       <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31207,10 +31065,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H955" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -31241,10 +31097,8 @@
         </is>
       </c>
       <c r="G956" t="inlineStr"/>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31275,10 +31129,8 @@
         </is>
       </c>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31301,10 +31153,8 @@
       </c>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr"/>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H958" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="959">
@@ -31327,10 +31177,8 @@
       </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31379,10 +31227,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -31417,10 +31263,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H962" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="963">
@@ -31451,10 +31295,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H963" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -31489,10 +31331,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H964" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -31527,10 +31367,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -31561,10 +31399,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H966" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -31595,10 +31431,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="968">
@@ -31629,10 +31463,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="969">
@@ -31663,10 +31495,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="970">
@@ -31701,10 +31531,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31735,10 +31563,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31773,10 +31599,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31807,10 +31631,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31841,10 +31663,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31879,10 +31699,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -31913,10 +31731,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -31947,10 +31763,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H977" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="978">
@@ -31981,10 +31795,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -32015,10 +31827,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="980">
@@ -32053,10 +31863,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -32091,10 +31899,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H981" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="982">
@@ -32129,10 +31935,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32167,10 +31971,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="984">
@@ -32193,10 +31995,8 @@
       <c r="E984" t="inlineStr"/>
       <c r="F984" t="inlineStr"/>
       <c r="G984" t="inlineStr"/>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="985">
@@ -32231,10 +32031,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32269,10 +32067,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32307,10 +32103,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32345,10 +32139,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -32383,10 +32175,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -32409,10 +32199,8 @@
       <c r="E990" t="inlineStr"/>
       <c r="F990" t="inlineStr"/>
       <c r="G990" t="inlineStr"/>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H990" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="991">
@@ -32447,10 +32235,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H991" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="992">
@@ -32485,10 +32271,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="993">
@@ -32523,10 +32307,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="994">
@@ -32553,10 +32335,8 @@
       </c>
       <c r="F994" t="inlineStr"/>
       <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="995">
@@ -32583,10 +32363,8 @@
       </c>
       <c r="F995" t="inlineStr"/>
       <c r="G995" t="inlineStr"/>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="996">
@@ -32617,10 +32395,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -32651,10 +32427,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32681,10 +32455,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H998" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="999">
@@ -32711,10 +32483,8 @@
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr"/>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32741,10 +32511,8 @@
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32771,10 +32539,8 @@
       </c>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -32801,10 +32567,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32839,10 +32603,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32869,10 +32631,8 @@
       </c>
       <c r="F1004" t="inlineStr"/>
       <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -32907,10 +32667,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -32945,10 +32703,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1007">
@@ -32983,10 +32739,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -33021,10 +32775,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1009">
@@ -33059,10 +32811,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -33093,10 +32843,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -33127,10 +32875,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1012">
@@ -33165,10 +32911,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -33191,10 +32935,8 @@
       <c r="E1013" t="inlineStr"/>
       <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr"/>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33217,10 +32959,8 @@
       <c r="E1014" t="inlineStr"/>
       <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33247,10 +32987,8 @@
       </c>
       <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -33277,10 +33015,8 @@
       </c>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -33307,10 +33043,8 @@
       </c>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1018">
@@ -33337,10 +33071,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1019">
@@ -33367,10 +33099,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1020">
@@ -33397,10 +33127,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33427,10 +33155,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33457,10 +33183,8 @@
       </c>
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -33487,10 +33211,8 @@
       </c>
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -33525,10 +33247,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -33563,10 +33283,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1026">
@@ -33589,10 +33307,8 @@
       <c r="E1026" t="inlineStr"/>
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -33619,10 +33335,8 @@
       </c>
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -33653,10 +33367,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33683,10 +33395,8 @@
       </c>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1030">
@@ -33709,10 +33419,8 @@
       <c r="E1030" t="inlineStr"/>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1031">
@@ -33735,10 +33443,8 @@
       <c r="E1031" t="inlineStr"/>
       <c r="F1031" t="inlineStr"/>
       <c r="G1031" t="inlineStr"/>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1032">
@@ -33761,10 +33467,8 @@
       <c r="E1032" t="inlineStr"/>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33795,10 +33499,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -33829,10 +33531,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -33867,10 +33567,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -33905,10 +33603,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -33943,10 +33639,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1038">
@@ -33981,10 +33675,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1039">
@@ -34011,10 +33703,8 @@
       </c>
       <c r="F1039" t="inlineStr"/>
       <c r="G1039" t="inlineStr"/>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -34041,10 +33731,8 @@
       </c>
       <c r="F1040" t="inlineStr"/>
       <c r="G1040" t="inlineStr"/>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1041">
@@ -34079,10 +33767,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
@@ -34117,10 +33803,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34147,10 +33831,8 @@
       </c>
       <c r="F1043" t="inlineStr"/>
       <c r="G1043" t="inlineStr"/>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34177,10 +33859,8 @@
       </c>
       <c r="F1044" t="inlineStr"/>
       <c r="G1044" t="inlineStr"/>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34207,10 +33887,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -34237,10 +33915,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34267,10 +33943,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34293,10 +33967,8 @@
       </c>
       <c r="F1048" t="inlineStr"/>
       <c r="G1048" t="inlineStr"/>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34315,10 +33987,8 @@
       <c r="E1049" t="inlineStr"/>
       <c r="F1049" t="inlineStr"/>
       <c r="G1049" t="inlineStr"/>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34345,10 +34015,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34375,10 +34043,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34405,10 +34071,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34449,10 +34113,8 @@
       </c>
       <c r="F1054" t="inlineStr"/>
       <c r="G1054" t="inlineStr"/>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34487,10 +34149,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -34525,10 +34185,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1057">
@@ -34563,10 +34221,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -34601,10 +34257,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -34639,10 +34293,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -34673,10 +34325,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1061">
@@ -34711,10 +34361,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1062">
@@ -34749,10 +34397,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1063">
@@ -34783,10 +34429,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1064">
@@ -34821,10 +34465,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -34859,10 +34501,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -34893,10 +34533,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -34927,10 +34565,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -34965,10 +34601,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1069">
@@ -35003,10 +34637,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35041,10 +34673,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1071">
@@ -35079,10 +34709,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1072">
@@ -35117,10 +34745,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1073">
@@ -35155,10 +34781,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -35193,10 +34817,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -35219,10 +34841,8 @@
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -35249,10 +34869,8 @@
       </c>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35275,10 +34893,8 @@
       <c r="E1077" t="inlineStr"/>
       <c r="F1077" t="inlineStr"/>
       <c r="G1077" t="inlineStr"/>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35305,10 +34921,8 @@
       </c>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35343,10 +34957,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1080">
@@ -35373,10 +34985,8 @@
       </c>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1081">
@@ -35407,10 +35017,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35433,10 +35041,8 @@
       <c r="E1082" t="inlineStr"/>
       <c r="F1082" t="inlineStr"/>
       <c r="G1082" t="inlineStr"/>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35467,10 +35073,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -35505,10 +35109,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1085">
@@ -35543,10 +35145,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1086">
@@ -35577,10 +35177,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -35615,10 +35213,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35653,10 +35249,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -35691,10 +35285,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -35729,10 +35321,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -35763,10 +35353,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -35797,10 +35385,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -35831,10 +35417,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -35865,10 +35449,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35895,10 +35477,8 @@
       </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -35925,10 +35505,8 @@
       </c>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -35955,10 +35533,8 @@
       </c>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr"/>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -35985,10 +35561,8 @@
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36015,10 +35589,8 @@
       </c>
       <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr"/>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36049,10 +35621,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
@@ -36083,10 +35653,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -36121,10 +35689,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1103">
@@ -36159,10 +35725,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1104">
@@ -36197,10 +35761,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36227,10 +35789,8 @@
       </c>
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1106">
@@ -36257,10 +35817,8 @@
       </c>
       <c r="F1106" t="inlineStr"/>
       <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1107">
@@ -36287,10 +35845,8 @@
       </c>
       <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36317,10 +35873,8 @@
       </c>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -36347,10 +35901,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36373,10 +35925,8 @@
       <c r="E1110" t="inlineStr"/>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1111">
@@ -36403,10 +35953,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36433,10 +35981,8 @@
       </c>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36463,10 +36009,8 @@
       </c>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -36497,10 +36041,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36535,10 +36077,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36565,10 +36105,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36599,10 +36137,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1118">
@@ -36633,10 +36169,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -36671,10 +36205,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -36709,10 +36241,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1121">
@@ -36747,10 +36277,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1122">
@@ -36785,10 +36313,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1123">
@@ -36823,10 +36349,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1124">
@@ -36857,10 +36381,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1125">
@@ -36895,10 +36417,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -36925,94 +36445,108 @@
       </c>
       <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr"/>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr"/>
-      <c r="C1127" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
-      <c r="H1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1128" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1128" t="inlineStr"/>
       <c r="G1128" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -37024,29 +36558,33 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1130" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1130" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1130" t="inlineStr">
@@ -37058,29 +36596,29 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
@@ -37092,29 +36630,29 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
@@ -37126,31 +36664,31 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1133" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1133" t="inlineStr">
         <is>
           <t>3</t>
@@ -37160,145 +36698,117 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G1134" t="inlineStr"/>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1135" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr"/>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1137" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
           <t>3</t>
@@ -37308,35 +36818,27 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
           <t>3</t>
@@ -37344,23 +36846,23 @@
       </c>
     </row>
     <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1139" t="inlineStr"/>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
-      <c r="E1139" t="inlineStr"/>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
@@ -37372,173 +36874,165 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1140" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr"/>
+      <c r="C1140" t="inlineStr"/>
       <c r="D1140" t="inlineStr"/>
-      <c r="E1140" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1140" t="inlineStr"/>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1140" t="inlineStr"/>
+      <c r="H1140" t="inlineStr"/>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
-      <c r="E1141" t="inlineStr"/>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr"/>
+      <c r="G1142" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
       <c r="G1144" t="inlineStr"/>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
@@ -37552,27 +37046,35 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1146" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1146" t="inlineStr">
         <is>
           <t>3</t>
@@ -37582,177 +37084,129 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1147" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1148" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr"/>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1149" t="inlineStr"/>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
-      <c r="E1149" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1149" t="inlineStr"/>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr"/>
+      <c r="C1150" t="inlineStr"/>
       <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1150" t="inlineStr"/>
       <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H1150" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1150" t="inlineStr"/>
+      <c r="H1150" t="inlineStr"/>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
@@ -37764,33 +37218,29 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1152" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
@@ -37802,29 +37252,29 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1153" t="inlineStr"/>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1153" t="inlineStr">
@@ -37836,17 +37286,17 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
@@ -37856,11 +37306,7 @@
         </is>
       </c>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -37870,31 +37316,23 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1155" t="inlineStr"/>
       <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
         <is>
           <t>3</t>
@@ -37904,25 +37342,21 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1156" t="inlineStr"/>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
@@ -37934,23 +37368,23 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
@@ -37964,55 +37398,55 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr"/>
+      <c r="G1158" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38024,25 +37458,21 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1160" t="inlineStr"/>
       <c r="F1160" t="inlineStr"/>
       <c r="G1160" t="inlineStr"/>
       <c r="H1160" t="inlineStr">
@@ -38052,23 +37482,23 @@
       </c>
     </row>
     <row r="1161">
-      <c r="A1161" t="inlineStr"/>
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1161" t="inlineStr"/>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr"/>
       <c r="H1161" t="inlineStr">
@@ -38080,169 +37510,189 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr"/>
-      <c r="C1162" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr"/>
-      <c r="H1162" t="inlineStr"/>
+      <c r="H1162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1166" t="inlineStr"/>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1167" t="inlineStr">
         <is>
           <t>3</t>
@@ -38252,7 +37702,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
@@ -38262,25 +37712,17 @@
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr">
         <is>
           <t>3</t>
@@ -38288,33 +37730,25 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1169" t="inlineStr"/>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
         <is>
           <t>3</t>
@@ -38322,25 +37756,21 @@
       </c>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
@@ -38355,18 +37785,22 @@
       <c r="A1171" t="inlineStr"/>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr"/>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -38374,81 +37808,81 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr"/>
-      <c r="C1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr"/>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
+      <c r="E1172" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr"/>
-      <c r="H1172" t="inlineStr"/>
+      <c r="G1172" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1174" t="inlineStr"/>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1174" t="inlineStr"/>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38458,59 +37892,35 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr"/>
+      <c r="C1175" t="inlineStr"/>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1175" t="inlineStr"/>
+      <c r="H1175" t="inlineStr"/>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1176" t="inlineStr"/>
       <c r="F1176" t="inlineStr"/>
       <c r="G1176" t="inlineStr"/>
       <c r="H1176" t="inlineStr">
@@ -38522,17 +37932,17 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
@@ -38548,139 +37958,159 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr"/>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr"/>
+      <c r="G1179" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
           <t>3</t>
@@ -38690,23 +38120,31 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1183" t="inlineStr">
         <is>
           <t>3</t>
@@ -38716,57 +38154,61 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
+      <c r="G1184" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38776,31 +38218,27 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1186" t="inlineStr"/>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38810,31 +38248,27 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
         <is>
           <t>3</t>
@@ -38844,87 +38278,83 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
@@ -38936,23 +38366,23 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" t="inlineStr"/>
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1191" t="inlineStr"/>
       <c r="F1191" t="inlineStr"/>
       <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
@@ -38962,21 +38392,25 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr"/>
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
@@ -38988,25 +38422,29 @@
       </c>
     </row>
     <row r="1193">
-      <c r="A1193" t="inlineStr"/>
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr"/>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1193" t="inlineStr"/>
       <c r="H1193" t="inlineStr">
         <is>
           <t>3</t>
@@ -39014,121 +38452,169 @@
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
       <c r="G1195" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr"/>
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr"/>
-      <c r="C1197" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
-      <c r="H1197" t="inlineStr"/>
+      <c r="G1197" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1197" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -39138,23 +38624,27 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
       <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1199" t="inlineStr">
         <is>
           <t>3</t>
@@ -39164,257 +38654,209 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1200" t="inlineStr"/>
       <c r="F1200" t="inlineStr"/>
       <c r="G1200" t="inlineStr"/>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1201" t="inlineStr"/>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1201" t="inlineStr"/>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr"/>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1204" t="inlineStr"/>
       <c r="G1204" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1206" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr"/>
+      <c r="C1206" t="inlineStr"/>
       <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1206" t="inlineStr"/>
+      <c r="H1206" t="inlineStr"/>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
+      <c r="G1207" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1207" t="inlineStr">
         <is>
           <t>3</t>
@@ -39424,7 +38866,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
@@ -39434,27 +38876,31 @@
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
+      <c r="G1208" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
@@ -39464,87 +38910,99 @@
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
+      <c r="G1209" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
+      <c r="G1210" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
@@ -39554,15 +39012,11 @@
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1212" t="inlineStr"/>
       <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr"/>
       <c r="H1212" t="inlineStr">
@@ -39574,23 +39028,31 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr"/>
+      <c r="E1213" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
+      <c r="G1213" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1213" t="inlineStr">
         <is>
           <t>3</t>
@@ -39600,23 +39062,23 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1214" t="inlineStr"/>
@@ -39630,25 +39092,21 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1215" t="inlineStr"/>
       <c r="F1215" t="inlineStr"/>
       <c r="G1215" t="inlineStr"/>
       <c r="H1215" t="inlineStr">
@@ -39660,99 +39118,79 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E1216" t="inlineStr"/>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1216" t="inlineStr"/>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1217" t="inlineStr"/>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
         <is>
           <t>2</t>
@@ -39762,31 +39200,23 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1219" t="inlineStr"/>
       <c r="H1219" t="inlineStr">
         <is>
           <t>3</t>
@@ -39796,31 +39226,23 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1220" t="inlineStr"/>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
         <is>
           <t>3</t>
@@ -39830,27 +39252,23 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
       <c r="E1221" t="inlineStr"/>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1221" t="inlineStr"/>
       <c r="H1221" t="inlineStr">
         <is>
           <t>3</t>
@@ -39860,7 +39278,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
@@ -39870,7 +39288,7 @@
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
@@ -39886,23 +39304,31 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
+      <c r="E1223" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
+      <c r="G1223" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -39912,23 +39338,31 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
+      <c r="E1224" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr"/>
+      <c r="G1224" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1224" t="inlineStr">
         <is>
           <t>3</t>
@@ -39938,23 +39372,31 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
+      <c r="E1225" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
+      <c r="G1225" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1225" t="inlineStr">
         <is>
           <t>3</t>
@@ -39964,41 +39406,37 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1226" t="inlineStr"/>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
@@ -40008,7 +39446,7 @@
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
@@ -40017,50 +39455,62 @@
       <c r="G1227" t="inlineStr"/>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr"/>
-      <c r="C1228" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1228" t="inlineStr"/>
       <c r="E1228" t="inlineStr"/>
       <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr"/>
-      <c r="H1228" t="inlineStr"/>
+      <c r="H1228" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1229" t="inlineStr"/>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr">
@@ -40072,684 +39522,28 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1230" t="inlineStr"/>
       <c r="F1230" t="inlineStr"/>
       <c r="G1230" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H1230" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1231" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1231" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1232" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1232" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H1232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1233" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1234" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1234" t="inlineStr">
-        <is>
-          <t>15-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr"/>
-      <c r="H1234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1235" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H1235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1236" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
-      <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr"/>
-      <c r="H1236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>06:10 AM</t>
-        </is>
-      </c>
-      <c r="B1237" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1237" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
-      <c r="H1237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>06:10 AM</t>
-        </is>
-      </c>
-      <c r="B1238" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1238" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr"/>
-      <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr"/>
-      <c r="H1238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1239" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYJAN/10</t>
-        </is>
-      </c>
-      <c r="D1239" t="inlineStr"/>
-      <c r="E1239" t="inlineStr">
-        <is>
-          <t>9.3%</t>
-        </is>
-      </c>
-      <c r="F1239" t="inlineStr"/>
-      <c r="G1239" t="inlineStr"/>
-      <c r="H1239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1240" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
-        </is>
-      </c>
-      <c r="D1240" t="inlineStr"/>
-      <c r="E1240" t="inlineStr"/>
-      <c r="F1240" t="inlineStr"/>
-      <c r="G1240" t="inlineStr"/>
-      <c r="H1240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1241" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1241" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
-      <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
-      <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr"/>
-      <c r="H1241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1242" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr"/>
-      <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
-      <c r="H1242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1243" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1243" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr"/>
-      <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr"/>
-      <c r="H1243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1244" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1244" t="inlineStr"/>
-      <c r="E1244" t="inlineStr"/>
-      <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr"/>
-      <c r="H1244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1245" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1245" t="inlineStr"/>
-      <c r="E1245" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1246" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1246" t="inlineStr"/>
-      <c r="E1246" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H1246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1247" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H1247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1248" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr"/>
-      <c r="H1248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1249" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1249" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr"/>
-      <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr"/>
-      <c r="H1249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1250" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1250" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr"/>
-      <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr"/>
-      <c r="H1250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1251" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1251" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1251" t="inlineStr"/>
-      <c r="E1251" t="inlineStr">
-        <is>
-          <t>127.1%</t>
-        </is>
-      </c>
-      <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H1251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1252" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1252" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr"/>
-      <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H1252" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1230"/>
+  <dimension ref="A1:H1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36477,10 +36477,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1128">
@@ -36511,10 +36509,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1129">
@@ -36549,10 +36545,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1129" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1130">
@@ -36587,10 +36581,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H1130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1131">
@@ -36621,10 +36613,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1132">
@@ -36655,10 +36645,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1133">
@@ -36689,10 +36677,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1133" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1134">
@@ -36719,10 +36705,8 @@
       </c>
       <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr"/>
-      <c r="H1134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1134" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1135">
@@ -36749,10 +36733,8 @@
       </c>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr"/>
-      <c r="H1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1136">
@@ -36779,10 +36761,8 @@
       </c>
       <c r="F1136" t="inlineStr"/>
       <c r="G1136" t="inlineStr"/>
-      <c r="H1136" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1136" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1137">
@@ -36809,10 +36789,8 @@
       </c>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
-      <c r="H1137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1137" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1138">
@@ -36839,10 +36817,8 @@
       </c>
       <c r="F1138" t="inlineStr"/>
       <c r="G1138" t="inlineStr"/>
-      <c r="H1138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1138" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1139">
@@ -36865,10 +36841,8 @@
       </c>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1140">
@@ -36913,10 +36887,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1141" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1142">
@@ -36947,10 +36919,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1142" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1142" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1143">
@@ -36977,10 +36947,8 @@
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1143" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1144">
@@ -37007,10 +36975,8 @@
       </c>
       <c r="F1144" t="inlineStr"/>
       <c r="G1144" t="inlineStr"/>
-      <c r="H1144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1144" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1145">
@@ -37037,10 +37003,8 @@
       </c>
       <c r="F1145" t="inlineStr"/>
       <c r="G1145" t="inlineStr"/>
-      <c r="H1145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1146">
@@ -37075,10 +37039,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1146" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1147">
@@ -37109,10 +37071,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1148">
@@ -37139,10 +37099,8 @@
       </c>
       <c r="F1148" t="inlineStr"/>
       <c r="G1148" t="inlineStr"/>
-      <c r="H1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1148" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1149">
@@ -37161,88 +37119,86 @@
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr">
+      <c r="H1149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr"/>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1150" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr"/>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr"/>
-      <c r="H1150" t="inlineStr"/>
-    </row>
     <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1151" t="inlineStr"/>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1152" t="inlineStr"/>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
           <t>3</t>
@@ -37252,59 +37208,35 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1153" t="inlineStr"/>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
@@ -37316,17 +37248,17 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
@@ -37342,139 +37274,159 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr"/>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
       <c r="G1158" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr"/>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr"/>
+      <c r="G1160" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1160" t="inlineStr">
         <is>
           <t>3</t>
@@ -37484,23 +37436,31 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
           <t>3</t>
@@ -37510,57 +37470,61 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
+      <c r="E1162" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr"/>
+      <c r="G1162" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
         <is>
           <t>3</t>
@@ -37570,31 +37534,27 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
         <is>
           <t>3</t>
@@ -37604,31 +37564,27 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1165" t="inlineStr"/>
       <c r="H1165" t="inlineStr">
         <is>
           <t>3</t>
@@ -37638,87 +37594,83 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr"/>
+      <c r="E1166" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1166" t="inlineStr"/>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1167" t="inlineStr"/>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
@@ -37730,23 +37682,23 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr"/>
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
       <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
@@ -37756,21 +37708,25 @@
       </c>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr"/>
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
@@ -37782,25 +37738,29 @@
       </c>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr"/>
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -37808,121 +37768,169 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr"/>
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1174">
-      <c r="A1174" t="inlineStr"/>
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr"/>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr"/>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr"/>
+      <c r="G1176" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1176" t="inlineStr">
         <is>
           <t>3</t>
@@ -37932,23 +37940,27 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
       <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr"/>
+      <c r="G1177" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -37958,257 +37970,209 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1179" t="inlineStr"/>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1180" t="inlineStr"/>
       <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1181" t="inlineStr"/>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
       <c r="G1182" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1183" t="inlineStr"/>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr"/>
+      <c r="C1184" t="inlineStr"/>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1184" t="inlineStr"/>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1184" t="inlineStr"/>
+      <c r="H1184" t="inlineStr"/>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38218,7 +38182,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
@@ -38228,27 +38192,31 @@
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
@@ -38258,87 +38226,99 @@
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
+      <c r="G1188" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
+      <c r="G1189" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
@@ -38348,15 +38328,11 @@
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1190" t="inlineStr"/>
       <c r="F1190" t="inlineStr"/>
       <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
@@ -38368,23 +38344,31 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
+      <c r="G1191" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1191" t="inlineStr">
         <is>
           <t>3</t>
@@ -38394,23 +38378,23 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
@@ -38424,25 +38408,21 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1193" t="inlineStr"/>
       <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="inlineStr"/>
       <c r="H1193" t="inlineStr">
@@ -38454,99 +38434,79 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1194" t="inlineStr"/>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1195" t="inlineStr"/>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1196" t="inlineStr"/>
       <c r="H1196" t="inlineStr">
         <is>
           <t>2</t>
@@ -38556,31 +38516,23 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1197" t="inlineStr"/>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1197" t="inlineStr"/>
       <c r="H1197" t="inlineStr">
         <is>
           <t>3</t>
@@ -38590,31 +38542,23 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1198" t="inlineStr"/>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1198" t="inlineStr"/>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -38624,27 +38568,23 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
       <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1199" t="inlineStr"/>
       <c r="H1199" t="inlineStr">
         <is>
           <t>3</t>
@@ -38654,7 +38594,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
@@ -38664,7 +38604,7 @@
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
@@ -38680,23 +38620,31 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1201" t="inlineStr">
         <is>
           <t>3</t>
@@ -38706,23 +38654,31 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
+      <c r="E1202" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
+      <c r="G1202" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1202" t="inlineStr">
         <is>
           <t>3</t>
@@ -38732,23 +38688,31 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
+      <c r="E1203" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
+      <c r="G1203" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1203" t="inlineStr">
         <is>
           <t>3</t>
@@ -38758,41 +38722,37 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1204" t="inlineStr"/>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
@@ -38802,7 +38762,7 @@
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
@@ -38811,50 +38771,62 @@
       <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr"/>
-      <c r="C1206" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1206" t="inlineStr"/>
       <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
       <c r="G1206" t="inlineStr"/>
-      <c r="H1206" t="inlineStr"/>
+      <c r="H1206" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
       <c r="G1207" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1207" t="inlineStr">
@@ -38866,29 +38838,25 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1208" t="inlineStr"/>
       <c r="F1208" t="inlineStr"/>
       <c r="G1208" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H1208" t="inlineStr">
@@ -38900,29 +38868,29 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1209" t="inlineStr"/>
       <c r="G1209" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1209" t="inlineStr">
@@ -38934,618 +38902,34 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1210" t="inlineStr"/>
       <c r="G1210" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1210" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1211" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1212" t="inlineStr">
-        <is>
-          <t>15-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
-      <c r="H1212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1213" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H1213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1214" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
-      <c r="H1214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>06:10 AM</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1215" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
-      <c r="H1215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>06:10 AM</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1216" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
-      <c r="H1216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1217" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYJAN/10</t>
-        </is>
-      </c>
-      <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr">
-        <is>
-          <t>9.3%</t>
-        </is>
-      </c>
-      <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr"/>
-      <c r="H1217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1218" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
-        </is>
-      </c>
-      <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr"/>
-      <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr"/>
-      <c r="H1218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1219" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
-      <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr"/>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr"/>
-      <c r="H1219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1220" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr"/>
-      <c r="H1220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1221" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
-      <c r="H1221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1222" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
-      <c r="H1222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1223" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1224" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H1224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1225" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H1225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1226" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
-      <c r="H1226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1227" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
-      <c r="H1227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1228" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr"/>
-      <c r="H1228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1229" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1229" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr">
-        <is>
-          <t>127.1%</t>
-        </is>
-      </c>
-      <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H1229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1230" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1230" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H1230" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1263"/>
+  <dimension ref="A1:H1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28703,10 +28703,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -28737,10 +28735,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -28775,10 +28771,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H879" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -28813,10 +28807,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H880" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -28851,10 +28843,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H881" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="882">
@@ -28877,10 +28867,8 @@
       <c r="E882" t="inlineStr"/>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr"/>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -28929,10 +28917,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28963,10 +28949,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -28997,10 +28981,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29027,10 +29009,8 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29057,10 +29037,8 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29087,10 +29065,8 @@
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29125,10 +29101,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H890" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="891">
@@ -29159,10 +29133,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29193,10 +29165,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29227,10 +29197,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29257,10 +29225,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29287,10 +29253,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29317,10 +29281,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29351,10 +29313,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -29381,10 +29341,8 @@
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -29411,10 +29369,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -29449,10 +29405,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -29479,10 +29433,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H901" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="902">
@@ -29509,10 +29461,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H902" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -29547,10 +29497,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H903" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="904">
@@ -29585,10 +29533,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29619,10 +29565,8 @@
         </is>
       </c>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29653,10 +29597,8 @@
         </is>
       </c>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29683,10 +29625,8 @@
       </c>
       <c r="F907" t="inlineStr"/>
       <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29709,10 +29649,8 @@
       </c>
       <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr"/>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29739,10 +29677,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29769,10 +29705,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29799,10 +29733,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29833,10 +29765,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29863,10 +29793,8 @@
         </is>
       </c>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29897,10 +29825,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29931,10 +29857,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -29957,10 +29881,8 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -29979,10 +29901,8 @@
       <c r="E917" t="inlineStr"/>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30031,10 +29951,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30065,10 +29983,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30095,10 +30011,8 @@
       </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30125,10 +30039,8 @@
       </c>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30159,10 +30071,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30193,10 +30103,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30231,10 +30139,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30265,10 +30171,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30291,10 +30195,8 @@
       <c r="E927" t="inlineStr"/>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30325,10 +30227,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30351,10 +30251,8 @@
       <c r="E929" t="inlineStr"/>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30389,10 +30287,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H930" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="931">
@@ -30423,10 +30319,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30453,10 +30347,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30483,10 +30375,8 @@
       </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30513,10 +30403,8 @@
       </c>
       <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr"/>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30543,10 +30431,8 @@
       </c>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30569,10 +30455,8 @@
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="937">
@@ -30607,10 +30491,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="938">
@@ -30641,10 +30523,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30679,10 +30559,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H939" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="940">
@@ -30717,10 +30595,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H940" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="941">
@@ -30755,10 +30631,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30789,10 +30663,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30823,10 +30695,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30857,10 +30727,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="945">
@@ -30895,10 +30763,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30925,10 +30791,8 @@
       </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -30951,10 +30815,8 @@
       <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H947" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="948">
@@ -30989,10 +30851,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31019,10 +30879,8 @@
       </c>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="950">
@@ -31053,10 +30911,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31087,10 +30943,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31113,10 +30967,8 @@
       <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -31147,10 +30999,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31181,10 +31031,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31211,10 +31059,8 @@
       </c>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr"/>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H955" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -31245,10 +31091,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31271,10 +31115,8 @@
       <c r="E957" t="inlineStr"/>
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31309,10 +31151,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H958" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="959">
@@ -31343,10 +31183,8 @@
         </is>
       </c>
       <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31377,10 +31215,8 @@
         </is>
       </c>
       <c r="G960" t="inlineStr"/>
-      <c r="H960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H960" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="961">
@@ -31403,10 +31239,8 @@
       </c>
       <c r="F961" t="inlineStr"/>
       <c r="G961" t="inlineStr"/>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -31429,10 +31263,8 @@
       </c>
       <c r="F962" t="inlineStr"/>
       <c r="G962" t="inlineStr"/>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H962" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="963">
@@ -31481,10 +31313,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="965">
@@ -31519,10 +31349,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -31553,10 +31381,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H966" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -31591,10 +31417,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H967" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="968">
@@ -31629,10 +31453,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H968" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="969">
@@ -31663,10 +31485,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H969" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="970">
@@ -31697,10 +31517,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31731,10 +31549,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31765,10 +31581,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31803,10 +31617,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31837,10 +31649,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31875,10 +31685,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -31909,10 +31717,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -31943,10 +31749,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="978">
@@ -31981,10 +31785,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -32015,10 +31817,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="980">
@@ -32049,10 +31849,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -32083,10 +31881,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="982">
@@ -32117,10 +31913,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32155,10 +31949,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H983" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="984">
@@ -32193,10 +31985,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H984" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="985">
@@ -32231,10 +32021,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32269,10 +32057,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32295,10 +32081,8 @@
       <c r="E987" t="inlineStr"/>
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr"/>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32333,10 +32117,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -32371,10 +32153,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -32409,10 +32189,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -32447,10 +32225,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -32485,10 +32261,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -32511,10 +32285,8 @@
       <c r="E993" t="inlineStr"/>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H993" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="994">
@@ -32549,10 +32321,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H994" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="995">
@@ -32587,10 +32357,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="996">
@@ -32625,10 +32393,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -32655,10 +32421,8 @@
       </c>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32685,10 +32449,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -32719,10 +32481,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32753,10 +32513,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32783,10 +32541,8 @@
       </c>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1002">
@@ -32813,10 +32569,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32843,10 +32597,8 @@
       </c>
       <c r="F1003" t="inlineStr"/>
       <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32873,10 +32625,8 @@
       </c>
       <c r="F1004" t="inlineStr"/>
       <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -32903,10 +32653,8 @@
       </c>
       <c r="F1005" t="inlineStr"/>
       <c r="G1005" t="inlineStr"/>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -32941,10 +32689,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1007">
@@ -32971,10 +32717,8 @@
       </c>
       <c r="F1007" t="inlineStr"/>
       <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1008">
@@ -33009,10 +32753,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1009">
@@ -33047,10 +32789,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -33085,10 +32825,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1011">
@@ -33123,10 +32861,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1012">
@@ -33161,10 +32897,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1013">
@@ -33195,10 +32929,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33229,10 +32961,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33267,10 +32997,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -33293,10 +33021,8 @@
       <c r="E1016" t="inlineStr"/>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -33319,10 +33045,8 @@
       <c r="E1017" t="inlineStr"/>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1018">
@@ -33349,10 +33073,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -33379,10 +33101,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1020">
@@ -33409,10 +33129,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33439,10 +33157,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33469,10 +33185,8 @@
       </c>
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -33499,10 +33213,8 @@
       </c>
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -33529,10 +33241,8 @@
       </c>
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1025">
@@ -33559,10 +33269,8 @@
       </c>
       <c r="F1025" t="inlineStr"/>
       <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
@@ -33589,10 +33297,8 @@
       </c>
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1027">
@@ -33627,10 +33333,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1028">
@@ -33665,10 +33369,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33691,10 +33393,8 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1030">
@@ -33721,10 +33421,8 @@
       </c>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -33755,10 +33453,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1032">
@@ -33785,10 +33481,8 @@
       </c>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33811,10 +33505,8 @@
       <c r="E1033" t="inlineStr"/>
       <c r="F1033" t="inlineStr"/>
       <c r="G1033" t="inlineStr"/>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -33837,10 +33529,8 @@
       <c r="E1034" t="inlineStr"/>
       <c r="F1034" t="inlineStr"/>
       <c r="G1034" t="inlineStr"/>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -33863,10 +33553,8 @@
       <c r="E1035" t="inlineStr"/>
       <c r="F1035" t="inlineStr"/>
       <c r="G1035" t="inlineStr"/>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -33897,10 +33585,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -33931,10 +33617,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1038">
@@ -33969,10 +33653,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -34007,10 +33689,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -34045,10 +33725,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1041">
@@ -34083,10 +33761,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1042">
@@ -34113,10 +33789,8 @@
       </c>
       <c r="F1042" t="inlineStr"/>
       <c r="G1042" t="inlineStr"/>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34143,10 +33817,8 @@
       </c>
       <c r="F1043" t="inlineStr"/>
       <c r="G1043" t="inlineStr"/>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34181,10 +33853,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34219,10 +33889,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1046">
@@ -34249,10 +33917,8 @@
       </c>
       <c r="F1046" t="inlineStr"/>
       <c r="G1046" t="inlineStr"/>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34279,10 +33945,8 @@
       </c>
       <c r="F1047" t="inlineStr"/>
       <c r="G1047" t="inlineStr"/>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34309,10 +33973,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34339,10 +34001,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34369,10 +34029,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34395,10 +34053,8 @@
       </c>
       <c r="F1051" t="inlineStr"/>
       <c r="G1051" t="inlineStr"/>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34417,10 +34073,8 @@
       <c r="E1052" t="inlineStr"/>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34447,10 +34101,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1053" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1054">
@@ -34477,10 +34129,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34507,10 +34157,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -34551,10 +34199,8 @@
       </c>
       <c r="F1057" t="inlineStr"/>
       <c r="G1057" t="inlineStr"/>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -34589,10 +34235,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1059">
@@ -34627,10 +34271,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -34665,10 +34307,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -34703,10 +34343,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1062">
@@ -34741,10 +34379,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -34775,10 +34411,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1064">
@@ -34813,10 +34447,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -34851,10 +34483,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -34885,10 +34515,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1067">
@@ -34923,10 +34551,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -34961,10 +34587,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -34995,10 +34619,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35029,10 +34651,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1071">
@@ -35067,10 +34687,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -35105,10 +34723,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -35143,10 +34759,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1074">
@@ -35181,10 +34795,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1075">
@@ -35219,10 +34831,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1076">
@@ -35257,10 +34867,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35295,10 +34903,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35321,10 +34927,8 @@
       <c r="E1078" t="inlineStr"/>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35351,10 +34955,8 @@
       </c>
       <c r="F1079" t="inlineStr"/>
       <c r="G1079" t="inlineStr"/>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -35377,10 +34979,8 @@
       <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1081">
@@ -35407,10 +35007,8 @@
       </c>
       <c r="F1081" t="inlineStr"/>
       <c r="G1081" t="inlineStr"/>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35445,10 +35043,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35475,10 +35071,8 @@
       </c>
       <c r="F1083" t="inlineStr"/>
       <c r="G1083" t="inlineStr"/>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -35509,10 +35103,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -35535,10 +35127,8 @@
       <c r="E1085" t="inlineStr"/>
       <c r="F1085" t="inlineStr"/>
       <c r="G1085" t="inlineStr"/>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -35569,10 +35159,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1087">
@@ -35607,10 +35195,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35645,10 +35231,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -35679,10 +35263,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -35717,10 +35299,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -35755,10 +35335,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1092">
@@ -35793,10 +35371,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1093">
@@ -35831,10 +35407,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1094">
@@ -35865,10 +35439,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35899,10 +35471,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -35933,10 +35503,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -35967,10 +35535,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -35997,10 +35563,8 @@
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36027,10 +35591,8 @@
       </c>
       <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr"/>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36057,10 +35619,8 @@
       </c>
       <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr"/>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
@@ -36087,10 +35647,8 @@
       </c>
       <c r="F1101" t="inlineStr"/>
       <c r="G1101" t="inlineStr"/>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -36117,10 +35675,8 @@
       </c>
       <c r="F1102" t="inlineStr"/>
       <c r="G1102" t="inlineStr"/>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1103">
@@ -36151,10 +35707,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1104">
@@ -36185,10 +35739,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36223,10 +35775,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1106">
@@ -36261,10 +35811,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1107">
@@ -36299,10 +35847,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36329,10 +35875,8 @@
       </c>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -36359,10 +35903,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36389,10 +35931,8 @@
       </c>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -36419,10 +35959,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36449,10 +35987,8 @@
       </c>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36475,10 +36011,8 @@
       <c r="E1113" t="inlineStr"/>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1114">
@@ -36505,10 +36039,8 @@
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36535,10 +36067,8 @@
       </c>
       <c r="F1115" t="inlineStr"/>
       <c r="G1115" t="inlineStr"/>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36565,10 +36095,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36599,10 +36127,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1118">
@@ -36637,10 +36163,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -36667,10 +36191,8 @@
       </c>
       <c r="F1119" t="inlineStr"/>
       <c r="G1119" t="inlineStr"/>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1120">
@@ -36701,10 +36223,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -36735,10 +36255,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1122">
@@ -36773,10 +36291,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1123">
@@ -36811,10 +36327,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1124">
@@ -36849,10 +36363,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -36887,10 +36399,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1126">
@@ -36925,10 +36435,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1127">
@@ -36959,10 +36467,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1128">
@@ -36997,10 +36503,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1129">
@@ -37027,94 +36531,108 @@
       </c>
       <c r="F1129" t="inlineStr"/>
       <c r="G1129" t="inlineStr"/>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1130" t="inlineStr"/>
-      <c r="C1130" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1130" t="inlineStr"/>
-      <c r="E1130" t="inlineStr"/>
+      <c r="E1130" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1130" t="inlineStr"/>
-      <c r="G1130" t="inlineStr"/>
-      <c r="H1130" t="inlineStr"/>
+      <c r="G1130" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1131" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
@@ -37126,29 +36644,33 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G1133" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1133" t="inlineStr">
@@ -37160,29 +36682,29 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1134" t="inlineStr">
@@ -37194,29 +36716,29 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1135" t="inlineStr">
@@ -37228,31 +36750,31 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1136" t="inlineStr">
         <is>
           <t>3</t>
@@ -37262,145 +36784,117 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1139" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1140" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr"/>
       <c r="H1140" t="inlineStr">
         <is>
           <t>3</t>
@@ -37410,35 +36904,27 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1141" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr"/>
       <c r="H1141" t="inlineStr">
         <is>
           <t>3</t>
@@ -37446,23 +36932,23 @@
       </c>
     </row>
     <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1142" t="inlineStr"/>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
-      <c r="E1142" t="inlineStr"/>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1142" t="inlineStr"/>
       <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
@@ -37474,173 +36960,165 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr"/>
+      <c r="C1143" t="inlineStr"/>
       <c r="D1143" t="inlineStr"/>
-      <c r="E1143" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1143" t="inlineStr"/>
       <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1143" t="inlineStr"/>
+      <c r="H1143" t="inlineStr"/>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
-      <c r="E1144" t="inlineStr"/>
+      <c r="E1144" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr"/>
+      <c r="G1144" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr"/>
+      <c r="G1145" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1146" t="inlineStr"/>
       <c r="G1146" t="inlineStr"/>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr"/>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1148" t="inlineStr"/>
@@ -37654,27 +37132,35 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1149" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1149" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1149" t="inlineStr">
         <is>
           <t>3</t>
@@ -37684,177 +37170,129 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="inlineStr"/>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1152" t="inlineStr"/>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1153" t="inlineStr"/>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H1153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1154" t="inlineStr">
@@ -37866,33 +37304,29 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1155" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1155" t="inlineStr">
@@ -37904,29 +37338,29 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1156" t="inlineStr">
@@ -37938,17 +37372,17 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
@@ -37958,11 +37392,7 @@
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1157" t="inlineStr"/>
       <c r="H1157" t="inlineStr">
         <is>
           <t>3</t>
@@ -37972,31 +37402,23 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
-      <c r="E1158" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1158" t="inlineStr"/>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1158" t="inlineStr"/>
       <c r="H1158" t="inlineStr">
         <is>
           <t>3</t>
@@ -38006,25 +37428,21 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38036,23 +37454,23 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1160" t="inlineStr"/>
@@ -38066,55 +37484,55 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr"/>
       <c r="H1162" t="inlineStr">
@@ -38126,25 +37544,21 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
-      <c r="E1163" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1163" t="inlineStr"/>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
@@ -38154,23 +37568,23 @@
       </c>
     </row>
     <row r="1164">
-      <c r="A1164" t="inlineStr"/>
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
-      <c r="E1164" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1164" t="inlineStr"/>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
@@ -38182,169 +37596,189 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
-      <c r="C1165" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr"/>
       <c r="F1165" t="inlineStr"/>
       <c r="G1165" t="inlineStr"/>
-      <c r="H1165" t="inlineStr"/>
+      <c r="H1165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
       <c r="G1166" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
       <c r="G1167" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr"/>
+      <c r="G1169" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1170" t="inlineStr">
         <is>
           <t>3</t>
@@ -38354,7 +37788,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
@@ -38364,25 +37798,17 @@
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1171" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -38390,33 +37816,25 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1172" t="inlineStr"/>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1172" t="inlineStr"/>
       <c r="H1172" t="inlineStr">
         <is>
           <t>3</t>
@@ -38424,25 +37842,21 @@
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
@@ -38457,18 +37871,22 @@
       <c r="A1174" t="inlineStr"/>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
       <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38476,81 +37894,81 @@
       </c>
     </row>
     <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
+      <c r="A1175" t="inlineStr"/>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1176" t="inlineStr"/>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
       <c r="E1176" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1176" t="inlineStr"/>
       <c r="G1176" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1177" t="inlineStr"/>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -38560,59 +37978,35 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr"/>
+      <c r="C1178" t="inlineStr"/>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1178" t="inlineStr"/>
+      <c r="H1178" t="inlineStr"/>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr"/>
       <c r="H1179" t="inlineStr">
@@ -38624,17 +38018,17 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
@@ -38650,139 +38044,159 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1183" t="inlineStr"/>
       <c r="G1183" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1184" t="inlineStr"/>
       <c r="G1184" t="inlineStr"/>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38792,23 +38206,31 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38818,57 +38240,61 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
           <t>3</t>
@@ -38878,31 +38304,27 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
           <t>3</t>
@@ -38912,31 +38334,27 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
         <is>
           <t>3</t>
@@ -38946,87 +38364,83 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1192" t="inlineStr"/>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
@@ -39038,23 +38452,23 @@
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr"/>
       <c r="H1194" t="inlineStr">
@@ -39064,21 +38478,25 @@
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
@@ -39090,25 +38508,29 @@
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr"/>
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1196" t="inlineStr"/>
       <c r="H1196" t="inlineStr">
         <is>
           <t>3</t>
@@ -39116,121 +38538,169 @@
       </c>
     </row>
     <row r="1197">
-      <c r="A1197" t="inlineStr"/>
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1197" t="inlineStr"/>
       <c r="G1197" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1198">
-      <c r="A1198" t="inlineStr"/>
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1198" t="inlineStr"/>
       <c r="G1198" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1199">
-      <c r="A1199" t="inlineStr"/>
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr"/>
-      <c r="C1200" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
+      <c r="E1200" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr"/>
+      <c r="G1200" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1200" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1201" t="inlineStr">
         <is>
           <t>3</t>
@@ -39240,23 +38710,27 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
       <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
+      <c r="G1202" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1202" t="inlineStr">
         <is>
           <t>3</t>
@@ -39266,257 +38740,209 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr"/>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1204" t="inlineStr"/>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
       <c r="G1206" t="inlineStr"/>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
       <c r="G1207" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1208" t="inlineStr"/>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1208" t="inlineStr"/>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr"/>
+      <c r="C1209" t="inlineStr"/>
       <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1209" t="inlineStr"/>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1209" t="inlineStr"/>
+      <c r="H1209" t="inlineStr"/>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
+      <c r="G1210" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1210" t="inlineStr">
         <is>
           <t>3</t>
@@ -39526,7 +38952,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
@@ -39536,27 +38962,31 @@
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
@@ -39566,87 +38996,99 @@
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
       <c r="E1212" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
+      <c r="G1212" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
       <c r="E1213" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
+      <c r="G1213" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
+      <c r="G1214" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1214" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
@@ -39656,15 +39098,11 @@
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1215" t="inlineStr"/>
       <c r="F1215" t="inlineStr"/>
       <c r="G1215" t="inlineStr"/>
       <c r="H1215" t="inlineStr">
@@ -39676,23 +39114,31 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
+      <c r="E1216" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
+      <c r="G1216" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1216" t="inlineStr">
         <is>
           <t>3</t>
@@ -39702,23 +39148,23 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1217" t="inlineStr"/>
@@ -39732,25 +39178,21 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
       <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
@@ -39762,99 +39204,79 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1219" t="inlineStr"/>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
       <c r="E1220" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1221" t="inlineStr"/>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1221" t="inlineStr"/>
       <c r="H1221" t="inlineStr">
         <is>
           <t>2</t>
@@ -39864,31 +39286,23 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1222" t="inlineStr"/>
       <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1222" t="inlineStr"/>
       <c r="H1222" t="inlineStr">
         <is>
           <t>3</t>
@@ -39898,31 +39312,23 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1223" t="inlineStr"/>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1223" t="inlineStr"/>
       <c r="H1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -39932,27 +39338,23 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
       <c r="E1224" t="inlineStr"/>
       <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1224" t="inlineStr"/>
       <c r="H1224" t="inlineStr">
         <is>
           <t>3</t>
@@ -39962,7 +39364,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
@@ -39972,7 +39374,7 @@
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
@@ -39988,23 +39390,31 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr"/>
+      <c r="E1226" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
+      <c r="G1226" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1226" t="inlineStr">
         <is>
           <t>3</t>
@@ -40014,23 +39424,31 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
+      <c r="E1227" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
+      <c r="G1227" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1227" t="inlineStr">
         <is>
           <t>3</t>
@@ -40040,23 +39458,31 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
+      <c r="E1228" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr"/>
+      <c r="G1228" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1228" t="inlineStr">
         <is>
           <t>3</t>
@@ -40066,41 +39492,37 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1229" t="inlineStr"/>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
@@ -40110,7 +39532,7 @@
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
@@ -40119,50 +39541,62 @@
       <c r="G1230" t="inlineStr"/>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr"/>
-      <c r="C1231" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1231" t="inlineStr"/>
       <c r="E1231" t="inlineStr"/>
       <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr"/>
-      <c r="H1231" t="inlineStr"/>
+      <c r="H1231" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
       <c r="E1232" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1232" t="inlineStr"/>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr">
@@ -40174,29 +39608,25 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1233" t="inlineStr"/>
       <c r="F1233" t="inlineStr"/>
       <c r="G1233" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H1233" t="inlineStr">
@@ -40208,29 +39638,29 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1234" t="inlineStr"/>
       <c r="E1234" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr">
@@ -40242,29 +39672,29 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1235" t="inlineStr"/>
       <c r="E1235" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1235" t="inlineStr"/>
       <c r="G1235" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1235" t="inlineStr">
@@ -40276,91 +39706,87 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr"/>
       <c r="E1236" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1236" t="inlineStr"/>
       <c r="G1236" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>¥ 100B</t>
         </is>
       </c>
       <c r="H1236" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
+      <c r="E1237" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1237" t="inlineStr"/>
       <c r="G1237" t="inlineStr"/>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1238" t="inlineStr"/>
       <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1238" t="inlineStr"/>
       <c r="H1238" t="inlineStr">
         <is>
           <t>3</t>
@@ -40370,23 +39796,23 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr"/>
       <c r="E1239" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>-3.8%</t>
         </is>
       </c>
       <c r="F1239" t="inlineStr"/>
@@ -40400,17 +39826,17 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1240" t="inlineStr"/>
@@ -40426,680 +39852,32 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
+      <c r="E1241" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr"/>
+      <c r="G1241" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1242" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYJAN/10</t>
-        </is>
-      </c>
-      <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr">
-        <is>
-          <t>9.3%</t>
-        </is>
-      </c>
-      <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
-      <c r="H1242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1243" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1243" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
-        </is>
-      </c>
-      <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr"/>
-      <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr"/>
-      <c r="H1243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1244" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
-      <c r="D1244" t="inlineStr"/>
-      <c r="E1244" t="inlineStr"/>
-      <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr"/>
-      <c r="H1244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1245" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1245" t="inlineStr"/>
-      <c r="E1245" t="inlineStr"/>
-      <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr"/>
-      <c r="H1245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1246" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1246" t="inlineStr"/>
-      <c r="E1246" t="inlineStr"/>
-      <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr"/>
-      <c r="H1246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1247" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr"/>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr"/>
-      <c r="H1247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1248" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1249" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1249" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H1249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1250" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1250" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H1250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1251" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1251" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1251" t="inlineStr"/>
-      <c r="E1251" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr"/>
-      <c r="H1251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1252" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1252" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr"/>
-      <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr"/>
-      <c r="H1252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1253" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1253" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D1253" t="inlineStr"/>
-      <c r="E1253" t="inlineStr"/>
-      <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr"/>
-      <c r="H1253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1254" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1254" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1254" t="inlineStr"/>
-      <c r="E1254" t="inlineStr">
-        <is>
-          <t>127.1%</t>
-        </is>
-      </c>
-      <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H1254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1255" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1255" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1255" t="inlineStr"/>
-      <c r="E1255" t="inlineStr"/>
-      <c r="F1255" t="inlineStr"/>
-      <c r="G1255" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H1255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1256" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1256" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1256" t="inlineStr"/>
-      <c r="G1256" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1257" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1257" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
-        </is>
-      </c>
-      <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F1257" t="inlineStr"/>
-      <c r="G1257" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1258">
-      <c r="A1258" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1258" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1258" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr">
-        <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
-      <c r="F1258" t="inlineStr"/>
-      <c r="G1258" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
-      <c r="H1258" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1259" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1259" t="inlineStr">
-        <is>
-          <t>Exports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1259" t="inlineStr"/>
-      <c r="E1259" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr"/>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1260" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1260" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
-        </is>
-      </c>
-      <c r="D1260" t="inlineStr"/>
-      <c r="E1260" t="inlineStr"/>
-      <c r="F1260" t="inlineStr"/>
-      <c r="G1260" t="inlineStr"/>
-      <c r="H1260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1261" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1261" t="inlineStr">
-        <is>
-          <t>Imports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="F1261" t="inlineStr"/>
-      <c r="G1261" t="inlineStr"/>
-      <c r="H1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1262">
-      <c r="A1262" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1262" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
-        </is>
-      </c>
-      <c r="D1262" t="inlineStr"/>
-      <c r="E1262" t="inlineStr"/>
-      <c r="F1262" t="inlineStr"/>
-      <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1263" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D1263" t="inlineStr"/>
-      <c r="E1263" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1263" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1261"/>
+  <dimension ref="A1:H1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28899,10 +28899,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -28929,10 +28927,8 @@
       </c>
       <c r="F884" t="inlineStr"/>
       <c r="G884" t="inlineStr"/>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28959,10 +28955,8 @@
       </c>
       <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr"/>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -28989,10 +28983,8 @@
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr"/>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29027,10 +29019,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H887" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="888">
@@ -29061,10 +29051,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29095,10 +29083,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29129,10 +29115,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -29159,10 +29143,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29189,10 +29171,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29219,10 +29199,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29253,10 +29231,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29283,10 +29259,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29313,10 +29287,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29351,10 +29323,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -29381,10 +29351,8 @@
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H898" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="899">
@@ -29411,10 +29379,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H899" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -29449,10 +29415,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -29487,10 +29451,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -29521,10 +29483,8 @@
         </is>
       </c>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -29555,10 +29515,8 @@
         </is>
       </c>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -29585,10 +29543,8 @@
       </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29611,10 +29567,8 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29641,10 +29595,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29671,10 +29623,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29701,10 +29651,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29735,10 +29683,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29765,10 +29711,8 @@
         </is>
       </c>
       <c r="G910" t="inlineStr"/>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29799,10 +29743,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29833,10 +29775,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29859,10 +29799,8 @@
       </c>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29881,10 +29819,8 @@
       <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29933,10 +29869,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -29967,10 +29901,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -29997,10 +29929,8 @@
       </c>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30027,10 +29957,8 @@
       </c>
       <c r="F919" t="inlineStr"/>
       <c r="G919" t="inlineStr"/>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30061,10 +29989,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30095,10 +30021,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30133,10 +30057,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30167,10 +30089,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30193,10 +30113,8 @@
       <c r="E924" t="inlineStr"/>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30227,10 +30145,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30253,10 +30169,8 @@
       <c r="E926" t="inlineStr"/>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr"/>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30291,10 +30205,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H927" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="928">
@@ -30325,10 +30237,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30355,10 +30265,8 @@
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30385,10 +30293,8 @@
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30415,10 +30321,8 @@
       </c>
       <c r="F931" t="inlineStr"/>
       <c r="G931" t="inlineStr"/>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30445,10 +30349,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30471,10 +30373,8 @@
       <c r="E933" t="inlineStr"/>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30509,10 +30409,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30543,10 +30441,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30581,10 +30477,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H936" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="937">
@@ -30619,10 +30513,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="938">
@@ -30657,10 +30549,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30691,10 +30581,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -30725,10 +30613,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="941">
@@ -30759,10 +30645,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30797,10 +30681,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30827,10 +30709,8 @@
       </c>
       <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr"/>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30853,10 +30733,8 @@
       <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr"/>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H944" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="945">
@@ -30891,10 +30769,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30921,10 +30797,8 @@
       </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -30955,10 +30829,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="948">
@@ -30989,10 +30861,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31015,10 +30885,8 @@
       <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H949" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="950">
@@ -31049,10 +30917,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31083,10 +30949,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31113,10 +30977,8 @@
       </c>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -31147,10 +31009,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31173,10 +31033,8 @@
       <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31211,10 +31069,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H955" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -31245,10 +31101,8 @@
         </is>
       </c>
       <c r="G956" t="inlineStr"/>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31279,10 +31133,8 @@
         </is>
       </c>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31305,10 +31157,8 @@
       </c>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr"/>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H958" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="959">
@@ -31331,10 +31181,8 @@
       </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31383,10 +31231,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -31421,10 +31267,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H962" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="963">
@@ -31455,10 +31299,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H963" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -31493,10 +31335,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H964" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -31531,10 +31371,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -31565,10 +31403,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H966" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -31599,10 +31435,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="968">
@@ -31633,10 +31467,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="969">
@@ -31667,10 +31499,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="970">
@@ -31705,10 +31535,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31739,10 +31567,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31777,10 +31603,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31811,10 +31635,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31845,10 +31667,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31883,10 +31703,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -31917,10 +31735,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -31951,10 +31767,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H977" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="978">
@@ -31985,10 +31799,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -32019,10 +31831,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="980">
@@ -32057,10 +31867,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -32095,10 +31903,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H981" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="982">
@@ -32133,10 +31939,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32171,10 +31975,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="984">
@@ -32197,10 +31999,8 @@
       <c r="E984" t="inlineStr"/>
       <c r="F984" t="inlineStr"/>
       <c r="G984" t="inlineStr"/>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="985">
@@ -32235,10 +32035,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32273,10 +32071,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32311,10 +32107,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32349,10 +32143,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -32387,10 +32179,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -32413,10 +32203,8 @@
       <c r="E990" t="inlineStr"/>
       <c r="F990" t="inlineStr"/>
       <c r="G990" t="inlineStr"/>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H990" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="991">
@@ -32451,10 +32239,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H991" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="992">
@@ -32489,10 +32275,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="993">
@@ -32527,10 +32311,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="994">
@@ -32557,10 +32339,8 @@
       </c>
       <c r="F994" t="inlineStr"/>
       <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="995">
@@ -32587,10 +32367,8 @@
       </c>
       <c r="F995" t="inlineStr"/>
       <c r="G995" t="inlineStr"/>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="996">
@@ -32621,10 +32399,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -32655,10 +32431,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32685,10 +32459,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H998" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="999">
@@ -32715,10 +32487,8 @@
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr"/>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32745,10 +32515,8 @@
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32775,10 +32543,8 @@
       </c>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -32805,10 +32571,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32843,10 +32607,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32873,10 +32635,8 @@
       </c>
       <c r="F1004" t="inlineStr"/>
       <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -32911,10 +32671,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -32949,10 +32707,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1007">
@@ -32987,10 +32743,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -33025,10 +32779,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1009">
@@ -33063,10 +32815,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -33097,10 +32847,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -33131,10 +32879,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1012">
@@ -33169,10 +32915,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -33195,10 +32939,8 @@
       <c r="E1013" t="inlineStr"/>
       <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr"/>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33221,10 +32963,8 @@
       <c r="E1014" t="inlineStr"/>
       <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33251,10 +32991,8 @@
       </c>
       <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -33281,10 +33019,8 @@
       </c>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -33311,10 +33047,8 @@
       </c>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1018">
@@ -33341,10 +33075,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1019">
@@ -33371,10 +33103,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1020">
@@ -33401,10 +33131,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33431,10 +33159,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33461,10 +33187,8 @@
       </c>
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -33491,10 +33215,8 @@
       </c>
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -33529,10 +33251,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -33567,10 +33287,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1026">
@@ -33593,10 +33311,8 @@
       <c r="E1026" t="inlineStr"/>
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -33623,10 +33339,8 @@
       </c>
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -33657,10 +33371,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33687,10 +33399,8 @@
       </c>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1030">
@@ -33713,10 +33423,8 @@
       <c r="E1030" t="inlineStr"/>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1031">
@@ -33739,10 +33447,8 @@
       <c r="E1031" t="inlineStr"/>
       <c r="F1031" t="inlineStr"/>
       <c r="G1031" t="inlineStr"/>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1032">
@@ -33765,10 +33471,8 @@
       <c r="E1032" t="inlineStr"/>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33799,10 +33503,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -33833,10 +33535,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -33871,10 +33571,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -33909,10 +33607,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -33947,10 +33643,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1038">
@@ -33985,10 +33679,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1039">
@@ -34015,10 +33707,8 @@
       </c>
       <c r="F1039" t="inlineStr"/>
       <c r="G1039" t="inlineStr"/>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -34045,10 +33735,8 @@
       </c>
       <c r="F1040" t="inlineStr"/>
       <c r="G1040" t="inlineStr"/>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1041">
@@ -34083,10 +33771,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
@@ -34121,10 +33807,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34151,10 +33835,8 @@
       </c>
       <c r="F1043" t="inlineStr"/>
       <c r="G1043" t="inlineStr"/>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34181,10 +33863,8 @@
       </c>
       <c r="F1044" t="inlineStr"/>
       <c r="G1044" t="inlineStr"/>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34211,10 +33891,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -34241,10 +33919,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34271,10 +33947,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34297,10 +33971,8 @@
       </c>
       <c r="F1048" t="inlineStr"/>
       <c r="G1048" t="inlineStr"/>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34319,10 +33991,8 @@
       <c r="E1049" t="inlineStr"/>
       <c r="F1049" t="inlineStr"/>
       <c r="G1049" t="inlineStr"/>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34349,10 +34019,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34379,10 +34047,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34409,10 +34075,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34453,10 +34117,8 @@
       </c>
       <c r="F1054" t="inlineStr"/>
       <c r="G1054" t="inlineStr"/>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34491,10 +34153,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -34529,10 +34189,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1057">
@@ -34567,10 +34225,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -34605,10 +34261,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -34643,10 +34297,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -34677,10 +34329,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1061">
@@ -34715,10 +34365,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1062">
@@ -34753,10 +34401,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1063">
@@ -34787,10 +34433,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1064">
@@ -34825,10 +34469,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -34863,10 +34505,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -34897,10 +34537,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -34931,10 +34569,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -34969,10 +34605,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1069">
@@ -35007,10 +34641,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35045,10 +34677,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1071">
@@ -35083,10 +34713,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1072">
@@ -35121,10 +34749,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1073">
@@ -35159,10 +34785,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -35197,10 +34821,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -35223,10 +34845,8 @@
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -35253,10 +34873,8 @@
       </c>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35279,10 +34897,8 @@
       <c r="E1077" t="inlineStr"/>
       <c r="F1077" t="inlineStr"/>
       <c r="G1077" t="inlineStr"/>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35309,10 +34925,8 @@
       </c>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35347,10 +34961,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1080">
@@ -35377,10 +34989,8 @@
       </c>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1081">
@@ -35411,10 +35021,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35437,10 +35045,8 @@
       <c r="E1082" t="inlineStr"/>
       <c r="F1082" t="inlineStr"/>
       <c r="G1082" t="inlineStr"/>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35471,10 +35077,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -35509,10 +35113,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1085">
@@ -35547,10 +35149,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1086">
@@ -35581,10 +35181,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -35619,10 +35217,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35657,10 +35253,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -35695,10 +35289,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -35733,10 +35325,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -35767,10 +35357,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -35801,10 +35389,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -35835,10 +35421,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -35869,10 +35453,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35899,10 +35481,8 @@
       </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -35929,10 +35509,8 @@
       </c>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -35959,10 +35537,8 @@
       </c>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr"/>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -35989,10 +35565,8 @@
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36019,10 +35593,8 @@
       </c>
       <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr"/>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36053,10 +35625,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
@@ -36087,10 +35657,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -36125,10 +35693,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1103">
@@ -36163,10 +35729,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1104">
@@ -36201,10 +35765,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36231,10 +35793,8 @@
       </c>
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1106">
@@ -36261,10 +35821,8 @@
       </c>
       <c r="F1106" t="inlineStr"/>
       <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1107">
@@ -36291,10 +35849,8 @@
       </c>
       <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36321,10 +35877,8 @@
       </c>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -36351,10 +35905,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36377,10 +35929,8 @@
       <c r="E1110" t="inlineStr"/>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1111">
@@ -36407,10 +35957,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36437,10 +35985,8 @@
       </c>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36467,10 +36013,8 @@
       </c>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -36501,10 +36045,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36539,10 +36081,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36569,10 +36109,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36603,10 +36141,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1118">
@@ -36637,10 +36173,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -36675,10 +36209,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -36713,10 +36245,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1121">
@@ -36751,10 +36281,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1122">
@@ -36789,10 +36317,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1123">
@@ -36827,10 +36353,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1124">
@@ -36861,10 +36385,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1125">
@@ -36899,10 +36421,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -36929,94 +36449,108 @@
       </c>
       <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr"/>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr"/>
-      <c r="C1127" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
-      <c r="H1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1128" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1128" t="inlineStr"/>
       <c r="G1128" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -37028,29 +36562,33 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1130" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1130" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1130" t="inlineStr">
@@ -37062,29 +36600,29 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
@@ -37096,29 +36634,29 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
@@ -37130,31 +36668,31 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1133" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1133" t="inlineStr">
         <is>
           <t>3</t>
@@ -37164,145 +36702,117 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G1134" t="inlineStr"/>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1135" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr"/>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1137" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
           <t>3</t>
@@ -37312,35 +36822,27 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
           <t>3</t>
@@ -37348,23 +36850,23 @@
       </c>
     </row>
     <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1139" t="inlineStr"/>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
-      <c r="E1139" t="inlineStr"/>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
@@ -37376,173 +36878,165 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1140" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr"/>
+      <c r="C1140" t="inlineStr"/>
       <c r="D1140" t="inlineStr"/>
-      <c r="E1140" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1140" t="inlineStr"/>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1140" t="inlineStr"/>
+      <c r="H1140" t="inlineStr"/>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
-      <c r="E1141" t="inlineStr"/>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr"/>
+      <c r="G1142" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
       <c r="G1144" t="inlineStr"/>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
@@ -37556,27 +37050,35 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1146" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1146" t="inlineStr">
         <is>
           <t>3</t>
@@ -37586,177 +37088,129 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1147" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1148" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr"/>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1149" t="inlineStr"/>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
-      <c r="E1149" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1149" t="inlineStr"/>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr"/>
+      <c r="C1150" t="inlineStr"/>
       <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1150" t="inlineStr"/>
       <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H1150" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1150" t="inlineStr"/>
+      <c r="H1150" t="inlineStr"/>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
@@ -37768,33 +37222,29 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1152" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
@@ -37806,29 +37256,29 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1153" t="inlineStr"/>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1153" t="inlineStr">
@@ -37840,17 +37290,17 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
@@ -37860,11 +37310,7 @@
         </is>
       </c>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -37874,31 +37320,23 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1155" t="inlineStr"/>
       <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
         <is>
           <t>3</t>
@@ -37908,25 +37346,21 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1156" t="inlineStr"/>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
@@ -37938,23 +37372,23 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
@@ -37968,55 +37402,55 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr"/>
+      <c r="G1158" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38028,25 +37462,21 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1160" t="inlineStr"/>
       <c r="F1160" t="inlineStr"/>
       <c r="G1160" t="inlineStr"/>
       <c r="H1160" t="inlineStr">
@@ -38056,23 +37486,23 @@
       </c>
     </row>
     <row r="1161">
-      <c r="A1161" t="inlineStr"/>
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1161" t="inlineStr"/>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr"/>
       <c r="H1161" t="inlineStr">
@@ -38084,169 +37514,189 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr"/>
-      <c r="C1162" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr"/>
-      <c r="H1162" t="inlineStr"/>
+      <c r="H1162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1166" t="inlineStr"/>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1167" t="inlineStr">
         <is>
           <t>3</t>
@@ -38256,7 +37706,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
@@ -38266,25 +37716,17 @@
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr">
         <is>
           <t>3</t>
@@ -38292,33 +37734,25 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1169" t="inlineStr"/>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
         <is>
           <t>3</t>
@@ -38326,25 +37760,21 @@
       </c>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
@@ -38359,18 +37789,22 @@
       <c r="A1171" t="inlineStr"/>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr"/>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -38378,81 +37812,81 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr"/>
-      <c r="C1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr"/>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
+      <c r="E1172" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr"/>
-      <c r="H1172" t="inlineStr"/>
+      <c r="G1172" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1174" t="inlineStr"/>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1174" t="inlineStr"/>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38462,59 +37896,35 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr"/>
+      <c r="C1175" t="inlineStr"/>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1175" t="inlineStr"/>
+      <c r="H1175" t="inlineStr"/>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1176" t="inlineStr"/>
       <c r="F1176" t="inlineStr"/>
       <c r="G1176" t="inlineStr"/>
       <c r="H1176" t="inlineStr">
@@ -38526,17 +37936,17 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
@@ -38552,139 +37962,159 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr"/>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr"/>
+      <c r="G1179" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
           <t>3</t>
@@ -38694,23 +38124,31 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1183" t="inlineStr">
         <is>
           <t>3</t>
@@ -38720,57 +38158,61 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
+      <c r="G1184" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38780,31 +38222,27 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1186" t="inlineStr"/>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38814,31 +38252,27 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
         <is>
           <t>3</t>
@@ -38848,87 +38282,83 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
@@ -38940,23 +38370,23 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" t="inlineStr"/>
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1191" t="inlineStr"/>
       <c r="F1191" t="inlineStr"/>
       <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
@@ -38966,21 +38396,25 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr"/>
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
@@ -38992,25 +38426,29 @@
       </c>
     </row>
     <row r="1193">
-      <c r="A1193" t="inlineStr"/>
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr"/>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1193" t="inlineStr"/>
       <c r="H1193" t="inlineStr">
         <is>
           <t>3</t>
@@ -39018,121 +38456,169 @@
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
       <c r="G1195" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr"/>
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr"/>
-      <c r="C1197" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
-      <c r="H1197" t="inlineStr"/>
+      <c r="G1197" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1197" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -39142,23 +38628,27 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
       <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1199" t="inlineStr">
         <is>
           <t>3</t>
@@ -39168,257 +38658,209 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1200" t="inlineStr"/>
       <c r="F1200" t="inlineStr"/>
       <c r="G1200" t="inlineStr"/>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1201" t="inlineStr"/>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1201" t="inlineStr"/>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr"/>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1204" t="inlineStr"/>
       <c r="G1204" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1206" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr"/>
+      <c r="C1206" t="inlineStr"/>
       <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1206" t="inlineStr"/>
+      <c r="H1206" t="inlineStr"/>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
+      <c r="G1207" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1207" t="inlineStr">
         <is>
           <t>3</t>
@@ -39428,7 +38870,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
@@ -39438,27 +38880,31 @@
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
+      <c r="G1208" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
@@ -39468,87 +38914,99 @@
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
+      <c r="G1209" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
+      <c r="G1210" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
@@ -39558,15 +39016,11 @@
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1212" t="inlineStr"/>
       <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr"/>
       <c r="H1212" t="inlineStr">
@@ -39578,23 +39032,31 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr"/>
+      <c r="E1213" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
+      <c r="G1213" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1213" t="inlineStr">
         <is>
           <t>3</t>
@@ -39604,23 +39066,23 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1214" t="inlineStr"/>
@@ -39634,25 +39096,21 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1215" t="inlineStr"/>
       <c r="F1215" t="inlineStr"/>
       <c r="G1215" t="inlineStr"/>
       <c r="H1215" t="inlineStr">
@@ -39664,99 +39122,79 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E1216" t="inlineStr"/>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1216" t="inlineStr"/>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1217" t="inlineStr"/>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
         <is>
           <t>2</t>
@@ -39766,31 +39204,23 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1219" t="inlineStr"/>
       <c r="H1219" t="inlineStr">
         <is>
           <t>3</t>
@@ -39800,31 +39230,23 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1220" t="inlineStr"/>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
         <is>
           <t>3</t>
@@ -39834,27 +39256,23 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
       <c r="E1221" t="inlineStr"/>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1221" t="inlineStr"/>
       <c r="H1221" t="inlineStr">
         <is>
           <t>3</t>
@@ -39864,7 +39282,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
@@ -39874,7 +39292,7 @@
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
@@ -39890,23 +39308,31 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
+      <c r="E1223" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
+      <c r="G1223" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -39916,23 +39342,31 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
+      <c r="E1224" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr"/>
+      <c r="G1224" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1224" t="inlineStr">
         <is>
           <t>3</t>
@@ -39942,23 +39376,31 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
+      <c r="E1225" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
+      <c r="G1225" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1225" t="inlineStr">
         <is>
           <t>3</t>
@@ -39968,41 +39410,37 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1226" t="inlineStr"/>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
@@ -40012,7 +39450,7 @@
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
@@ -40021,50 +39459,62 @@
       <c r="G1227" t="inlineStr"/>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr"/>
-      <c r="C1228" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1228" t="inlineStr"/>
       <c r="E1228" t="inlineStr"/>
       <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr"/>
-      <c r="H1228" t="inlineStr"/>
+      <c r="H1228" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1229" t="inlineStr"/>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr">
@@ -40076,29 +39526,25 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1230" t="inlineStr"/>
       <c r="F1230" t="inlineStr"/>
       <c r="G1230" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H1230" t="inlineStr">
@@ -40110,29 +39556,29 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1231" t="inlineStr"/>
       <c r="E1231" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1231" t="inlineStr">
@@ -40144,29 +39590,29 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
       <c r="E1232" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1232" t="inlineStr"/>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr">
@@ -40178,91 +39624,87 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1233" t="inlineStr"/>
       <c r="E1233" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1233" t="inlineStr"/>
       <c r="G1233" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>¥ 100B</t>
         </is>
       </c>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr"/>
+      <c r="E1234" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr"/>
       <c r="H1234" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1235" t="inlineStr"/>
       <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1235" t="inlineStr"/>
       <c r="H1235" t="inlineStr">
         <is>
           <t>3</t>
@@ -40272,23 +39714,23 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr"/>
       <c r="E1236" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>-3.8%</t>
         </is>
       </c>
       <c r="F1236" t="inlineStr"/>
@@ -40302,17 +39744,17 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr"/>
@@ -40328,49 +39770,57 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr"/>
+      <c r="E1238" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr"/>
+      <c r="G1238" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr"/>
       <c r="E1239" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F1239" t="inlineStr"/>
@@ -40384,17 +39834,17 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1240" t="inlineStr"/>
@@ -40403,636 +39853,6 @@
       <c r="G1240" t="inlineStr"/>
       <c r="H1240" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1241" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1241" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
-      <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
-      <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr"/>
-      <c r="H1241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1242" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr"/>
-      <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
-      <c r="H1242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1243" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1243" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr"/>
-      <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr"/>
-      <c r="H1243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1244" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1244" t="inlineStr"/>
-      <c r="E1244" t="inlineStr"/>
-      <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr"/>
-      <c r="H1244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1245" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1245" t="inlineStr"/>
-      <c r="E1245" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1246" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1246" t="inlineStr"/>
-      <c r="E1246" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H1246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1247" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H1247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1248" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr"/>
-      <c r="H1248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1249" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1249" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr"/>
-      <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr"/>
-      <c r="H1249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1250" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1250" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr"/>
-      <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr"/>
-      <c r="H1250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1251" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1251" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1251" t="inlineStr"/>
-      <c r="E1251" t="inlineStr">
-        <is>
-          <t>127.1%</t>
-        </is>
-      </c>
-      <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H1251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1252" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1252" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr"/>
-      <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H1252" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1253" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1253" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="D1253" t="inlineStr"/>
-      <c r="E1253" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1254" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1254" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
-        </is>
-      </c>
-      <c r="D1254" t="inlineStr"/>
-      <c r="E1254" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1255" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1255" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D1255" t="inlineStr"/>
-      <c r="E1255" t="inlineStr">
-        <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
-      <c r="F1255" t="inlineStr"/>
-      <c r="G1255" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
-      <c r="H1255" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1256" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1256" t="inlineStr">
-        <is>
-          <t>Exports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1256" t="inlineStr"/>
-      <c r="G1256" t="inlineStr"/>
-      <c r="H1256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1257" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1257" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
-        </is>
-      </c>
-      <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr"/>
-      <c r="F1257" t="inlineStr"/>
-      <c r="G1257" t="inlineStr"/>
-      <c r="H1257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1258">
-      <c r="A1258" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1258" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1258" t="inlineStr">
-        <is>
-          <t>Imports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="F1258" t="inlineStr"/>
-      <c r="G1258" t="inlineStr"/>
-      <c r="H1258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1259" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1259" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
-        </is>
-      </c>
-      <c r="D1259" t="inlineStr"/>
-      <c r="E1259" t="inlineStr"/>
-      <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr"/>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1260" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1260" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D1260" t="inlineStr"/>
-      <c r="E1260" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F1260" t="inlineStr"/>
-      <c r="G1260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1260" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1261" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C1261" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="F1261" t="inlineStr"/>
-      <c r="G1261" t="inlineStr"/>
-      <c r="H1261" t="inlineStr">
-        <is>
           <t>3</t>
         </is>
       </c>
